--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$169</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6189" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="701">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Profile : Questionnaire</t>
+    <t>Profile : QuestionnaireS37SDC</t>
   </si>
   <si>
     <t>Status</t>
@@ -2522,7 +2522,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN170"/>
+  <dimension ref="A1:AN169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18006,7 +18006,7 @@
         <v>664</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>77</v>
@@ -18028,16 +18028,16 @@
         <v>77</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -18122,7 +18122,7 @@
         <v>664</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>77</v>
@@ -18144,16 +18144,16 @@
         <v>77</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18221,7 +18221,7 @@
         <v>77</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>77</v>
@@ -18230,48 +18230,48 @@
         <v>77</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>447</v>
+        <v>128</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>77</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>77</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>222</v>
+        <v>455</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>75</v>
@@ -18328,7 +18328,7 @@
         <v>76</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>134</v>
@@ -18337,7 +18337,7 @@
         <v>77</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>417</v>
+        <v>126</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>77</v>
@@ -18346,47 +18346,47 @@
         <v>77</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>178</v>
+        <v>460</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>77</v>
@@ -18435,25 +18435,25 @@
         <v>77</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>126</v>
+        <v>461</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>77</v>
@@ -18467,7 +18467,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18475,7 +18475,7 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>83</v>
@@ -18490,19 +18490,19 @@
         <v>77</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>77</v>
@@ -18551,10 +18551,10 @@
         <v>77</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>83</v>
@@ -18569,7 +18569,7 @@
         <v>77</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>77</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18594,7 +18594,7 @@
         <v>75</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>77</v>
@@ -18606,19 +18606,19 @@
         <v>77</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>97</v>
+        <v>353</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>77</v>
@@ -18643,13 +18643,13 @@
         <v>77</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>77</v>
@@ -18667,16 +18667,16 @@
         <v>77</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>95</v>
@@ -18685,7 +18685,7 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>467</v>
+        <v>360</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>77</v>
@@ -18699,18 +18699,18 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>77</v>
+        <v>474</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>77</v>
@@ -18722,19 +18722,19 @@
         <v>77</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>77</v>
@@ -18759,13 +18759,13 @@
         <v>77</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>77</v>
@@ -18783,16 +18783,16 @@
         <v>77</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>95</v>
@@ -18801,7 +18801,7 @@
         <v>77</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>360</v>
+        <v>479</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>77</v>
@@ -18815,11 +18815,11 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18841,17 +18841,15 @@
         <v>85</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>77</v>
       </c>
@@ -18899,7 +18897,7 @@
         <v>77</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>75</v>
@@ -18917,7 +18915,7 @@
         <v>77</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>479</v>
+        <v>301</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>77</v>
@@ -18931,7 +18929,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18939,7 +18937,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>83</v>
@@ -18954,18 +18952,20 @@
         <v>77</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N144" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O144" t="s" s="2">
         <v>77</v>
       </c>
@@ -18989,13 +18989,13 @@
         <v>77</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>77</v>
+        <v>505</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>77</v>
@@ -19013,10 +19013,10 @@
         <v>77</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>83</v>
@@ -19031,7 +19031,7 @@
         <v>77</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>77</v>
@@ -19045,7 +19045,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19053,34 +19053,34 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>672</v>
+        <v>509</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>77</v>
@@ -19105,13 +19105,13 @@
         <v>77</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>77</v>
@@ -19129,19 +19129,19 @@
         <v>77</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>95</v>
+        <v>511</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>77</v>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19172,32 +19172,28 @@
         <v>75</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I146" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>362</v>
+        <v>85</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>507</v>
+        <v>370</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>77</v>
       </c>
@@ -19245,25 +19241,25 @@
         <v>77</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>506</v>
+        <v>220</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>511</v>
+        <v>77</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>77</v>
@@ -19277,18 +19273,18 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>77</v>
@@ -19300,15 +19296,17 @@
         <v>77</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>370</v>
+        <v>514</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M147" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>77</v>
@@ -19357,19 +19355,19 @@
         <v>77</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>77</v>
@@ -19389,11 +19387,11 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>174</v>
+        <v>452</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19406,24 +19404,26 @@
         <v>77</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J148" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N148" s="2"/>
+      <c r="N148" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O148" t="s" s="2">
         <v>77</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>77</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>222</v>
+        <v>455</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>75</v>
@@ -19489,7 +19489,7 @@
         <v>77</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>372</v>
+        <v>126</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>77</v>
@@ -19503,43 +19503,41 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>77</v>
       </c>
@@ -19587,25 +19585,25 @@
         <v>77</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>126</v>
+        <v>412</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>77</v>
@@ -19619,7 +19617,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19642,17 +19640,15 @@
         <v>77</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>77</v>
@@ -19677,13 +19673,13 @@
         <v>77</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>77</v>
+        <v>524</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>77</v>
@@ -19701,7 +19697,7 @@
         <v>77</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>83</v>
@@ -19733,7 +19729,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19756,13 +19752,13 @@
         <v>77</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>103</v>
+        <v>527</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -19789,13 +19785,13 @@
         <v>77</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>249</v>
+        <v>357</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>77</v>
@@ -19813,7 +19809,7 @@
         <v>77</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>83</v>
@@ -19822,7 +19818,7 @@
         <v>83</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>95</v>
@@ -19845,7 +19841,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19853,7 +19849,7 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>83</v>
@@ -19868,15 +19864,17 @@
         <v>77</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>527</v>
+        <v>103</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M152" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>77</v>
@@ -19901,13 +19899,13 @@
         <v>77</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>357</v>
+        <v>249</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>77</v>
@@ -19925,16 +19923,16 @@
         <v>77</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>95</v>
@@ -19957,7 +19955,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19980,22 +19978,24 @@
         <v>77</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P153" s="2"/>
+      <c r="P153" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="Q153" t="s" s="2">
         <v>77</v>
       </c>
@@ -20015,13 +20015,13 @@
         <v>77</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>535</v>
+        <v>77</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>537</v>
+        <v>77</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>77</v>
@@ -20039,7 +20039,7 @@
         <v>77</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>75</v>
@@ -20048,7 +20048,7 @@
         <v>83</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>95</v>
@@ -20071,7 +20071,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20097,20 +20097,22 @@
         <v>256</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>541</v>
+        <v>683</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N154" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P154" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="Q154" t="s" s="2">
         <v>77</v>
@@ -20155,7 +20157,7 @@
         <v>77</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>75</v>
@@ -20187,7 +20189,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20213,23 +20215,21 @@
         <v>256</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>683</v>
+        <v>553</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P155" t="s" s="2">
-        <v>550</v>
-      </c>
+      <c r="P155" s="2"/>
       <c r="Q155" t="s" s="2">
         <v>77</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>77</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>75</v>
@@ -20282,7 +20282,7 @@
         <v>83</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>95</v>
@@ -20305,7 +20305,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20328,20 +20328,18 @@
         <v>77</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>256</v>
+        <v>558</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>77</v>
       </c>
@@ -20389,7 +20387,7 @@
         <v>77</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>75</v>
@@ -20398,7 +20396,7 @@
         <v>83</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>95</v>
@@ -20416,12 +20414,12 @@
         <v>77</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20444,16 +20442,16 @@
         <v>77</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>558</v>
+        <v>687</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -20503,7 +20501,7 @@
         <v>77</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>75</v>
@@ -20512,7 +20510,7 @@
         <v>83</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>95</v>
@@ -20530,12 +20528,12 @@
         <v>77</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20546,7 +20544,7 @@
         <v>75</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>77</v>
@@ -20558,16 +20556,16 @@
         <v>77</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>687</v>
+        <v>362</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
@@ -20617,13 +20615,13 @@
         <v>77</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>568</v>
@@ -20649,7 +20647,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20660,7 +20658,7 @@
         <v>75</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>77</v>
@@ -20672,17 +20670,15 @@
         <v>77</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>362</v>
+        <v>85</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>570</v>
+        <v>370</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>77</v>
@@ -20731,25 +20727,25 @@
         <v>77</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>569</v>
+        <v>220</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>568</v>
+        <v>77</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>77</v>
@@ -20763,18 +20759,18 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>77</v>
@@ -20786,15 +20782,17 @@
         <v>77</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>370</v>
+        <v>514</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M160" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
         <v>77</v>
@@ -20843,19 +20841,19 @@
         <v>77</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>77</v>
@@ -20875,11 +20873,11 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>174</v>
+        <v>452</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20892,24 +20890,26 @@
         <v>77</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="M161" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N161" s="2"/>
+      <c r="N161" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O161" t="s" s="2">
         <v>77</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>77</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>222</v>
+        <v>455</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>75</v>
@@ -20975,7 +20975,7 @@
         <v>77</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>372</v>
+        <v>126</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>77</v>
@@ -20989,43 +20989,41 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>128</v>
+        <v>693</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>453</v>
+        <v>582</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>454</v>
+        <v>583</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>77</v>
       </c>
@@ -21049,13 +21047,13 @@
         <v>77</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>77</v>
+        <v>531</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>77</v>
@@ -21073,25 +21071,25 @@
         <v>77</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>455</v>
+        <v>580</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>126</v>
+        <v>412</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>77</v>
@@ -21105,7 +21103,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21113,7 +21111,7 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F163" t="s" s="2">
         <v>83</v>
@@ -21128,22 +21126,24 @@
         <v>77</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>693</v>
+        <v>256</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>582</v>
+        <v>638</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>584</v>
+        <v>640</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P163" s="2"/>
+      <c r="P163" t="s" s="2">
+        <v>641</v>
+      </c>
       <c r="Q163" t="s" s="2">
         <v>77</v>
       </c>
@@ -21163,13 +21163,13 @@
         <v>77</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>530</v>
+        <v>77</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>77</v>
@@ -21187,10 +21187,10 @@
         <v>77</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>580</v>
+        <v>637</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>83</v>
@@ -21219,7 +21219,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21230,7 +21230,7 @@
         <v>75</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>77</v>
@@ -21242,24 +21242,24 @@
         <v>77</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N164" s="2"/>
+        <v>645</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="O164" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P164" t="s" s="2">
-        <v>641</v>
-      </c>
+      <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
         <v>77</v>
       </c>
@@ -21303,16 +21303,16 @@
         <v>77</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>77</v>
+        <v>647</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>95</v>
@@ -21335,7 +21335,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21346,7 +21346,7 @@
         <v>75</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>77</v>
@@ -21358,20 +21358,16 @@
         <v>77</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>362</v>
+        <v>85</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>643</v>
+        <v>370</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>646</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>77</v>
       </c>
@@ -21419,25 +21415,25 @@
         <v>77</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>642</v>
+        <v>220</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>647</v>
+        <v>77</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>77</v>
@@ -21451,18 +21447,18 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>77</v>
@@ -21474,15 +21470,17 @@
         <v>77</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>370</v>
+        <v>514</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M166" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
         <v>77</v>
@@ -21531,19 +21529,19 @@
         <v>77</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>77</v>
@@ -21563,11 +21561,11 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>174</v>
+        <v>452</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21580,24 +21578,26 @@
         <v>77</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J167" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="M167" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N167" s="2"/>
+      <c r="N167" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O167" t="s" s="2">
         <v>77</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>77</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>222</v>
+        <v>455</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>75</v>
@@ -21663,7 +21663,7 @@
         <v>77</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>372</v>
+        <v>126</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>77</v>
@@ -21677,43 +21677,41 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>128</v>
+        <v>652</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>453</v>
+        <v>653</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>454</v>
+        <v>654</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>77</v>
       </c>
@@ -21737,13 +21735,13 @@
         <v>77</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>77</v>
+        <v>531</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>77</v>
@@ -21761,25 +21759,25 @@
         <v>77</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>455</v>
+        <v>651</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>126</v>
+        <v>412</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>77</v>
@@ -21793,7 +21791,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21801,10 +21799,10 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>77</v>
@@ -21816,18 +21814,20 @@
         <v>77</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>652</v>
+        <v>77</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N169" s="2"/>
+        <v>659</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="O169" t="s" s="2">
         <v>77</v>
       </c>
@@ -21851,13 +21851,13 @@
         <v>77</v>
       </c>
       <c r="W169" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>530</v>
+        <v>77</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>77</v>
@@ -21875,16 +21875,16 @@
         <v>77</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>77</v>
+        <v>661</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>95</v>
@@ -21893,7 +21893,7 @@
         <v>77</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>412</v>
+        <v>662</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>77</v>
@@ -21902,127 +21902,11 @@
         <v>77</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="170" hidden="true">
-      <c r="A170" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K170" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P170" s="2"/>
-      <c r="Q170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH170" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AI170" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK170" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AL170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN170" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN170">
+  <autoFilter ref="A1:AN169">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -22032,7 +21916,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI169">
+  <conditionalFormatting sqref="A2:AI168">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$171</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6224" uniqueCount="703">
   <si>
     <t>Property</t>
   </si>
@@ -521,7 +521,7 @@
     <t>formSettings</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/rendering-settings}
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/rendering}
 </t>
   </si>
   <si>
@@ -1395,6 +1395,13 @@
   </si>
   <si>
     <t>itemRenderingSettings</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/version}
+</t>
   </si>
   <si>
     <t>hidden</t>
@@ -2522,7 +2529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN169"/>
+  <dimension ref="A1:AN171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9918,7 +9925,7 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -10044,17 +10051,15 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>165</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -10138,7 +10143,7 @@
         <v>373</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>77</v>
@@ -10160,16 +10165,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10254,7 +10259,7 @@
         <v>373</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -10276,16 +10281,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10353,7 +10358,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10362,48 +10367,48 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="C69" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>128</v>
+        <v>449</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10451,7 +10456,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>222</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -10469,56 +10474,56 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>459</v>
+        <v>177</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>460</v>
+        <v>178</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10567,25 +10572,25 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>461</v>
+        <v>126</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10597,9 +10602,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10607,13 +10612,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -10622,19 +10627,19 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10683,10 +10688,10 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>83</v>
@@ -10701,7 +10706,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10715,7 +10720,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10726,7 +10731,7 @@
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -10738,19 +10743,19 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>353</v>
+        <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10775,13 +10780,13 @@
         <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>77</v>
@@ -10799,16 +10804,16 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>95</v>
@@ -10817,7 +10822,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>360</v>
+        <v>469</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10829,23 +10834,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10854,19 +10859,19 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10891,13 +10896,13 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
@@ -10915,16 +10920,16 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>95</v>
@@ -10933,7 +10938,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>479</v>
+        <v>360</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10945,13 +10950,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10961,7 +10966,7 @@
         <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10973,13 +10978,17 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>218</v>
+        <v>477</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -11027,7 +11036,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>220</v>
+        <v>475</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -11039,13 +11048,13 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -11059,7 +11068,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11070,7 +11079,7 @@
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -11082,13 +11091,13 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11127,29 +11136,31 @@
         <v>77</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB75" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
@@ -11169,11 +11180,9 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>77</v>
       </c>
@@ -11182,7 +11191,7 @@
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -11194,17 +11203,15 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11241,16 +11248,14 @@
         <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE76" t="s" s="2">
         <v>222</v>
@@ -11262,7 +11267,7 @@
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>134</v>
@@ -11271,7 +11276,7 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11285,10 +11290,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>77</v>
@@ -11310,15 +11315,17 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -11385,7 +11392,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -11399,9 +11406,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11422,13 +11431,13 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11452,7 +11461,7 @@
         <v>77</v>
       </c>
       <c r="V78" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
         <v>77</v>
@@ -11479,25 +11488,25 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11509,9 +11518,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11525,7 +11534,7 @@
         <v>83</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -11537,14 +11546,12 @@
         <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>486</v>
+        <v>234</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11566,7 +11573,7 @@
         <v>77</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>77</v>
@@ -11593,7 +11600,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>485</v>
+        <v>237</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11605,13 +11612,13 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11623,9 +11630,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11639,7 +11646,7 @@
         <v>83</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -11651,12 +11658,14 @@
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>218</v>
+        <v>488</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11705,7 +11714,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>220</v>
+        <v>487</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -11717,13 +11726,13 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11737,7 +11746,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11748,7 +11757,7 @@
         <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>77</v>
@@ -11760,13 +11769,13 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11805,29 +11814,31 @@
         <v>77</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB81" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
@@ -11847,11 +11858,9 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11860,7 +11869,7 @@
         <v>75</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
@@ -11872,17 +11881,15 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -11919,16 +11926,14 @@
         <v>77</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB82" s="2"/>
       <c r="AC82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>222</v>
@@ -11940,7 +11945,7 @@
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>134</v>
@@ -11949,7 +11954,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11963,10 +11968,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>77</v>
@@ -11988,15 +11993,17 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12063,7 +12070,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12075,12 +12082,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>77</v>
@@ -12093,7 +12100,7 @@
         <v>83</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -12102,17 +12109,15 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>494</v>
+        <v>229</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>495</v>
+        <v>230</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -12179,7 +12184,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12191,11 +12196,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>77</v>
       </c>
@@ -12207,7 +12214,7 @@
         <v>83</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -12216,15 +12223,17 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>85</v>
+        <v>496</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>234</v>
+        <v>497</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -12246,7 +12255,7 @@
         <v>77</v>
       </c>
       <c r="V85" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
         <v>77</v>
@@ -12273,19 +12282,19 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
@@ -12303,9 +12312,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12313,13 +12322,13 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -12328,20 +12337,16 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>500</v>
+        <v>234</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
       </c>
@@ -12362,16 +12367,16 @@
         <v>77</v>
       </c>
       <c r="V86" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -12389,10 +12394,10 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>499</v>
+        <v>237</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
@@ -12401,13 +12406,13 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12419,9 +12424,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12429,34 +12434,34 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -12481,13 +12486,13 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>77</v>
+        <v>506</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12505,19 +12510,19 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>511</v>
+        <v>95</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
@@ -12537,7 +12542,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12548,28 +12553,32 @@
         <v>75</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>370</v>
+        <v>509</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12617,25 +12626,25 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>220</v>
+        <v>508</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12649,18 +12658,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>77</v>
@@ -12672,17 +12681,15 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>514</v>
+        <v>370</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12731,19 +12738,19 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>77</v>
@@ -12763,11 +12770,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>452</v>
+        <v>174</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12780,26 +12787,24 @@
         <v>77</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12847,7 +12852,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>455</v>
+        <v>222</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -12865,7 +12870,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>126</v>
+        <v>372</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12879,41 +12884,43 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>518</v>
+        <v>455</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>519</v>
+        <v>456</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>77</v>
       </c>
@@ -12961,25 +12968,25 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>517</v>
+        <v>457</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>412</v>
+        <v>126</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12993,7 +13000,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13016,15 +13023,17 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13049,13 +13058,13 @@
         <v>77</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>524</v>
+        <v>77</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13073,7 +13082,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>83</v>
@@ -13105,7 +13114,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13128,13 +13137,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>527</v>
+        <v>103</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13161,13 +13170,13 @@
         <v>77</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>357</v>
+        <v>249</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>77</v>
@@ -13185,7 +13194,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>83</v>
@@ -13194,7 +13203,7 @@
         <v>83</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>532</v>
+        <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>95</v>
@@ -13217,7 +13226,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13225,7 +13234,7 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>83</v>
@@ -13240,17 +13249,15 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>103</v>
+        <v>529</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>77</v>
@@ -13275,13 +13282,13 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>249</v>
+        <v>357</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13299,16 +13306,16 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>95</v>
@@ -13329,9 +13336,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13345,7 +13352,7 @@
         <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -13354,24 +13361,22 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>256</v>
+        <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P95" t="s" s="2">
-        <v>543</v>
-      </c>
+      <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>77</v>
       </c>
@@ -13391,13 +13396,13 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>77</v>
+        <v>537</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>77</v>
+        <v>539</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
@@ -13415,7 +13420,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
@@ -13424,7 +13429,7 @@
         <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>95</v>
@@ -13447,7 +13452,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13473,76 +13478,74 @@
         <v>256</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH96" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P96" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="Q96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -13565,7 +13568,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13591,21 +13594,23 @@
         <v>256</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13649,7 +13654,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -13658,7 +13663,7 @@
         <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13681,7 +13686,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13704,18 +13709,20 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>558</v>
+        <v>256</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13763,7 +13770,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -13772,7 +13779,7 @@
         <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13790,12 +13797,12 @@
         <v>77</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13818,16 +13825,16 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13877,7 +13884,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -13886,7 +13893,7 @@
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13904,12 +13911,12 @@
         <v>77</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13920,7 +13927,7 @@
         <v>75</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>84</v>
@@ -13932,16 +13939,16 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>362</v>
+        <v>566</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13991,16 +13998,16 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -14021,9 +14028,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14034,10 +14041,10 @@
         <v>75</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
@@ -14046,15 +14053,17 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>370</v>
+        <v>572</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M101" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>77</v>
@@ -14103,25 +14112,25 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>220</v>
+        <v>571</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>77</v>
+        <v>570</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14135,7 +14144,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14146,7 +14155,7 @@
         <v>75</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>77</v>
@@ -14158,13 +14167,13 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>129</v>
+        <v>370</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -14203,35 +14212,37 @@
         <v>77</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB102" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14245,11 +14256,9 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
         <v>77</v>
       </c>
@@ -14258,7 +14267,7 @@
         <v>75</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>77</v>
@@ -14270,13 +14279,13 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>576</v>
+        <v>128</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>577</v>
+        <v>129</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>578</v>
+        <v>130</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14315,16 +14324,14 @@
         <v>77</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB103" s="2"/>
       <c r="AC103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE103" t="s" s="2">
         <v>222</v>
@@ -14336,7 +14343,7 @@
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>134</v>
@@ -14359,43 +14366,41 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B104" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="C104" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>128</v>
+        <v>578</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>453</v>
+        <v>579</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>77</v>
       </c>
@@ -14443,7 +14448,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>455</v>
+        <v>222</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -14452,7 +14457,7 @@
         <v>76</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>134</v>
@@ -14461,7 +14466,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14475,41 +14480,43 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>581</v>
+        <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>582</v>
+        <v>455</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>583</v>
+        <v>456</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
       </c>
@@ -14533,47 +14540,49 @@
         <v>77</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>530</v>
+        <v>77</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AB105" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>586</v>
+        <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>580</v>
+        <v>457</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>412</v>
+        <v>126</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14587,17 +14596,15 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>83</v>
@@ -14612,16 +14619,16 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>85</v>
+        <v>583</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14650,28 +14657,26 @@
         <v>357</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="AB106" s="2"/>
       <c r="AC106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>77</v>
+        <v>588</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>83</v>
@@ -14703,9 +14708,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B107" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="C107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14729,12 +14736,14 @@
         <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>218</v>
+        <v>584</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14759,13 +14768,13 @@
         <v>77</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14783,10 +14792,10 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>220</v>
+        <v>582</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>83</v>
@@ -14795,13 +14804,13 @@
         <v>77</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14815,7 +14824,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14826,7 +14835,7 @@
         <v>75</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>77</v>
@@ -14838,13 +14847,13 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14883,29 +14892,31 @@
         <v>77</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB108" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>77</v>
@@ -14925,11 +14936,9 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
         <v>77</v>
       </c>
@@ -14938,7 +14947,7 @@
         <v>75</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>77</v>
@@ -14950,17 +14959,15 @@
         <v>77</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -14997,16 +15004,14 @@
         <v>77</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB109" s="2"/>
       <c r="AC109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE109" t="s" s="2">
         <v>222</v>
@@ -15018,7 +15023,7 @@
         <v>76</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>134</v>
@@ -15027,7 +15032,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15041,10 +15046,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>77</v>
@@ -15066,15 +15071,17 @@
         <v>77</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M110" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>77</v>
@@ -15141,7 +15148,7 @@
         <v>77</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -15155,9 +15162,11 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="B111" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="C111" t="s" s="2">
         <v>77</v>
       </c>
@@ -15178,13 +15187,13 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15208,7 +15217,7 @@
         <v>77</v>
       </c>
       <c r="V111" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="W111" t="s" s="2">
         <v>77</v>
@@ -15235,25 +15244,25 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15267,11 +15276,9 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>77</v>
       </c>
@@ -15292,17 +15299,15 @@
         <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>582</v>
+        <v>234</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>77</v>
@@ -15324,16 +15329,16 @@
         <v>77</v>
       </c>
       <c r="V112" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>530</v>
+        <v>77</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>77</v>
@@ -15351,10 +15356,10 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>580</v>
+        <v>237</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>83</v>
@@ -15363,13 +15368,13 @@
         <v>77</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -15383,9 +15388,11 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B113" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="C113" t="s" s="2">
         <v>77</v>
       </c>
@@ -15406,15 +15413,17 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>370</v>
+        <v>584</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M113" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15439,13 +15448,13 @@
         <v>77</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15463,10 +15472,10 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>220</v>
+        <v>582</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>83</v>
@@ -15475,13 +15484,13 @@
         <v>77</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -15495,18 +15504,18 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>77</v>
@@ -15518,17 +15527,15 @@
         <v>77</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>514</v>
+        <v>370</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15565,31 +15572,31 @@
         <v>77</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>594</v>
+        <v>77</v>
       </c>
       <c r="AC114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>77</v>
@@ -15609,18 +15616,18 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>77</v>
@@ -15629,23 +15636,21 @@
         <v>77</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>596</v>
+        <v>516</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>597</v>
+        <v>517</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>77</v>
       </c>
@@ -15681,37 +15686,37 @@
         <v>77</v>
       </c>
       <c r="AA115" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>77</v>
+        <v>596</v>
       </c>
       <c r="AC115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD115" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>600</v>
+        <v>222</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>601</v>
+        <v>372</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15720,12 +15725,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>602</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15748,18 +15753,20 @@
         <v>84</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
       </c>
@@ -15807,7 +15814,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
@@ -15825,7 +15832,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -15834,12 +15841,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15862,18 +15869,18 @@
         <v>84</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" t="s" s="2">
-        <v>613</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>77</v>
       </c>
@@ -15921,7 +15928,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
@@ -15939,7 +15946,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -15948,12 +15955,12 @@
         <v>77</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15976,17 +15983,17 @@
         <v>84</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16035,7 +16042,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -16053,7 +16060,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16062,12 +16069,12 @@
         <v>77</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16087,19 +16094,21 @@
         <v>77</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>218</v>
+        <v>620</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>219</v>
+        <v>621</v>
       </c>
       <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="N119" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>77</v>
       </c>
@@ -16147,7 +16156,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>220</v>
+        <v>623</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
@@ -16159,13 +16168,13 @@
         <v>77</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>77</v>
+        <v>624</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
@@ -16174,12 +16183,12 @@
         <v>77</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>77</v>
+        <v>625</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16190,7 +16199,7 @@
         <v>75</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>77</v>
@@ -16202,13 +16211,13 @@
         <v>77</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16247,29 +16256,31 @@
         <v>77</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB120" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>77</v>
@@ -16289,11 +16300,9 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>626</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
         <v>77</v>
       </c>
@@ -16302,7 +16311,7 @@
         <v>75</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>77</v>
@@ -16314,17 +16323,15 @@
         <v>77</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>77</v>
@@ -16361,16 +16368,14 @@
         <v>77</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB121" s="2"/>
       <c r="AC121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE121" t="s" s="2">
         <v>222</v>
@@ -16382,7 +16387,7 @@
         <v>76</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>134</v>
@@ -16391,7 +16396,7 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -16405,10 +16410,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>77</v>
@@ -16430,15 +16435,17 @@
         <v>77</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M122" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>77</v>
@@ -16505,7 +16512,7 @@
         <v>77</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>77</v>
@@ -16519,9 +16526,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="B123" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="C123" t="s" s="2">
         <v>77</v>
       </c>
@@ -16542,13 +16551,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16572,7 +16581,7 @@
         <v>77</v>
       </c>
       <c r="V123" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="W123" t="s" s="2">
         <v>77</v>
@@ -16599,25 +16608,25 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16631,7 +16640,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16651,23 +16660,19 @@
         <v>77</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>630</v>
+        <v>234</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>633</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>77</v>
       </c>
@@ -16688,7 +16693,7 @@
         <v>77</v>
       </c>
       <c r="V124" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="W124" t="s" s="2">
         <v>77</v>
@@ -16715,7 +16720,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>634</v>
+        <v>237</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>75</v>
@@ -16727,13 +16732,13 @@
         <v>77</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>635</v>
+        <v>77</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
@@ -16742,12 +16747,12 @@
         <v>77</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>636</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16767,27 +16772,27 @@
         <v>77</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>256</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>634</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P125" t="s" s="2">
-        <v>641</v>
-      </c>
+      <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
         <v>77</v>
       </c>
@@ -16831,7 +16836,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
@@ -16849,7 +16854,7 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>412</v>
+        <v>637</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
@@ -16858,12 +16863,12 @@
         <v>77</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>77</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16874,10 +16879,10 @@
         <v>75</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>77</v>
@@ -16886,24 +16891,24 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P126" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="L126" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
         <v>77</v>
       </c>
@@ -16947,16 +16952,16 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>647</v>
+        <v>77</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>95</v>
@@ -16977,9 +16982,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16990,10 +16995,10 @@
         <v>75</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>77</v>
@@ -17002,16 +17007,20 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>370</v>
+        <v>645</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+        <v>646</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>648</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>77</v>
       </c>
@@ -17059,25 +17068,25 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>220</v>
+        <v>644</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>77</v>
+        <v>649</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17091,18 +17100,18 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>77</v>
@@ -17114,17 +17123,15 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>514</v>
+        <v>370</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>77</v>
@@ -17173,19 +17180,19 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>77</v>
@@ -17205,11 +17212,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>452</v>
+        <v>174</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17222,26 +17229,24 @@
         <v>77</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N129" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>77</v>
       </c>
@@ -17289,7 +17294,7 @@
         <v>77</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>455</v>
+        <v>222</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -17307,7 +17312,7 @@
         <v>77</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>126</v>
+        <v>372</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>77</v>
@@ -17319,43 +17324,45 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H130" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H130" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I130" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>652</v>
+        <v>128</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>653</v>
+        <v>455</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>654</v>
+        <v>456</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>77</v>
       </c>
@@ -17379,13 +17386,13 @@
         <v>77</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>530</v>
+        <v>77</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>77</v>
@@ -17403,25 +17410,25 @@
         <v>77</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>651</v>
+        <v>457</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>412</v>
+        <v>126</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>77</v>
@@ -17435,7 +17442,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17443,10 +17450,10 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>84</v>
@@ -17458,20 +17465,18 @@
         <v>77</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>362</v>
+        <v>654</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L131" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>660</v>
-      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>77</v>
       </c>
@@ -17495,13 +17500,13 @@
         <v>77</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>77</v>
@@ -17519,16 +17524,16 @@
         <v>77</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>661</v>
+        <v>77</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>95</v>
@@ -17537,7 +17542,7 @@
         <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>662</v>
+        <v>412</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>77</v>
@@ -17549,9 +17554,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17562,10 +17567,10 @@
         <v>75</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>77</v>
@@ -17574,16 +17579,20 @@
         <v>77</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>370</v>
+        <v>659</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>662</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>77</v>
       </c>
@@ -17631,25 +17640,25 @@
         <v>77</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>220</v>
+        <v>658</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>77</v>
+        <v>663</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>372</v>
+        <v>664</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>77</v>
@@ -17663,7 +17672,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17674,7 +17683,7 @@
         <v>75</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>77</v>
@@ -17686,13 +17695,13 @@
         <v>77</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>129</v>
+        <v>370</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17731,35 +17740,37 @@
         <v>77</v>
       </c>
       <c r="AA133" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB133" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD133" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>77</v>
@@ -17773,11 +17784,9 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
         <v>77</v>
       </c>
@@ -17786,7 +17795,7 @@
         <v>75</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>77</v>
@@ -17798,13 +17807,13 @@
         <v>77</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -17843,16 +17852,14 @@
         <v>77</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB134" s="2"/>
       <c r="AC134" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE134" t="s" s="2">
         <v>222</v>
@@ -17864,7 +17871,7 @@
         <v>76</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>134</v>
@@ -17887,10 +17894,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>77</v>
@@ -17912,17 +17919,15 @@
         <v>77</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>390</v>
+        <v>161</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>391</v>
+        <v>162</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>77</v>
@@ -18003,10 +18008,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>77</v>
@@ -18028,17 +18033,15 @@
         <v>77</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>443</v>
+        <v>165</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>77</v>
@@ -18119,10 +18122,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>77</v>
@@ -18144,16 +18147,16 @@
         <v>77</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18221,7 +18224,7 @@
         <v>77</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>77</v>
@@ -18230,48 +18233,48 @@
         <v>77</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="B138" s="2"/>
+        <v>666</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="C138" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>128</v>
+        <v>444</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>77</v>
       </c>
@@ -18319,7 +18322,7 @@
         <v>77</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>455</v>
+        <v>222</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>75</v>
@@ -18328,7 +18331,7 @@
         <v>76</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>134</v>
@@ -18337,7 +18340,7 @@
         <v>77</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>77</v>
@@ -18353,13 +18356,15 @@
       <c r="A139" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="B139" s="2"/>
+      <c r="B139" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="C139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F139" t="s" s="2">
         <v>83</v>
@@ -18374,20 +18379,18 @@
         <v>77</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>85</v>
+        <v>449</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>77</v>
       </c>
@@ -18435,25 +18438,25 @@
         <v>77</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>456</v>
+        <v>222</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>77</v>
@@ -18462,7 +18465,7 @@
         <v>77</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140" hidden="true">
@@ -18471,38 +18474,38 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>465</v>
+        <v>177</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>466</v>
+        <v>178</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>77</v>
@@ -18551,25 +18554,25 @@
         <v>77</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>467</v>
+        <v>126</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>77</v>
@@ -18591,10 +18594,10 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>77</v>
@@ -18606,19 +18609,19 @@
         <v>77</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>77</v>
@@ -18643,13 +18646,13 @@
         <v>77</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>77</v>
@@ -18667,16 +18670,16 @@
         <v>77</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>95</v>
@@ -18685,7 +18688,7 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>360</v>
+        <v>463</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>77</v>
@@ -18703,7 +18706,7 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18722,19 +18725,19 @@
         <v>77</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>77</v>
@@ -18783,7 +18786,7 @@
         <v>77</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>75</v>
@@ -18801,7 +18804,7 @@
         <v>77</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>77</v>
@@ -18826,7 +18829,7 @@
         <v>75</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>77</v>
@@ -18838,18 +18841,20 @@
         <v>77</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N143" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O143" t="s" s="2">
         <v>77</v>
       </c>
@@ -18873,13 +18878,13 @@
         <v>77</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>77</v>
@@ -18897,16 +18902,16 @@
         <v>77</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>95</v>
@@ -18915,7 +18920,7 @@
         <v>77</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>77</v>
@@ -18933,11 +18938,11 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>83</v>
@@ -18952,19 +18957,19 @@
         <v>77</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>672</v>
+        <v>479</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>77</v>
@@ -18989,13 +18994,13 @@
         <v>77</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>77</v>
@@ -19013,10 +19018,10 @@
         <v>77</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>83</v>
@@ -19031,7 +19036,7 @@
         <v>77</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>77</v>
@@ -19045,7 +19050,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19056,32 +19061,30 @@
         <v>75</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>362</v>
+        <v>85</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>77</v>
       </c>
@@ -19129,25 +19132,25 @@
         <v>77</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>511</v>
+        <v>95</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>412</v>
+        <v>301</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>77</v>
@@ -19161,7 +19164,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19169,7 +19172,7 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F146" t="s" s="2">
         <v>83</v>
@@ -19184,16 +19187,20 @@
         <v>77</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>370</v>
+        <v>502</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>77</v>
       </c>
@@ -19217,13 +19224,13 @@
         <v>77</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>77</v>
+        <v>506</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>77</v>
@@ -19241,10 +19248,10 @@
         <v>77</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>220</v>
+        <v>501</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>83</v>
@@ -19253,13 +19260,13 @@
         <v>77</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>77</v>
@@ -19277,7 +19284,7 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19290,24 +19297,26 @@
         <v>77</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N147" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O147" t="s" s="2">
         <v>77</v>
       </c>
@@ -19355,7 +19364,7 @@
         <v>77</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>222</v>
+        <v>508</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>75</v>
@@ -19367,13 +19376,13 @@
         <v>77</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>77</v>
@@ -19391,39 +19400,35 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>77</v>
       </c>
@@ -19471,25 +19476,25 @@
         <v>77</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>455</v>
+        <v>220</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>126</v>
+        <v>372</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>77</v>
@@ -19507,14 +19512,14 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>77</v>
@@ -19526,16 +19531,16 @@
         <v>77</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>520</v>
+        <v>177</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -19585,25 +19590,25 @@
         <v>77</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>517</v>
+        <v>222</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>77</v>
@@ -19621,35 +19626,39 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O150" t="s" s="2">
         <v>77</v>
       </c>
@@ -19673,13 +19682,13 @@
         <v>77</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>524</v>
+        <v>77</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>525</v>
+        <v>77</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>77</v>
@@ -19697,25 +19706,25 @@
         <v>77</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>412</v>
+        <v>126</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>77</v>
@@ -19752,15 +19761,17 @@
         <v>77</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>527</v>
+        <v>85</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M151" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>77</v>
@@ -19785,13 +19796,13 @@
         <v>77</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>530</v>
+        <v>77</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>77</v>
@@ -19809,7 +19820,7 @@
         <v>77</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>83</v>
@@ -19818,7 +19829,7 @@
         <v>83</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>532</v>
+        <v>77</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>95</v>
@@ -19849,7 +19860,7 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>83</v>
@@ -19867,14 +19878,12 @@
         <v>103</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>77</v>
@@ -19902,10 +19911,10 @@
         <v>249</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>77</v>
@@ -19923,16 +19932,16 @@
         <v>77</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>538</v>
+        <v>77</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>95</v>
@@ -19963,7 +19972,7 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F153" t="s" s="2">
         <v>83</v>
@@ -19978,24 +19987,20 @@
         <v>77</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>256</v>
+        <v>529</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P153" t="s" s="2">
-        <v>543</v>
-      </c>
+      <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
         <v>77</v>
       </c>
@@ -20015,13 +20020,13 @@
         <v>77</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>77</v>
@@ -20039,16 +20044,16 @@
         <v>77</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>95</v>
@@ -20094,26 +20099,22 @@
         <v>77</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>256</v>
+        <v>103</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>683</v>
+        <v>537</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P154" t="s" s="2">
-        <v>550</v>
-      </c>
+      <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
         <v>77</v>
       </c>
@@ -20133,13 +20134,13 @@
         <v>77</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>77</v>
+        <v>537</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>77</v>
+        <v>539</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>77</v>
@@ -20157,7 +20158,7 @@
         <v>77</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>75</v>
@@ -20166,7 +20167,7 @@
         <v>83</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>95</v>
@@ -20189,7 +20190,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20215,21 +20216,21 @@
         <v>256</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P155" s="2"/>
+      <c r="P155" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="Q155" t="s" s="2">
         <v>77</v>
       </c>
@@ -20273,7 +20274,7 @@
         <v>77</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>75</v>
@@ -20282,7 +20283,7 @@
         <v>83</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>95</v>
@@ -20305,7 +20306,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20328,22 +20329,26 @@
         <v>77</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>558</v>
+        <v>256</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>560</v>
+        <v>685</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N156" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="O156" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P156" s="2"/>
+      <c r="P156" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="Q156" t="s" s="2">
         <v>77</v>
       </c>
@@ -20387,7 +20392,7 @@
         <v>77</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>75</v>
@@ -20396,7 +20401,7 @@
         <v>83</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>95</v>
@@ -20414,7 +20419,7 @@
         <v>77</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" hidden="true">
@@ -20442,18 +20447,20 @@
         <v>77</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>687</v>
+        <v>256</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N157" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="O157" t="s" s="2">
         <v>77</v>
       </c>
@@ -20501,7 +20508,7 @@
         <v>77</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>75</v>
@@ -20510,7 +20517,7 @@
         <v>83</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>95</v>
@@ -20533,7 +20540,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20544,7 +20551,7 @@
         <v>75</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>77</v>
@@ -20556,16 +20563,16 @@
         <v>77</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>362</v>
+        <v>560</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
@@ -20615,16 +20622,16 @@
         <v>77</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>95</v>
@@ -20642,12 +20649,12 @@
         <v>77</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20670,15 +20677,17 @@
         <v>77</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>85</v>
+        <v>689</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>370</v>
+        <v>567</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M159" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>77</v>
@@ -20727,7 +20736,7 @@
         <v>77</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>220</v>
+        <v>565</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>75</v>
@@ -20736,16 +20745,16 @@
         <v>83</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>77</v>
+        <v>570</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>77</v>
@@ -20763,7 +20772,7 @@
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20782,16 +20791,16 @@
         <v>77</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>177</v>
+        <v>574</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -20841,7 +20850,7 @@
         <v>77</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>222</v>
+        <v>571</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>75</v>
@@ -20850,16 +20859,16 @@
         <v>76</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>77</v>
+        <v>570</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>77</v>
@@ -20877,39 +20886,35 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>77</v>
       </c>
@@ -20957,25 +20962,25 @@
         <v>77</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>455</v>
+        <v>220</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>126</v>
+        <v>372</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>77</v>
@@ -20993,14 +20998,14 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>77</v>
@@ -21012,16 +21017,16 @@
         <v>77</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>693</v>
+        <v>128</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>584</v>
+        <v>177</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21047,13 +21052,13 @@
         <v>77</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>530</v>
+        <v>77</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>77</v>
@@ -21071,25 +21076,25 @@
         <v>77</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>580</v>
+        <v>222</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>77</v>
@@ -21103,47 +21108,47 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>638</v>
+        <v>455</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>639</v>
+        <v>456</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N163" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O163" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P163" t="s" s="2">
-        <v>641</v>
-      </c>
+      <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
         <v>77</v>
       </c>
@@ -21187,25 +21192,25 @@
         <v>77</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>637</v>
+        <v>457</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>412</v>
+        <v>126</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>77</v>
@@ -21219,7 +21224,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21227,10 +21232,10 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>77</v>
@@ -21242,20 +21247,18 @@
         <v>77</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>362</v>
+        <v>695</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>643</v>
+        <v>584</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>644</v>
+        <v>585</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>646</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
         <v>77</v>
       </c>
@@ -21279,13 +21282,13 @@
         <v>77</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>77</v>
@@ -21303,16 +21306,16 @@
         <v>77</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>642</v>
+        <v>582</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>647</v>
+        <v>77</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>95</v>
@@ -21358,20 +21361,24 @@
         <v>77</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>370</v>
+        <v>640</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M165" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P165" s="2"/>
+      <c r="P165" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="Q165" t="s" s="2">
         <v>77</v>
       </c>
@@ -21415,7 +21422,7 @@
         <v>77</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>220</v>
+        <v>639</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>75</v>
@@ -21427,13 +21434,13 @@
         <v>77</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>77</v>
@@ -21451,7 +21458,7 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21470,18 +21477,20 @@
         <v>77</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>514</v>
+        <v>645</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>515</v>
+        <v>646</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N166" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>648</v>
+      </c>
       <c r="O166" t="s" s="2">
         <v>77</v>
       </c>
@@ -21529,7 +21538,7 @@
         <v>77</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>222</v>
+        <v>644</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>75</v>
@@ -21538,16 +21547,16 @@
         <v>76</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>77</v>
+        <v>649</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>77</v>
@@ -21565,39 +21574,35 @@
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
         <v>77</v>
       </c>
@@ -21645,25 +21650,25 @@
         <v>77</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>455</v>
+        <v>220</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>126</v>
+        <v>372</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>77</v>
@@ -21681,14 +21686,14 @@
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>77</v>
@@ -21700,16 +21705,16 @@
         <v>77</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>652</v>
+        <v>128</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>653</v>
+        <v>516</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>654</v>
+        <v>517</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>655</v>
+        <v>177</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
@@ -21735,13 +21740,13 @@
         <v>77</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>530</v>
+        <v>77</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>77</v>
@@ -21759,25 +21764,25 @@
         <v>77</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>651</v>
+        <v>222</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>77</v>
@@ -21795,7 +21800,7 @@
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21808,25 +21813,25 @@
         <v>77</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>657</v>
+        <v>455</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>658</v>
+        <v>456</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>659</v>
+        <v>177</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>660</v>
+        <v>178</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>77</v>
@@ -21875,7 +21880,7 @@
         <v>77</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>656</v>
+        <v>457</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>75</v>
@@ -21884,29 +21889,259 @@
         <v>76</v>
       </c>
       <c r="AH169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN169" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="170" hidden="true">
+      <c r="A170" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="N170" s="2"/>
+      <c r="O170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P170" s="2"/>
+      <c r="Q170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN170" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171" hidden="true">
+      <c r="A171" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="AI169" t="s" s="2">
+      <c r="N171" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P171" s="2"/>
+      <c r="Q171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AI171" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ169" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AL169" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN169" t="s" s="2">
+      <c r="AJ171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AL171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN171" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN169">
+  <autoFilter ref="A1:AN171">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21916,7 +22151,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI168">
+  <conditionalFormatting sqref="A2:AI170">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Item Rendering Settings</t>
+    <t>Extension : Object Rendering Settings</t>
   </si>
   <si>
     <t>subStatus</t>
@@ -555,7 +555,7 @@
 </t>
   </si>
   <si>
-    <t>Supported Languages</t>
+    <t>Extension : Supported Languages</t>
   </si>
   <si>
     <t xml:space="preserve"> Supported Languages : Contains a list of languages that is supported by the questionnaire</t>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6224" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6224" uniqueCount="707">
   <si>
     <t>Property</t>
   </si>
@@ -535,7 +535,10 @@
 </t>
   </si>
   <si>
-    <t>Extension : SubStatus</t>
+    <t>Extension : Questionniare SubStatus</t>
+  </si>
+  <si>
+    <t>used to capture other statuses when questionnaire status is set to unknown</t>
   </si>
   <si>
     <t>createUpdateAtDateTime</t>
@@ -548,6 +551,9 @@
     <t>Extension : ResourceCreateUpdateAtDateTime</t>
   </si>
   <si>
+    <t>Captures the created at an updated at attributes of date timestamps for a questionnaire</t>
+  </si>
+  <si>
     <t>supportedLanguages</t>
   </si>
   <si>
@@ -1402,6 +1408,12 @@
   <si>
     <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/version}
 </t>
+  </si>
+  <si>
+    <t>Extension : Item Version</t>
+  </si>
+  <si>
+    <t>Item Version</t>
   </si>
   <si>
     <t>hidden</t>
@@ -4331,7 +4343,7 @@
         <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4417,7 +4429,7 @@
         <v>127</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>77</v>
@@ -4439,13 +4451,13 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4531,7 +4543,7 @@
         <v>127</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>77</v>
@@ -4553,13 +4565,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4642,11 +4654,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4668,16 +4680,16 @@
         <v>128</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -4726,7 +4738,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4758,7 +4770,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4784,16 +4796,16 @@
         <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4842,7 +4854,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4857,13 +4869,13 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4874,7 +4886,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4897,19 +4909,19 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4958,7 +4970,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4973,16 +4985,16 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4990,7 +5002,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5016,13 +5028,13 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -5033,7 +5045,7 @@
         <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>77</v>
@@ -5072,7 +5084,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -5087,13 +5099,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -5104,7 +5116,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5130,16 +5142,16 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5188,7 +5200,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -5197,7 +5209,7 @@
         <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>95</v>
@@ -5220,7 +5232,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5246,13 +5258,13 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5302,7 +5314,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -5317,10 +5329,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -5334,7 +5346,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5360,10 +5372,10 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5414,7 +5426,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -5446,7 +5458,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5524,7 +5536,7 @@
         <v>132</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -5556,10 +5568,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>77</v>
@@ -5581,16 +5593,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5640,7 +5652,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5672,10 +5684,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>77</v>
@@ -5697,13 +5709,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5754,7 +5766,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5772,7 +5784,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5786,7 +5798,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5812,10 +5824,10 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5839,7 +5851,7 @@
         <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>77</v>
@@ -5866,7 +5878,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5898,7 +5910,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5921,17 +5933,17 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5980,7 +5992,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5995,10 +6007,10 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6012,7 +6024,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6038,13 +6050,13 @@
         <v>103</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6070,13 +6082,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -6094,7 +6106,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>83</v>
@@ -6109,13 +6121,13 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -6126,7 +6138,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6149,19 +6161,19 @@
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -6210,7 +6222,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -6225,13 +6237,13 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -6242,7 +6254,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6268,16 +6280,16 @@
         <v>103</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -6302,13 +6314,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -6326,7 +6338,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -6341,10 +6353,10 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -6358,11 +6370,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6381,16 +6393,16 @@
         <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6440,7 +6452,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -6455,13 +6467,13 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -6472,7 +6484,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6498,16 +6510,16 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -6556,7 +6568,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -6571,13 +6583,13 @@
         <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6588,7 +6600,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6611,16 +6623,16 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6670,7 +6682,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6685,10 +6697,10 @@
         <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6702,7 +6714,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6725,16 +6737,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6784,7 +6796,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6799,10 +6811,10 @@
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6816,7 +6828,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6839,19 +6851,19 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6900,7 +6912,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6915,10 +6927,10 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6932,7 +6944,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6955,16 +6967,16 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6990,13 +7002,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -7014,7 +7026,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -7029,10 +7041,10 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -7046,7 +7058,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7069,16 +7081,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7128,7 +7140,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -7143,16 +7155,16 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -7160,11 +7172,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -7183,17 +7195,17 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -7242,7 +7254,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -7257,16 +7269,16 @@
         <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -7274,7 +7286,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7297,16 +7309,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7356,7 +7368,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -7371,16 +7383,16 @@
         <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -7388,7 +7400,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7411,19 +7423,19 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -7472,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -7487,16 +7499,16 @@
         <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7504,7 +7516,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7527,19 +7539,19 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7588,7 +7600,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -7603,16 +7615,16 @@
         <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7620,7 +7632,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7643,17 +7655,17 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7678,13 +7690,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7702,7 +7714,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -7720,7 +7732,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7734,7 +7746,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7757,16 +7769,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7816,7 +7828,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7825,16 +7837,16 @@
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7848,7 +7860,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7874,10 +7886,10 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7928,7 +7940,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7946,7 +7958,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7960,7 +7972,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8038,7 +8050,7 @@
         <v>132</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -8070,7 +8082,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>135</v>
@@ -8104,7 +8116,7 @@
         <v>138</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -8154,7 +8166,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -8186,7 +8198,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>141</v>
@@ -8270,7 +8282,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -8302,10 +8314,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>77</v>
@@ -8327,13 +8339,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8384,7 +8396,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -8416,10 +8428,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>77</v>
@@ -8441,16 +8453,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8500,7 +8512,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -8532,10 +8544,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>77</v>
@@ -8557,16 +8569,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8616,7 +8628,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8648,10 +8660,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>77</v>
@@ -8673,16 +8685,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8732,7 +8744,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8764,10 +8776,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>77</v>
@@ -8789,13 +8801,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8846,7 +8858,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8878,10 +8890,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>77</v>
@@ -8903,16 +8915,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8962,7 +8974,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8994,10 +9006,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>77</v>
@@ -9019,16 +9031,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9078,7 +9090,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -9110,10 +9122,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>77</v>
@@ -9135,13 +9147,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9192,7 +9204,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -9210,7 +9222,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9224,10 +9236,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>77</v>
@@ -9249,13 +9261,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9306,7 +9318,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -9324,7 +9336,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9338,10 +9350,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -9363,16 +9375,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9422,7 +9434,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -9454,10 +9466,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -9479,16 +9491,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9538,7 +9550,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -9570,10 +9582,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9595,13 +9607,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9652,7 +9664,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9684,10 +9696,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9709,13 +9721,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9766,7 +9778,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9784,7 +9796,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9798,10 +9810,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -9823,13 +9835,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9880,7 +9892,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9912,10 +9924,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -9994,7 +10006,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -10026,10 +10038,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>77</v>
@@ -10051,13 +10063,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>165</v>
+        <v>444</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>165</v>
+        <v>445</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -10108,7 +10120,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -10140,10 +10152,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>77</v>
@@ -10165,16 +10177,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10224,7 +10236,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -10256,10 +10268,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -10281,16 +10293,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10340,7 +10352,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -10372,10 +10384,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
@@ -10397,16 +10409,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10456,7 +10468,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -10474,7 +10486,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10488,11 +10500,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10514,16 +10526,16 @@
         <v>128</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10572,7 +10584,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -10604,7 +10616,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10630,16 +10642,16 @@
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10688,7 +10700,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>83</v>
@@ -10706,7 +10718,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10720,7 +10732,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10746,16 +10758,16 @@
         <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10804,7 +10816,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -10822,7 +10834,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10836,7 +10848,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10859,19 +10871,19 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10896,13 +10908,13 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
@@ -10920,7 +10932,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10929,7 +10941,7 @@
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>95</v>
@@ -10938,7 +10950,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10952,11 +10964,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10978,16 +10990,16 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -11036,7 +11048,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -11054,7 +11066,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -11068,7 +11080,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11094,10 +11106,10 @@
         <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11148,7 +11160,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -11180,7 +11192,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11258,7 +11270,7 @@
         <v>132</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -11290,10 +11302,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>77</v>
@@ -11315,16 +11327,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11374,7 +11386,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -11406,10 +11418,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>77</v>
@@ -11431,13 +11443,13 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11488,7 +11500,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -11506,7 +11518,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11520,7 +11532,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11546,10 +11558,10 @@
         <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11573,7 +11585,7 @@
         <v>77</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>77</v>
@@ -11600,7 +11612,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11632,7 +11644,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11658,13 +11670,13 @@
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11714,7 +11726,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -11732,7 +11744,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11746,7 +11758,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11772,10 +11784,10 @@
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11826,7 +11838,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11858,7 +11870,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11936,7 +11948,7 @@
         <v>132</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11968,10 +11980,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>77</v>
@@ -11993,16 +12005,16 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -12052,7 +12064,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -12084,10 +12096,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>77</v>
@@ -12109,13 +12121,13 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12166,7 +12178,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -12184,7 +12196,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12198,10 +12210,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>77</v>
@@ -12223,16 +12235,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12282,7 +12294,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -12314,7 +12326,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12340,10 +12352,10 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12367,7 +12379,7 @@
         <v>77</v>
       </c>
       <c r="V86" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W86" t="s" s="2">
         <v>77</v>
@@ -12394,7 +12406,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -12426,7 +12438,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12452,16 +12464,16 @@
         <v>103</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -12486,13 +12498,13 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12510,7 +12522,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>83</v>
@@ -12528,7 +12540,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12542,7 +12554,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12565,19 +12577,19 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12626,7 +12638,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -12638,13 +12650,13 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12658,7 +12670,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12684,10 +12696,10 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12738,7 +12750,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -12756,7 +12768,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12770,11 +12782,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12796,13 +12808,13 @@
         <v>128</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12852,7 +12864,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -12870,7 +12882,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12884,11 +12896,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12910,16 +12922,16 @@
         <v>128</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -12968,7 +12980,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -13000,7 +13012,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13026,13 +13038,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -13082,7 +13094,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>83</v>
@@ -13100,7 +13112,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13114,7 +13126,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13140,10 +13152,10 @@
         <v>103</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13170,31 +13182,31 @@
         <v>77</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>83</v>
@@ -13212,7 +13224,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13226,7 +13238,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13249,13 +13261,13 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13282,32 +13294,32 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="Y94" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
       </c>
@@ -13315,7 +13327,7 @@
         <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>95</v>
@@ -13324,7 +13336,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13338,7 +13350,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13364,13 +13376,13 @@
         <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13396,32 +13408,32 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
       </c>
@@ -13429,7 +13441,7 @@
         <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>95</v>
@@ -13438,7 +13450,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13452,7 +13464,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13475,69 +13487,69 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P96" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Q96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
       </c>
@@ -13545,7 +13557,7 @@
         <v>83</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -13554,7 +13566,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13568,7 +13580,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13591,79 +13603,79 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M97" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH97" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13672,7 +13684,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13686,7 +13698,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13709,19 +13721,19 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>77</v>
@@ -13770,7 +13782,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -13779,7 +13791,7 @@
         <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13788,7 +13800,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13802,7 +13814,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13825,16 +13837,16 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13884,7 +13896,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -13893,7 +13905,7 @@
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13902,7 +13914,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13916,7 +13928,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13939,16 +13951,16 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13998,7 +14010,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -14007,7 +14019,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -14016,7 +14028,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14030,7 +14042,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14053,16 +14065,16 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14112,7 +14124,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -14121,7 +14133,7 @@
         <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -14130,7 +14142,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14144,7 +14156,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14170,10 +14182,10 @@
         <v>85</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -14224,7 +14236,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -14242,7 +14254,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14256,7 +14268,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14334,7 +14346,7 @@
         <v>132</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -14366,10 +14378,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>77</v>
@@ -14391,13 +14403,13 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14448,7 +14460,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -14480,11 +14492,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14506,16 +14518,16 @@
         <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14564,7 +14576,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
@@ -14596,7 +14608,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14619,16 +14631,16 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14654,29 +14666,29 @@
         <v>77</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AB106" s="2"/>
       <c r="AC106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>83</v>
@@ -14694,7 +14706,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14708,10 +14720,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>77</v>
@@ -14736,13 +14748,13 @@
         <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14768,13 +14780,13 @@
         <v>77</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14792,7 +14804,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>83</v>
@@ -14810,7 +14822,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14824,7 +14836,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14850,10 +14862,10 @@
         <v>85</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14904,7 +14916,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
@@ -14936,7 +14948,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15014,7 +15026,7 @@
         <v>132</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -15046,10 +15058,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>77</v>
@@ -15071,16 +15083,16 @@
         <v>77</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15130,7 +15142,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -15162,10 +15174,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>77</v>
@@ -15187,13 +15199,13 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15244,7 +15256,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -15262,7 +15274,7 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15276,7 +15288,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15302,10 +15314,10 @@
         <v>85</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15329,7 +15341,7 @@
         <v>77</v>
       </c>
       <c r="V112" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W112" t="s" s="2">
         <v>77</v>
@@ -15356,7 +15368,7 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -15388,10 +15400,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>77</v>
@@ -15413,16 +15425,16 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15448,13 +15460,13 @@
         <v>77</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15472,7 +15484,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>83</v>
@@ -15490,7 +15502,7 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -15504,7 +15516,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15530,10 +15542,10 @@
         <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15584,7 +15596,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -15602,7 +15614,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15616,11 +15628,11 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15642,13 +15654,13 @@
         <v>128</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15689,7 +15701,7 @@
         <v>131</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="AC115" t="s" s="2">
         <v>77</v>
@@ -15698,7 +15710,7 @@
         <v>132</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>75</v>
@@ -15716,7 +15728,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15730,7 +15742,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15756,16 +15768,16 @@
         <v>97</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15814,7 +15826,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
@@ -15832,7 +15844,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -15841,12 +15853,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15872,13 +15884,13 @@
         <v>85</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15928,7 +15940,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
@@ -15946,7 +15958,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -15955,12 +15967,12 @@
         <v>77</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15986,14 +15998,14 @@
         <v>103</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16042,7 +16054,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -16060,7 +16072,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16069,12 +16081,12 @@
         <v>77</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16100,14 +16112,14 @@
         <v>85</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>77</v>
@@ -16156,7 +16168,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
@@ -16174,7 +16186,7 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
@@ -16183,12 +16195,12 @@
         <v>77</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16214,10 +16226,10 @@
         <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16268,7 +16280,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
@@ -16300,7 +16312,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16378,7 +16390,7 @@
         <v>132</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -16410,10 +16422,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>77</v>
@@ -16435,16 +16447,16 @@
         <v>77</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16494,7 +16506,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
@@ -16526,10 +16538,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>77</v>
@@ -16551,13 +16563,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16608,7 +16620,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>75</v>
@@ -16626,7 +16638,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16640,7 +16652,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16666,10 +16678,10 @@
         <v>85</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16693,7 +16705,7 @@
         <v>77</v>
       </c>
       <c r="V124" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W124" t="s" s="2">
         <v>77</v>
@@ -16720,7 +16732,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>75</v>
@@ -16752,7 +16764,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16775,19 +16787,19 @@
         <v>84</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>77</v>
@@ -16836,7 +16848,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
@@ -16854,7 +16866,7 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
@@ -16863,12 +16875,12 @@
         <v>77</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16891,68 +16903,68 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P126" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="Q126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE126" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="Q126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -16970,7 +16982,7 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
@@ -16984,7 +16996,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17007,19 +17019,19 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>77</v>
@@ -17068,7 +17080,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
@@ -17077,7 +17089,7 @@
         <v>76</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>95</v>
@@ -17086,7 +17098,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17100,7 +17112,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17126,10 +17138,10 @@
         <v>85</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -17180,7 +17192,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
@@ -17198,7 +17210,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>
@@ -17212,11 +17224,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17238,13 +17250,13 @@
         <v>128</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -17294,7 +17306,7 @@
         <v>77</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -17312,7 +17324,7 @@
         <v>77</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>77</v>
@@ -17326,11 +17338,11 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17352,16 +17364,16 @@
         <v>128</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>77</v>
@@ -17410,7 +17422,7 @@
         <v>77</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>75</v>
@@ -17442,7 +17454,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17465,16 +17477,16 @@
         <v>77</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17500,13 +17512,13 @@
         <v>77</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>77</v>
@@ -17524,7 +17536,7 @@
         <v>77</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>83</v>
@@ -17542,7 +17554,7 @@
         <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>77</v>
@@ -17556,7 +17568,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17579,19 +17591,19 @@
         <v>77</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>77</v>
@@ -17640,7 +17652,7 @@
         <v>77</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>75</v>
@@ -17649,7 +17661,7 @@
         <v>76</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>95</v>
@@ -17658,7 +17670,7 @@
         <v>77</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>77</v>
@@ -17672,7 +17684,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17698,10 +17710,10 @@
         <v>85</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17752,7 +17764,7 @@
         <v>77</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>75</v>
@@ -17770,7 +17782,7 @@
         <v>77</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>77</v>
@@ -17784,7 +17796,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17862,7 +17874,7 @@
         <v>132</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>75</v>
@@ -17894,10 +17906,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>77</v>
@@ -17976,7 +17988,7 @@
         <v>77</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>75</v>
@@ -18008,10 +18020,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>77</v>
@@ -18033,13 +18045,13 @@
         <v>77</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>165</v>
+        <v>444</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>165</v>
+        <v>445</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -18090,7 +18102,7 @@
         <v>77</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>75</v>
@@ -18122,10 +18134,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>77</v>
@@ -18147,16 +18159,16 @@
         <v>77</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18206,7 +18218,7 @@
         <v>77</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>75</v>
@@ -18238,10 +18250,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>77</v>
@@ -18263,16 +18275,16 @@
         <v>77</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -18322,7 +18334,7 @@
         <v>77</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>75</v>
@@ -18354,10 +18366,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>77</v>
@@ -18379,16 +18391,16 @@
         <v>77</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18438,7 +18450,7 @@
         <v>77</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>75</v>
@@ -18456,7 +18468,7 @@
         <v>77</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>77</v>
@@ -18470,11 +18482,11 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18496,16 +18508,16 @@
         <v>128</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>77</v>
@@ -18554,7 +18566,7 @@
         <v>77</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>75</v>
@@ -18586,7 +18598,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18612,16 +18624,16 @@
         <v>85</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>77</v>
@@ -18670,7 +18682,7 @@
         <v>77</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>83</v>
@@ -18688,7 +18700,7 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>77</v>
@@ -18702,7 +18714,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18728,16 +18740,16 @@
         <v>97</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>77</v>
@@ -18786,7 +18798,7 @@
         <v>77</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>75</v>
@@ -18804,7 +18816,7 @@
         <v>77</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>77</v>
@@ -18818,7 +18830,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18841,19 +18853,19 @@
         <v>77</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>77</v>
@@ -18878,13 +18890,13 @@
         <v>77</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>77</v>
@@ -18902,7 +18914,7 @@
         <v>77</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>75</v>
@@ -18911,7 +18923,7 @@
         <v>76</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>95</v>
@@ -18920,7 +18932,7 @@
         <v>77</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>77</v>
@@ -18934,11 +18946,11 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18960,16 +18972,16 @@
         <v>85</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>77</v>
@@ -19018,7 +19030,7 @@
         <v>77</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>75</v>
@@ -19036,7 +19048,7 @@
         <v>77</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>77</v>
@@ -19050,7 +19062,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19076,13 +19088,13 @@
         <v>85</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
@@ -19132,7 +19144,7 @@
         <v>77</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>75</v>
@@ -19150,7 +19162,7 @@
         <v>77</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>77</v>
@@ -19164,7 +19176,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19190,16 +19202,16 @@
         <v>103</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>77</v>
@@ -19224,13 +19236,13 @@
         <v>77</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>77</v>
@@ -19248,7 +19260,7 @@
         <v>77</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>83</v>
@@ -19266,7 +19278,7 @@
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>77</v>
@@ -19280,7 +19292,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19303,19 +19315,19 @@
         <v>77</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>77</v>
@@ -19364,7 +19376,7 @@
         <v>77</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>75</v>
@@ -19376,13 +19388,13 @@
         <v>77</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>77</v>
@@ -19396,7 +19408,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19422,10 +19434,10 @@
         <v>85</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19476,7 +19488,7 @@
         <v>77</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>75</v>
@@ -19494,7 +19506,7 @@
         <v>77</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>77</v>
@@ -19508,11 +19520,11 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19534,13 +19546,13 @@
         <v>128</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -19590,7 +19602,7 @@
         <v>77</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>75</v>
@@ -19608,7 +19620,7 @@
         <v>77</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>77</v>
@@ -19622,11 +19634,11 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19648,16 +19660,16 @@
         <v>128</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>77</v>
@@ -19706,7 +19718,7 @@
         <v>77</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>75</v>
@@ -19738,7 +19750,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19764,13 +19776,13 @@
         <v>85</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -19820,7 +19832,7 @@
         <v>77</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>83</v>
@@ -19838,7 +19850,7 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>77</v>
@@ -19852,7 +19864,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19878,10 +19890,10 @@
         <v>103</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -19908,31 +19920,31 @@
         <v>77</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="Y152" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE152" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>83</v>
@@ -19950,7 +19962,7 @@
         <v>77</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>77</v>
@@ -19964,7 +19976,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19987,13 +19999,13 @@
         <v>77</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -20020,32 +20032,32 @@
         <v>77</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="X153" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE153" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="Y153" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="AF153" t="s" s="2">
         <v>83</v>
       </c>
@@ -20053,7 +20065,7 @@
         <v>83</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>95</v>
@@ -20062,7 +20074,7 @@
         <v>77</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>77</v>
@@ -20076,7 +20088,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20102,13 +20114,13 @@
         <v>103</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -20134,32 +20146,32 @@
         <v>77</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="Y154" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE154" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Z154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AF154" t="s" s="2">
         <v>75</v>
       </c>
@@ -20167,7 +20179,7 @@
         <v>83</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>95</v>
@@ -20176,7 +20188,7 @@
         <v>77</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>77</v>
@@ -20190,7 +20202,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20213,69 +20225,69 @@
         <v>77</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P155" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Q155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE155" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Q155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AF155" t="s" s="2">
         <v>75</v>
       </c>
@@ -20283,7 +20295,7 @@
         <v>83</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>95</v>
@@ -20292,7 +20304,7 @@
         <v>77</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>77</v>
@@ -20306,7 +20318,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20329,79 +20341,79 @@
         <v>77</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="M156" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P156" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Q156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH156" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P156" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="Q156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>95</v>
@@ -20410,7 +20422,7 @@
         <v>77</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>77</v>
@@ -20424,7 +20436,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20447,19 +20459,19 @@
         <v>77</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>77</v>
@@ -20508,7 +20520,7 @@
         <v>77</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>75</v>
@@ -20517,7 +20529,7 @@
         <v>83</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>95</v>
@@ -20526,7 +20538,7 @@
         <v>77</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>77</v>
@@ -20540,7 +20552,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20563,16 +20575,16 @@
         <v>77</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
@@ -20622,7 +20634,7 @@
         <v>77</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>75</v>
@@ -20631,7 +20643,7 @@
         <v>83</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>95</v>
@@ -20640,7 +20652,7 @@
         <v>77</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>77</v>
@@ -20654,7 +20666,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20677,16 +20689,16 @@
         <v>77</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -20736,7 +20748,7 @@
         <v>77</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>75</v>
@@ -20745,7 +20757,7 @@
         <v>83</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>95</v>
@@ -20754,7 +20766,7 @@
         <v>77</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>77</v>
@@ -20768,7 +20780,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20791,16 +20803,16 @@
         <v>77</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -20850,7 +20862,7 @@
         <v>77</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>75</v>
@@ -20859,7 +20871,7 @@
         <v>76</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>95</v>
@@ -20868,7 +20880,7 @@
         <v>77</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>77</v>
@@ -20882,7 +20894,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20908,10 +20920,10 @@
         <v>85</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -20962,7 +20974,7 @@
         <v>77</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>75</v>
@@ -20980,7 +20992,7 @@
         <v>77</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>77</v>
@@ -20994,11 +21006,11 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21020,13 +21032,13 @@
         <v>128</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21076,7 +21088,7 @@
         <v>77</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>75</v>
@@ -21094,7 +21106,7 @@
         <v>77</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>77</v>
@@ -21108,11 +21120,11 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21134,16 +21146,16 @@
         <v>128</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>77</v>
@@ -21192,7 +21204,7 @@
         <v>77</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>75</v>
@@ -21224,7 +21236,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21247,16 +21259,16 @@
         <v>77</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
@@ -21282,13 +21294,13 @@
         <v>77</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>77</v>
@@ -21306,7 +21318,7 @@
         <v>77</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>83</v>
@@ -21324,7 +21336,7 @@
         <v>77</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>77</v>
@@ -21338,7 +21350,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21361,68 +21373,68 @@
         <v>77</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P165" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="Q165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE165" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="Q165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>75</v>
@@ -21440,7 +21452,7 @@
         <v>77</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>77</v>
@@ -21454,7 +21466,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21477,19 +21489,19 @@
         <v>77</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>77</v>
@@ -21538,7 +21550,7 @@
         <v>77</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>75</v>
@@ -21547,7 +21559,7 @@
         <v>76</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>95</v>
@@ -21556,7 +21568,7 @@
         <v>77</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>77</v>
@@ -21570,7 +21582,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21596,10 +21608,10 @@
         <v>85</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -21650,7 +21662,7 @@
         <v>77</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>75</v>
@@ -21668,7 +21680,7 @@
         <v>77</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>77</v>
@@ -21682,11 +21694,11 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21708,13 +21720,13 @@
         <v>128</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
@@ -21764,7 +21776,7 @@
         <v>77</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>75</v>
@@ -21782,7 +21794,7 @@
         <v>77</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>77</v>
@@ -21796,11 +21808,11 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21822,16 +21834,16 @@
         <v>128</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>77</v>
@@ -21880,7 +21892,7 @@
         <v>77</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>75</v>
@@ -21912,7 +21924,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21935,16 +21947,16 @@
         <v>77</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
@@ -21970,13 +21982,13 @@
         <v>77</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>77</v>
@@ -21994,7 +22006,7 @@
         <v>77</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>83</v>
@@ -22012,7 +22024,7 @@
         <v>77</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>77</v>
@@ -22026,7 +22038,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22052,16 +22064,16 @@
         <v>77</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>77</v>
@@ -22110,7 +22122,7 @@
         <v>77</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>75</v>
@@ -22119,7 +22131,7 @@
         <v>76</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>95</v>
@@ -22128,7 +22140,7 @@
         <v>77</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6224" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6224" uniqueCount="708">
   <si>
     <t>Property</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Extension : Object Rendering Settings</t>
+  </si>
+  <si>
+    <t>Extension : Object Rendering Settings. The data structure the complex data structure depicted here can be used to depict Science 37 specific rendering configurations at the questionnaire level or the questionnaire item level.</t>
   </si>
   <si>
     <t>subStatus</t>
@@ -4229,7 +4232,7 @@
         <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4315,7 +4318,7 @@
         <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
@@ -4337,13 +4340,13 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4429,7 +4432,7 @@
         <v>127</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>77</v>
@@ -4451,13 +4454,13 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4543,7 +4546,7 @@
         <v>127</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>77</v>
@@ -4565,13 +4568,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4654,11 +4657,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4680,16 +4683,16 @@
         <v>128</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -4738,7 +4741,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4770,7 +4773,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4796,16 +4799,16 @@
         <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4854,7 +4857,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4869,13 +4872,13 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4886,7 +4889,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4909,19 +4912,19 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4970,7 +4973,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4985,16 +4988,16 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -5002,7 +5005,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5028,13 +5031,13 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -5045,7 +5048,7 @@
         <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>77</v>
@@ -5084,7 +5087,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -5099,13 +5102,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -5116,7 +5119,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5142,16 +5145,16 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5200,7 +5203,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -5209,7 +5212,7 @@
         <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>95</v>
@@ -5232,7 +5235,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5258,13 +5261,13 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5314,7 +5317,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -5329,10 +5332,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -5346,7 +5349,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5372,10 +5375,10 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5426,7 +5429,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -5458,7 +5461,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5536,7 +5539,7 @@
         <v>132</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -5568,10 +5571,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>77</v>
@@ -5593,16 +5596,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5652,7 +5655,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5684,10 +5687,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>77</v>
@@ -5709,13 +5712,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5766,7 +5769,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5784,7 +5787,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5798,7 +5801,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5824,10 +5827,10 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5851,7 +5854,7 @@
         <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>77</v>
@@ -5878,7 +5881,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5910,7 +5913,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5933,17 +5936,17 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5992,7 +5995,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -6007,10 +6010,10 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6024,7 +6027,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6050,13 +6053,13 @@
         <v>103</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6082,13 +6085,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -6106,7 +6109,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>83</v>
@@ -6121,13 +6124,13 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -6138,7 +6141,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6161,19 +6164,19 @@
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -6222,7 +6225,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -6237,13 +6240,13 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -6254,7 +6257,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6280,16 +6283,16 @@
         <v>103</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -6314,13 +6317,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -6338,7 +6341,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -6353,10 +6356,10 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -6370,11 +6373,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6393,16 +6396,16 @@
         <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6452,7 +6455,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -6467,13 +6470,13 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -6484,7 +6487,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6510,16 +6513,16 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -6568,7 +6571,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -6583,13 +6586,13 @@
         <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6600,7 +6603,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6623,16 +6626,16 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6682,7 +6685,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6697,10 +6700,10 @@
         <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6714,7 +6717,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6737,16 +6740,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6796,7 +6799,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6811,10 +6814,10 @@
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6828,7 +6831,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6851,19 +6854,19 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6912,7 +6915,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6927,10 +6930,10 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6944,7 +6947,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6967,16 +6970,16 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -7002,13 +7005,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -7026,7 +7029,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -7041,10 +7044,10 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -7058,7 +7061,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7081,16 +7084,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7140,7 +7143,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -7155,16 +7158,16 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -7172,11 +7175,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -7195,17 +7198,17 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -7254,7 +7257,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -7269,16 +7272,16 @@
         <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -7286,7 +7289,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7309,16 +7312,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7368,7 +7371,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -7383,16 +7386,16 @@
         <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -7400,7 +7403,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7423,19 +7426,19 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -7484,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -7499,16 +7502,16 @@
         <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7516,7 +7519,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7539,19 +7542,19 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7600,7 +7603,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -7615,16 +7618,16 @@
         <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7632,7 +7635,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7655,17 +7658,17 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7690,13 +7693,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7714,7 +7717,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -7732,7 +7735,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7746,7 +7749,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7769,16 +7772,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7828,7 +7831,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7837,16 +7840,16 @@
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7860,7 +7863,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7886,10 +7889,10 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7940,7 +7943,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7958,7 +7961,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7972,7 +7975,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8050,7 +8053,7 @@
         <v>132</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -8082,7 +8085,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>135</v>
@@ -8116,7 +8119,7 @@
         <v>138</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -8166,7 +8169,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -8198,7 +8201,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>141</v>
@@ -8282,7 +8285,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -8314,10 +8317,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>77</v>
@@ -8339,13 +8342,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8396,7 +8399,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -8428,10 +8431,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>77</v>
@@ -8453,16 +8456,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8512,7 +8515,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -8544,10 +8547,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>77</v>
@@ -8569,16 +8572,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8628,7 +8631,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8660,10 +8663,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>77</v>
@@ -8685,16 +8688,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8744,7 +8747,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8776,10 +8779,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>77</v>
@@ -8801,13 +8804,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8858,7 +8861,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8890,10 +8893,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>77</v>
@@ -8915,16 +8918,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8974,7 +8977,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -9006,10 +9009,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>77</v>
@@ -9031,16 +9034,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9090,7 +9093,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -9122,10 +9125,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>77</v>
@@ -9147,13 +9150,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9204,7 +9207,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -9222,7 +9225,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9236,10 +9239,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>77</v>
@@ -9261,13 +9264,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9318,7 +9321,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -9336,7 +9339,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9350,10 +9353,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -9375,16 +9378,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9434,7 +9437,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -9466,10 +9469,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -9491,16 +9494,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9550,7 +9553,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -9582,10 +9585,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9607,13 +9610,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9664,7 +9667,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9696,10 +9699,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9721,13 +9724,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9778,7 +9781,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9796,7 +9799,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9810,10 +9813,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -9835,13 +9838,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9892,7 +9895,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9924,10 +9927,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -9955,7 +9958,7 @@
         <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10006,7 +10009,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -10038,10 +10041,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>77</v>
@@ -10063,13 +10066,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -10120,7 +10123,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -10152,10 +10155,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>77</v>
@@ -10177,16 +10180,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10236,7 +10239,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -10268,10 +10271,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -10293,16 +10296,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10352,7 +10355,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -10384,10 +10387,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
@@ -10409,16 +10412,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10468,7 +10471,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -10486,7 +10489,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10500,11 +10503,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10526,16 +10529,16 @@
         <v>128</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10584,7 +10587,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -10616,7 +10619,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10642,16 +10645,16 @@
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10700,7 +10703,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>83</v>
@@ -10718,7 +10721,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10732,7 +10735,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10758,16 +10761,16 @@
         <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10816,7 +10819,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -10834,7 +10837,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10848,7 +10851,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10871,19 +10874,19 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10908,13 +10911,13 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
@@ -10932,7 +10935,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10941,7 +10944,7 @@
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>95</v>
@@ -10950,7 +10953,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10964,11 +10967,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10990,16 +10993,16 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -11048,7 +11051,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -11066,7 +11069,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -11080,7 +11083,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11106,10 +11109,10 @@
         <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11160,7 +11163,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -11192,7 +11195,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11270,7 +11273,7 @@
         <v>132</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -11302,10 +11305,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>77</v>
@@ -11327,16 +11330,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11386,7 +11389,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -11418,10 +11421,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>77</v>
@@ -11443,13 +11446,13 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11500,7 +11503,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -11518,7 +11521,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11532,7 +11535,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11558,10 +11561,10 @@
         <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11585,7 +11588,7 @@
         <v>77</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>77</v>
@@ -11612,7 +11615,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11644,7 +11647,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11670,13 +11673,13 @@
         <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11726,7 +11729,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -11744,7 +11747,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11758,7 +11761,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11784,10 +11787,10 @@
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11838,7 +11841,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11870,7 +11873,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11948,7 +11951,7 @@
         <v>132</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11980,10 +11983,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>77</v>
@@ -12005,16 +12008,16 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -12064,7 +12067,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -12096,10 +12099,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>77</v>
@@ -12121,13 +12124,13 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12178,7 +12181,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -12196,7 +12199,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12210,10 +12213,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>77</v>
@@ -12235,16 +12238,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12294,7 +12297,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -12326,7 +12329,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12352,10 +12355,10 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12379,7 +12382,7 @@
         <v>77</v>
       </c>
       <c r="V86" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W86" t="s" s="2">
         <v>77</v>
@@ -12406,7 +12409,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -12438,7 +12441,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12464,16 +12467,16 @@
         <v>103</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -12498,13 +12501,13 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -12522,7 +12525,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>83</v>
@@ -12540,7 +12543,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12554,7 +12557,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12577,19 +12580,19 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12638,7 +12641,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -12650,13 +12653,13 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12670,7 +12673,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12696,10 +12699,10 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12750,7 +12753,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -12768,7 +12771,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12782,11 +12785,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12808,13 +12811,13 @@
         <v>128</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12864,7 +12867,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -12882,7 +12885,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12896,11 +12899,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12922,16 +12925,16 @@
         <v>128</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -12980,7 +12983,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -13012,7 +13015,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13038,13 +13041,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -13094,7 +13097,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>83</v>
@@ -13112,7 +13115,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13126,7 +13129,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13152,10 +13155,10 @@
         <v>103</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13182,13 +13185,13 @@
         <v>77</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>77</v>
@@ -13206,7 +13209,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>83</v>
@@ -13224,7 +13227,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13238,7 +13241,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13261,13 +13264,13 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13294,13 +13297,13 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13318,7 +13321,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
@@ -13327,7 +13330,7 @@
         <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>95</v>
@@ -13336,7 +13339,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13350,7 +13353,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13376,13 +13379,13 @@
         <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13408,13 +13411,13 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
@@ -13432,7 +13435,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
@@ -13441,7 +13444,7 @@
         <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>95</v>
@@ -13450,7 +13453,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13464,7 +13467,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13487,23 +13490,23 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P96" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q96" t="s" s="2">
         <v>77</v>
@@ -13548,7 +13551,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
@@ -13557,7 +13560,7 @@
         <v>83</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -13566,7 +13569,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13580,7 +13583,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13603,79 +13606,79 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
+      <c r="AF97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH97" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13684,7 +13687,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13698,7 +13701,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13721,19 +13724,19 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>77</v>
@@ -13782,7 +13785,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -13791,7 +13794,7 @@
         <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13800,7 +13803,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13814,7 +13817,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13837,16 +13840,16 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13896,7 +13899,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -13905,7 +13908,7 @@
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13914,7 +13917,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13928,7 +13931,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13951,16 +13954,16 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -14010,7 +14013,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -14019,7 +14022,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -14028,7 +14031,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14042,7 +14045,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14065,16 +14068,16 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14124,7 +14127,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -14133,7 +14136,7 @@
         <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -14142,7 +14145,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14156,7 +14159,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14182,10 +14185,10 @@
         <v>85</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -14236,7 +14239,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -14254,7 +14257,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14268,7 +14271,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14346,7 +14349,7 @@
         <v>132</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -14378,10 +14381,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>77</v>
@@ -14403,13 +14406,13 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14460,7 +14463,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -14492,11 +14495,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14518,16 +14521,16 @@
         <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14576,7 +14579,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
@@ -14608,7 +14611,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14631,16 +14634,16 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14666,29 +14669,29 @@
         <v>77</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AB106" s="2"/>
       <c r="AC106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>83</v>
@@ -14706,7 +14709,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14720,10 +14723,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>77</v>
@@ -14748,13 +14751,13 @@
         <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14780,13 +14783,13 @@
         <v>77</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14804,7 +14807,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>83</v>
@@ -14822,7 +14825,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14836,7 +14839,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14862,10 +14865,10 @@
         <v>85</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14916,7 +14919,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
@@ -14948,7 +14951,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15026,7 +15029,7 @@
         <v>132</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -15058,10 +15061,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>77</v>
@@ -15083,16 +15086,16 @@
         <v>77</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15142,7 +15145,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -15174,10 +15177,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>77</v>
@@ -15199,13 +15202,13 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15256,7 +15259,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -15274,7 +15277,7 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15288,7 +15291,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15314,10 +15317,10 @@
         <v>85</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15341,7 +15344,7 @@
         <v>77</v>
       </c>
       <c r="V112" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W112" t="s" s="2">
         <v>77</v>
@@ -15368,7 +15371,7 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -15400,10 +15403,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>77</v>
@@ -15425,16 +15428,16 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15460,13 +15463,13 @@
         <v>77</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15484,7 +15487,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>83</v>
@@ -15502,7 +15505,7 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -15516,7 +15519,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15542,10 +15545,10 @@
         <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15596,7 +15599,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -15614,7 +15617,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15628,11 +15631,11 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15654,13 +15657,13 @@
         <v>128</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15701,7 +15704,7 @@
         <v>131</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AC115" t="s" s="2">
         <v>77</v>
@@ -15710,7 +15713,7 @@
         <v>132</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>75</v>
@@ -15728,7 +15731,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15742,7 +15745,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15768,16 +15771,16 @@
         <v>97</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15826,7 +15829,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
@@ -15844,7 +15847,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -15853,12 +15856,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15884,13 +15887,13 @@
         <v>85</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15940,7 +15943,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
@@ -15958,7 +15961,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -15967,12 +15970,12 @@
         <v>77</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15998,14 +16001,14 @@
         <v>103</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16054,7 +16057,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -16072,7 +16075,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16081,12 +16084,12 @@
         <v>77</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16112,14 +16115,14 @@
         <v>85</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>77</v>
@@ -16168,7 +16171,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
@@ -16186,7 +16189,7 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
@@ -16195,12 +16198,12 @@
         <v>77</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16226,10 +16229,10 @@
         <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16280,7 +16283,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
@@ -16312,7 +16315,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16390,7 +16393,7 @@
         <v>132</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -16422,10 +16425,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>77</v>
@@ -16447,16 +16450,16 @@
         <v>77</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16506,7 +16509,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
@@ -16538,10 +16541,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>77</v>
@@ -16563,13 +16566,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16620,7 +16623,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>75</v>
@@ -16638,7 +16641,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16652,7 +16655,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16678,10 +16681,10 @@
         <v>85</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16705,7 +16708,7 @@
         <v>77</v>
       </c>
       <c r="V124" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W124" t="s" s="2">
         <v>77</v>
@@ -16732,7 +16735,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>75</v>
@@ -16764,7 +16767,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16787,19 +16790,19 @@
         <v>84</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>77</v>
@@ -16848,7 +16851,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
@@ -16866,7 +16869,7 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
@@ -16875,12 +16878,12 @@
         <v>77</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16903,23 +16906,23 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P126" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q126" t="s" s="2">
         <v>77</v>
@@ -16964,7 +16967,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -16982,7 +16985,7 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
@@ -16996,7 +16999,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17019,19 +17022,19 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>77</v>
@@ -17080,7 +17083,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
@@ -17089,7 +17092,7 @@
         <v>76</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>95</v>
@@ -17098,7 +17101,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17112,7 +17115,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17138,10 +17141,10 @@
         <v>85</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -17192,7 +17195,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
@@ -17210,7 +17213,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>
@@ -17224,11 +17227,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17250,13 +17253,13 @@
         <v>128</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -17306,7 +17309,7 @@
         <v>77</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -17324,7 +17327,7 @@
         <v>77</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>77</v>
@@ -17338,11 +17341,11 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17364,16 +17367,16 @@
         <v>128</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>77</v>
@@ -17422,7 +17425,7 @@
         <v>77</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>75</v>
@@ -17454,7 +17457,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17477,16 +17480,16 @@
         <v>77</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17512,13 +17515,13 @@
         <v>77</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>77</v>
@@ -17536,7 +17539,7 @@
         <v>77</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>83</v>
@@ -17554,7 +17557,7 @@
         <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>77</v>
@@ -17568,7 +17571,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17591,19 +17594,19 @@
         <v>77</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>77</v>
@@ -17652,7 +17655,7 @@
         <v>77</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>75</v>
@@ -17661,7 +17664,7 @@
         <v>76</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>95</v>
@@ -17670,7 +17673,7 @@
         <v>77</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>77</v>
@@ -17684,7 +17687,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17710,10 +17713,10 @@
         <v>85</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17764,7 +17767,7 @@
         <v>77</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>75</v>
@@ -17782,7 +17785,7 @@
         <v>77</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>77</v>
@@ -17796,7 +17799,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17874,7 +17877,7 @@
         <v>132</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>75</v>
@@ -17906,10 +17909,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>77</v>
@@ -17937,7 +17940,7 @@
         <v>162</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -17988,7 +17991,7 @@
         <v>77</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>75</v>
@@ -18020,10 +18023,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>77</v>
@@ -18045,13 +18048,13 @@
         <v>77</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -18102,7 +18105,7 @@
         <v>77</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>75</v>
@@ -18134,10 +18137,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>77</v>
@@ -18159,16 +18162,16 @@
         <v>77</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18218,7 +18221,7 @@
         <v>77</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>75</v>
@@ -18250,10 +18253,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>77</v>
@@ -18275,16 +18278,16 @@
         <v>77</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -18334,7 +18337,7 @@
         <v>77</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>75</v>
@@ -18366,10 +18369,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>77</v>
@@ -18391,16 +18394,16 @@
         <v>77</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18450,7 +18453,7 @@
         <v>77</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>75</v>
@@ -18468,7 +18471,7 @@
         <v>77</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>77</v>
@@ -18482,11 +18485,11 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18508,16 +18511,16 @@
         <v>128</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>77</v>
@@ -18566,7 +18569,7 @@
         <v>77</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>75</v>
@@ -18598,7 +18601,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18624,16 +18627,16 @@
         <v>85</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>77</v>
@@ -18682,7 +18685,7 @@
         <v>77</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>83</v>
@@ -18700,7 +18703,7 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>77</v>
@@ -18714,7 +18717,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18740,16 +18743,16 @@
         <v>97</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>77</v>
@@ -18798,7 +18801,7 @@
         <v>77</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>75</v>
@@ -18816,7 +18819,7 @@
         <v>77</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>77</v>
@@ -18830,7 +18833,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18853,19 +18856,19 @@
         <v>77</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>77</v>
@@ -18890,13 +18893,13 @@
         <v>77</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>77</v>
@@ -18914,7 +18917,7 @@
         <v>77</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>75</v>
@@ -18923,7 +18926,7 @@
         <v>76</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>95</v>
@@ -18932,7 +18935,7 @@
         <v>77</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>77</v>
@@ -18946,11 +18949,11 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18972,16 +18975,16 @@
         <v>85</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>77</v>
@@ -19030,7 +19033,7 @@
         <v>77</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>75</v>
@@ -19048,7 +19051,7 @@
         <v>77</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>77</v>
@@ -19062,7 +19065,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19088,13 +19091,13 @@
         <v>85</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
@@ -19144,7 +19147,7 @@
         <v>77</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>75</v>
@@ -19162,7 +19165,7 @@
         <v>77</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>77</v>
@@ -19176,7 +19179,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19202,16 +19205,16 @@
         <v>103</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>77</v>
@@ -19236,13 +19239,13 @@
         <v>77</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>77</v>
@@ -19260,7 +19263,7 @@
         <v>77</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>83</v>
@@ -19278,7 +19281,7 @@
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>77</v>
@@ -19292,7 +19295,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19315,19 +19318,19 @@
         <v>77</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>77</v>
@@ -19376,7 +19379,7 @@
         <v>77</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>75</v>
@@ -19388,13 +19391,13 @@
         <v>77</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>77</v>
@@ -19408,7 +19411,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19434,10 +19437,10 @@
         <v>85</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19488,7 +19491,7 @@
         <v>77</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>75</v>
@@ -19506,7 +19509,7 @@
         <v>77</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>77</v>
@@ -19520,11 +19523,11 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19546,13 +19549,13 @@
         <v>128</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -19602,7 +19605,7 @@
         <v>77</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>75</v>
@@ -19620,7 +19623,7 @@
         <v>77</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>77</v>
@@ -19634,11 +19637,11 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19660,16 +19663,16 @@
         <v>128</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>77</v>
@@ -19718,7 +19721,7 @@
         <v>77</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>75</v>
@@ -19750,7 +19753,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19776,13 +19779,13 @@
         <v>85</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -19832,7 +19835,7 @@
         <v>77</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>83</v>
@@ -19850,7 +19853,7 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>77</v>
@@ -19864,7 +19867,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19890,10 +19893,10 @@
         <v>103</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -19920,13 +19923,13 @@
         <v>77</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>77</v>
@@ -19944,7 +19947,7 @@
         <v>77</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>83</v>
@@ -19962,7 +19965,7 @@
         <v>77</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>77</v>
@@ -19976,7 +19979,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19999,13 +20002,13 @@
         <v>77</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -20032,13 +20035,13 @@
         <v>77</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>77</v>
@@ -20056,7 +20059,7 @@
         <v>77</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>83</v>
@@ -20065,7 +20068,7 @@
         <v>83</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>95</v>
@@ -20074,7 +20077,7 @@
         <v>77</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>77</v>
@@ -20088,7 +20091,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20114,13 +20117,13 @@
         <v>103</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -20146,13 +20149,13 @@
         <v>77</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>77</v>
@@ -20170,7 +20173,7 @@
         <v>77</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>75</v>
@@ -20179,7 +20182,7 @@
         <v>83</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>95</v>
@@ -20188,7 +20191,7 @@
         <v>77</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>77</v>
@@ -20202,7 +20205,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20225,23 +20228,23 @@
         <v>77</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P155" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>77</v>
@@ -20286,7 +20289,7 @@
         <v>77</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>75</v>
@@ -20295,7 +20298,7 @@
         <v>83</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>95</v>
@@ -20304,7 +20307,7 @@
         <v>77</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>77</v>
@@ -20318,7 +20321,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20341,79 +20344,79 @@
         <v>77</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P156" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Q156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE156" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L156" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P156" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="Q156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE156" t="s" s="2">
+      <c r="AF156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH156" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>95</v>
@@ -20422,7 +20425,7 @@
         <v>77</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>77</v>
@@ -20436,7 +20439,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20459,19 +20462,19 @@
         <v>77</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>77</v>
@@ -20520,7 +20523,7 @@
         <v>77</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>75</v>
@@ -20529,7 +20532,7 @@
         <v>83</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>95</v>
@@ -20538,7 +20541,7 @@
         <v>77</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>77</v>
@@ -20552,7 +20555,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20575,16 +20578,16 @@
         <v>77</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
@@ -20634,7 +20637,7 @@
         <v>77</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>75</v>
@@ -20643,7 +20646,7 @@
         <v>83</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>95</v>
@@ -20652,7 +20655,7 @@
         <v>77</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>77</v>
@@ -20666,7 +20669,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20689,16 +20692,16 @@
         <v>77</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -20748,7 +20751,7 @@
         <v>77</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>75</v>
@@ -20757,7 +20760,7 @@
         <v>83</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>95</v>
@@ -20766,7 +20769,7 @@
         <v>77</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>77</v>
@@ -20780,7 +20783,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20803,16 +20806,16 @@
         <v>77</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -20862,7 +20865,7 @@
         <v>77</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>75</v>
@@ -20871,7 +20874,7 @@
         <v>76</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>95</v>
@@ -20880,7 +20883,7 @@
         <v>77</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>77</v>
@@ -20894,7 +20897,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20920,10 +20923,10 @@
         <v>85</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -20974,7 +20977,7 @@
         <v>77</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>75</v>
@@ -20992,7 +20995,7 @@
         <v>77</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>77</v>
@@ -21006,11 +21009,11 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21032,13 +21035,13 @@
         <v>128</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21088,7 +21091,7 @@
         <v>77</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>75</v>
@@ -21106,7 +21109,7 @@
         <v>77</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>77</v>
@@ -21120,11 +21123,11 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21146,16 +21149,16 @@
         <v>128</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>77</v>
@@ -21204,7 +21207,7 @@
         <v>77</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>75</v>
@@ -21236,7 +21239,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21259,16 +21262,16 @@
         <v>77</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
@@ -21294,13 +21297,13 @@
         <v>77</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>77</v>
@@ -21318,7 +21321,7 @@
         <v>77</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>83</v>
@@ -21336,7 +21339,7 @@
         <v>77</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>77</v>
@@ -21350,7 +21353,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21373,23 +21376,23 @@
         <v>77</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P165" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q165" t="s" s="2">
         <v>77</v>
@@ -21434,7 +21437,7 @@
         <v>77</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>75</v>
@@ -21452,7 +21455,7 @@
         <v>77</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>77</v>
@@ -21466,7 +21469,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21489,19 +21492,19 @@
         <v>77</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>77</v>
@@ -21550,7 +21553,7 @@
         <v>77</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>75</v>
@@ -21559,7 +21562,7 @@
         <v>76</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>95</v>
@@ -21568,7 +21571,7 @@
         <v>77</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>77</v>
@@ -21582,7 +21585,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21608,10 +21611,10 @@
         <v>85</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -21662,7 +21665,7 @@
         <v>77</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>75</v>
@@ -21680,7 +21683,7 @@
         <v>77</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>77</v>
@@ -21694,11 +21697,11 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21720,13 +21723,13 @@
         <v>128</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
@@ -21776,7 +21779,7 @@
         <v>77</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>75</v>
@@ -21794,7 +21797,7 @@
         <v>77</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>77</v>
@@ -21808,11 +21811,11 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21834,16 +21837,16 @@
         <v>128</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>77</v>
@@ -21892,7 +21895,7 @@
         <v>77</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>75</v>
@@ -21924,7 +21927,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21947,16 +21950,16 @@
         <v>77</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
@@ -21982,13 +21985,13 @@
         <v>77</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>77</v>
@@ -22006,7 +22009,7 @@
         <v>77</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>83</v>
@@ -22024,7 +22027,7 @@
         <v>77</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>77</v>
@@ -22038,7 +22041,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22064,16 +22067,16 @@
         <v>77</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>77</v>
@@ -22122,7 +22125,7 @@
         <v>77</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>75</v>
@@ -22131,7 +22134,7 @@
         <v>76</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>95</v>
@@ -22140,7 +22143,7 @@
         <v>77</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -580,7 +580,7 @@
     <t>Extension : Supported Languages</t>
   </si>
   <si>
-    <t xml:space="preserve"> Supported Languages : Contains a list of languages that is supported by the questionnaire</t>
+    <t>Supported Languages : Contains a list of languages that is supported by the questionnaire</t>
   </si>
   <si>
     <t>Questionnaire.modifierExtension</t>
@@ -1477,7 +1477,7 @@
     <t>DeviceReportField</t>
   </si>
   <si>
-    <t xml:space="preserve">the third party report field used to obtain the value of the item </t>
+    <t>the third party report field used to obtain the value of the item</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="715">
   <si>
     <t>Property</t>
   </si>
@@ -668,9 +668,6 @@
   </si>
   <si>
     <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
-  </si>
-  <si>
-    <t>1.0.0A-S37</t>
   </si>
   <si>
     <t>Definition.version</t>
@@ -5188,7 +5185,7 @@
         <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>208</v>
+        <v>5</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -5242,13 +5239,13 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -5259,7 +5256,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5285,16 +5282,16 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -5343,7 +5340,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -5352,7 +5349,7 @@
         <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>95</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5401,13 +5398,13 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5457,7 +5454,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -5472,10 +5469,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5489,7 +5486,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5515,10 +5512,10 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5569,7 +5566,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -5601,7 +5598,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5679,7 +5676,7 @@
         <v>132</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5711,10 +5708,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>77</v>
@@ -5736,16 +5733,16 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5795,7 +5792,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5827,10 +5824,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>77</v>
@@ -5852,13 +5849,13 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5909,7 +5906,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5927,7 +5924,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5941,7 +5938,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5967,10 +5964,10 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5994,34 +5991,34 @@
         <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -6053,7 +6050,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6076,17 +6073,17 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6135,7 +6132,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -6150,10 +6147,10 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6167,7 +6164,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6193,13 +6190,13 @@
         <v>103</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6225,14 +6222,14 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
       </c>
@@ -6249,7 +6246,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>83</v>
@@ -6264,13 +6261,13 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -6281,7 +6278,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6304,19 +6301,19 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -6365,7 +6362,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -6380,13 +6377,13 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -6397,7 +6394,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6423,16 +6420,16 @@
         <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6457,14 +6454,14 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
       </c>
@@ -6481,7 +6478,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -6496,10 +6493,10 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6513,11 +6510,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6536,16 +6533,16 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6595,7 +6592,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -6610,13 +6607,13 @@
         <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6627,7 +6624,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6653,16 +6650,16 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6711,7 +6708,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6726,13 +6723,13 @@
         <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6743,7 +6740,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6766,16 +6763,16 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6825,7 +6822,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6840,10 +6837,10 @@
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6857,7 +6854,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6880,16 +6877,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6939,7 +6936,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6954,10 +6951,10 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6971,7 +6968,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6994,19 +6991,19 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -7055,7 +7052,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -7070,10 +7067,10 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -7087,7 +7084,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7110,16 +7107,16 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7145,14 +7142,14 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="X40" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="X40" t="s" s="2">
+      <c r="Y40" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
       </c>
@@ -7169,7 +7166,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -7184,10 +7181,10 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7201,7 +7198,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7224,16 +7221,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7283,7 +7280,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -7298,13 +7295,13 @@
         <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>203</v>
@@ -7315,11 +7312,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7338,17 +7335,17 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -7397,7 +7394,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -7412,10 +7409,10 @@
         <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7429,7 +7426,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7452,16 +7449,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7511,7 +7508,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -7526,10 +7523,10 @@
         <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -7543,7 +7540,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7566,19 +7563,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7627,7 +7624,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -7642,10 +7639,10 @@
         <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7659,7 +7656,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7682,19 +7679,19 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7743,7 +7740,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -7758,10 +7755,10 @@
         <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7775,7 +7772,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7798,17 +7795,17 @@
         <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7833,14 +7830,14 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="X46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="X46" t="s" s="2">
+      <c r="Y46" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7857,7 +7854,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7875,7 +7872,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7889,7 +7886,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7912,16 +7909,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7971,7 +7968,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7980,16 +7977,16 @@
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AI47" t="s" s="2">
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -8003,7 +8000,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8029,10 +8026,10 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -8083,7 +8080,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -8101,7 +8098,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8115,7 +8112,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8193,7 +8190,7 @@
         <v>132</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -8225,7 +8222,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>135</v>
@@ -8259,7 +8256,7 @@
         <v>138</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8309,7 +8306,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -8341,7 +8338,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>141</v>
@@ -8425,7 +8422,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -8457,10 +8454,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>77</v>
@@ -8482,13 +8479,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8539,7 +8536,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -8571,10 +8568,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>77</v>
@@ -8596,16 +8593,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8655,7 +8652,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8687,10 +8684,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>77</v>
@@ -8712,16 +8709,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8771,7 +8768,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8803,10 +8800,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>77</v>
@@ -8828,16 +8825,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8887,7 +8884,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8919,10 +8916,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>77</v>
@@ -8944,13 +8941,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -9001,7 +8998,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -9033,10 +9030,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>77</v>
@@ -9058,16 +9055,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9117,7 +9114,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -9149,10 +9146,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>77</v>
@@ -9174,16 +9171,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9233,7 +9230,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -9265,10 +9262,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>77</v>
@@ -9290,13 +9287,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9347,7 +9344,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -9365,7 +9362,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9379,10 +9376,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -9404,13 +9401,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9461,7 +9458,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -9479,7 +9476,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9493,10 +9490,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -9518,16 +9515,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9577,7 +9574,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -9609,10 +9606,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9634,16 +9631,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9693,7 +9690,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9725,10 +9722,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9750,13 +9747,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9807,7 +9804,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9839,10 +9836,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -9864,13 +9861,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9921,7 +9918,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9939,7 +9936,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9953,10 +9950,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -9978,13 +9975,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="K65" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10035,7 +10032,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -10067,10 +10064,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>77</v>
@@ -10149,7 +10146,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -10181,10 +10178,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>77</v>
@@ -10206,13 +10203,13 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10263,7 +10260,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -10295,10 +10292,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -10320,16 +10317,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10379,7 +10376,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -10411,10 +10408,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
@@ -10436,16 +10433,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10495,7 +10492,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -10527,10 +10524,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>77</v>
@@ -10552,16 +10549,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10611,7 +10608,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -10629,7 +10626,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10643,10 +10640,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>77</v>
@@ -10668,13 +10665,13 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10725,7 +10722,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10757,11 +10754,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10783,10 +10780,10 @@
         <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>184</v>
@@ -10841,7 +10838,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -10873,7 +10870,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10899,16 +10896,16 @@
         <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10957,7 +10954,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>83</v>
@@ -10975,7 +10972,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10989,7 +10986,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11015,16 +11012,16 @@
         <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -11073,7 +11070,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -11091,7 +11088,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -11105,7 +11102,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11128,19 +11125,19 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11165,14 +11162,14 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="X75" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="X75" t="s" s="2">
+      <c r="Y75" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
       </c>
@@ -11189,7 +11186,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -11198,7 +11195,7 @@
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>95</v>
@@ -11207,7 +11204,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11221,11 +11218,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11247,16 +11244,16 @@
         <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11305,7 +11302,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -11323,7 +11320,7 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11337,7 +11334,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11363,10 +11360,10 @@
         <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11417,7 +11414,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -11449,7 +11446,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11527,7 +11524,7 @@
         <v>132</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -11559,10 +11556,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
@@ -11584,16 +11581,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11643,7 +11640,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11675,10 +11672,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11700,13 +11697,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11757,7 +11754,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -11775,7 +11772,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11789,7 +11786,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11815,10 +11812,10 @@
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11842,34 +11839,34 @@
         <v>77</v>
       </c>
       <c r="V81" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11901,7 +11898,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11927,13 +11924,13 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11983,7 +11980,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -12001,7 +11998,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12015,7 +12012,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12041,10 +12038,10 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -12095,7 +12092,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -12127,7 +12124,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12205,7 +12202,7 @@
         <v>132</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -12237,10 +12234,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>77</v>
@@ -12262,16 +12259,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12321,7 +12318,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -12353,10 +12350,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>77</v>
@@ -12378,13 +12375,13 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12435,7 +12432,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -12453,7 +12450,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12467,10 +12464,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>77</v>
@@ -12492,16 +12489,16 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12551,7 +12548,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -12583,7 +12580,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12609,10 +12606,10 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12636,34 +12633,34 @@
         <v>77</v>
       </c>
       <c r="V88" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -12695,7 +12692,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12721,16 +12718,16 @@
         <v>103</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12755,14 +12752,14 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Y89" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Y89" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12779,7 +12776,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>83</v>
@@ -12797,7 +12794,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12811,7 +12808,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12834,19 +12831,19 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12895,7 +12892,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -12907,13 +12904,13 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12927,7 +12924,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12953,10 +12950,10 @@
         <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -13007,7 +13004,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -13025,7 +13022,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -13039,7 +13036,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13065,10 +13062,10 @@
         <v>128</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>184</v>
@@ -13121,7 +13118,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -13139,7 +13136,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13153,11 +13150,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13179,10 +13176,10 @@
         <v>128</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>184</v>
@@ -13237,7 +13234,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -13269,7 +13266,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13295,13 +13292,13 @@
         <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13351,7 +13348,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
@@ -13369,7 +13366,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13383,7 +13380,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13409,10 +13406,10 @@
         <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13439,14 +13436,14 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
       </c>
@@ -13463,7 +13460,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>83</v>
@@ -13481,7 +13478,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13495,7 +13492,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13518,13 +13515,13 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="L96" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13551,40 +13548,40 @@
         <v>77</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X96" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Y96" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Y96" t="s" s="2">
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH96" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -13593,7 +13590,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13607,7 +13604,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13633,13 +13630,13 @@
         <v>103</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13665,40 +13662,40 @@
         <v>77</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH97" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13707,7 +13704,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13721,7 +13718,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13744,77 +13741,77 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P98" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH98" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="Q98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13823,7 +13820,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13837,7 +13834,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13860,26 +13857,26 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>565</v>
-      </c>
       <c r="Q99" t="s" s="2">
         <v>77</v>
       </c>
@@ -13923,7 +13920,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -13932,7 +13929,7 @@
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13941,7 +13938,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13955,7 +13952,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13978,19 +13975,19 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14039,7 +14036,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -14048,7 +14045,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -14057,7 +14054,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14071,7 +14068,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14094,16 +14091,16 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="L101" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14153,7 +14150,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -14162,7 +14159,7 @@
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -14171,7 +14168,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14185,7 +14182,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14208,16 +14205,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -14267,7 +14264,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -14276,7 +14273,7 @@
         <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>95</v>
@@ -14285,7 +14282,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14299,7 +14296,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14322,16 +14319,16 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14381,7 +14378,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -14390,7 +14387,7 @@
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>95</v>
@@ -14399,7 +14396,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14413,7 +14410,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14439,10 +14436,10 @@
         <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14493,7 +14490,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -14511,7 +14508,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14525,7 +14522,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14603,7 +14600,7 @@
         <v>132</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
@@ -14635,10 +14632,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>77</v>
@@ -14660,13 +14657,13 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="K106" t="s" s="2">
+      <c r="L106" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14717,7 +14714,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -14749,11 +14746,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14775,10 +14772,10 @@
         <v>128</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M107" t="s" s="2">
         <v>184</v>
@@ -14833,7 +14830,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
@@ -14865,7 +14862,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14888,16 +14885,16 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="K108" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="K108" t="s" s="2">
+      <c r="L108" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14923,29 +14920,29 @@
         <v>77</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Y108" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AB108" s="2"/>
       <c r="AC108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>83</v>
@@ -14963,7 +14960,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14977,10 +14974,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>77</v>
@@ -15005,13 +15002,13 @@
         <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -15037,14 +15034,14 @@
         <v>77</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X109" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Y109" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Y109" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
       </c>
@@ -15061,7 +15058,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>83</v>
@@ -15079,7 +15076,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15093,7 +15090,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15119,10 +15116,10 @@
         <v>85</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15173,7 +15170,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -15205,7 +15202,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15283,7 +15280,7 @@
         <v>132</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -15315,10 +15312,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B112" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>77</v>
@@ -15340,16 +15337,16 @@
         <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K112" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K112" t="s" s="2">
+      <c r="L112" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15399,7 +15396,7 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -15431,10 +15428,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>77</v>
@@ -15456,13 +15453,13 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15513,7 +15510,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
@@ -15531,7 +15528,7 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -15545,7 +15542,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15571,10 +15568,10 @@
         <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15598,34 +15595,34 @@
         <v>77</v>
       </c>
       <c r="V114" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -15657,10 +15654,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>77</v>
@@ -15682,16 +15679,16 @@
         <v>77</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15717,14 +15714,14 @@
         <v>77</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X115" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Y115" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Y115" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="Z115" t="s" s="2">
         <v>77</v>
       </c>
@@ -15741,7 +15738,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>83</v>
@@ -15759,7 +15756,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15773,7 +15770,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15799,10 +15796,10 @@
         <v>85</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -15853,7 +15850,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
@@ -15871,7 +15868,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -15885,7 +15882,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15911,10 +15908,10 @@
         <v>128</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>184</v>
@@ -15958,7 +15955,7 @@
         <v>131</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>77</v>
@@ -15967,7 +15964,7 @@
         <v>132</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
@@ -15985,7 +15982,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -15999,7 +15996,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16025,16 +16022,16 @@
         <v>97</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16083,7 +16080,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -16101,21 +16098,21 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>617</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16141,13 +16138,13 @@
         <v>85</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -16197,7 +16194,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
@@ -16215,21 +16212,21 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>624</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16255,14 +16252,14 @@
         <v>103</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>77</v>
@@ -16311,7 +16308,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
@@ -16329,21 +16326,21 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>631</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16369,14 +16366,14 @@
         <v>85</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>77</v>
@@ -16425,7 +16422,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -16443,21 +16440,21 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN121" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>638</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16483,10 +16480,10 @@
         <v>85</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16537,7 +16534,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
@@ -16569,7 +16566,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16647,7 +16644,7 @@
         <v>132</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>75</v>
@@ -16679,10 +16676,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B124" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>77</v>
@@ -16704,16 +16701,16 @@
         <v>77</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K124" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K124" t="s" s="2">
+      <c r="L124" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16763,7 +16760,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>75</v>
@@ -16795,10 +16792,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>77</v>
@@ -16820,13 +16817,13 @@
         <v>77</v>
       </c>
       <c r="J125" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K125" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K125" t="s" s="2">
+      <c r="L125" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16877,7 +16874,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
@@ -16895,7 +16892,7 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
@@ -16909,7 +16906,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16935,10 +16932,10 @@
         <v>85</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16962,34 +16959,34 @@
         <v>77</v>
       </c>
       <c r="V126" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE126" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -17021,7 +17018,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17044,19 +17041,19 @@
         <v>84</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>77</v>
@@ -17105,7 +17102,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
@@ -17123,21 +17120,21 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN127" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>651</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17160,23 +17157,23 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>77</v>
@@ -17221,7 +17218,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
@@ -17239,7 +17236,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>
@@ -17253,7 +17250,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17276,19 +17273,19 @@
         <v>77</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>77</v>
@@ -17337,7 +17334,7 @@
         <v>77</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -17346,7 +17343,7 @@
         <v>76</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>95</v>
@@ -17355,7 +17352,7 @@
         <v>77</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>77</v>
@@ -17369,7 +17366,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17395,10 +17392,10 @@
         <v>85</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -17449,7 +17446,7 @@
         <v>77</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>75</v>
@@ -17467,7 +17464,7 @@
         <v>77</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>77</v>
@@ -17481,7 +17478,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17507,10 +17504,10 @@
         <v>128</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>184</v>
@@ -17563,7 +17560,7 @@
         <v>77</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>75</v>
@@ -17581,7 +17578,7 @@
         <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>77</v>
@@ -17595,11 +17592,11 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17621,10 +17618,10 @@
         <v>128</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>184</v>
@@ -17679,7 +17676,7 @@
         <v>77</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>75</v>
@@ -17711,7 +17708,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17734,16 +17731,16 @@
         <v>77</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17769,14 +17766,14 @@
         <v>77</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X133" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Y133" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Y133" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="Z133" t="s" s="2">
         <v>77</v>
       </c>
@@ -17793,7 +17790,7 @@
         <v>77</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>83</v>
@@ -17811,7 +17808,7 @@
         <v>77</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>77</v>
@@ -17825,7 +17822,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17848,19 +17845,19 @@
         <v>77</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>77</v>
@@ -17909,7 +17906,7 @@
         <v>77</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>75</v>
@@ -17918,7 +17915,7 @@
         <v>76</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>95</v>
@@ -17927,7 +17924,7 @@
         <v>77</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>77</v>
@@ -17941,7 +17938,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17967,10 +17964,10 @@
         <v>85</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -18021,7 +18018,7 @@
         <v>77</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>75</v>
@@ -18039,7 +18036,7 @@
         <v>77</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>77</v>
@@ -18053,7 +18050,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18131,7 +18128,7 @@
         <v>132</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>75</v>
@@ -18163,10 +18160,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>77</v>
@@ -18245,7 +18242,7 @@
         <v>77</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>75</v>
@@ -18277,10 +18274,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>77</v>
@@ -18302,13 +18299,13 @@
         <v>77</v>
       </c>
       <c r="J138" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K138" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="K138" t="s" s="2">
+      <c r="L138" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -18359,7 +18356,7 @@
         <v>77</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>75</v>
@@ -18391,10 +18388,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>77</v>
@@ -18416,16 +18413,16 @@
         <v>77</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K139" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K139" t="s" s="2">
+      <c r="L139" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18475,7 +18472,7 @@
         <v>77</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>75</v>
@@ -18507,10 +18504,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>77</v>
@@ -18532,16 +18529,16 @@
         <v>77</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K140" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K140" t="s" s="2">
+      <c r="L140" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="M140" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
@@ -18591,7 +18588,7 @@
         <v>77</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>75</v>
@@ -18623,10 +18620,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>77</v>
@@ -18648,16 +18645,16 @@
         <v>77</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K141" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="K141" t="s" s="2">
+      <c r="L141" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="M141" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -18707,7 +18704,7 @@
         <v>77</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>75</v>
@@ -18725,7 +18722,7 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>77</v>
@@ -18739,10 +18736,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>77</v>
@@ -18764,13 +18761,13 @@
         <v>77</v>
       </c>
       <c r="J142" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K142" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K142" t="s" s="2">
+      <c r="L142" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -18821,7 +18818,7 @@
         <v>77</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>75</v>
@@ -18853,11 +18850,11 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18879,10 +18876,10 @@
         <v>128</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>184</v>
@@ -18937,7 +18934,7 @@
         <v>77</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>75</v>
@@ -18969,7 +18966,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18995,16 +18992,16 @@
         <v>85</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>77</v>
@@ -19053,7 +19050,7 @@
         <v>77</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>83</v>
@@ -19071,7 +19068,7 @@
         <v>77</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>77</v>
@@ -19085,7 +19082,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19111,16 +19108,16 @@
         <v>97</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>77</v>
@@ -19169,7 +19166,7 @@
         <v>77</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>75</v>
@@ -19187,7 +19184,7 @@
         <v>77</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>77</v>
@@ -19201,7 +19198,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19224,19 +19221,19 @@
         <v>77</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>77</v>
@@ -19261,14 +19258,14 @@
         <v>77</v>
       </c>
       <c r="W146" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="X146" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="X146" t="s" s="2">
+      <c r="Y146" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Y146" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="Z146" t="s" s="2">
         <v>77</v>
       </c>
@@ -19285,7 +19282,7 @@
         <v>77</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>75</v>
@@ -19294,7 +19291,7 @@
         <v>76</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>95</v>
@@ -19303,7 +19300,7 @@
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>77</v>
@@ -19317,11 +19314,11 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19343,16 +19340,16 @@
         <v>85</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>77</v>
@@ -19401,7 +19398,7 @@
         <v>77</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>75</v>
@@ -19419,7 +19416,7 @@
         <v>77</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>77</v>
@@ -19433,7 +19430,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19459,13 +19456,13 @@
         <v>85</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -19515,7 +19512,7 @@
         <v>77</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>75</v>
@@ -19533,7 +19530,7 @@
         <v>77</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>77</v>
@@ -19547,7 +19544,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19573,16 +19570,16 @@
         <v>103</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L149" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="M149" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>77</v>
@@ -19607,14 +19604,14 @@
         <v>77</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Y149" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="Z149" t="s" s="2">
         <v>77</v>
       </c>
@@ -19631,7 +19628,7 @@
         <v>77</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>83</v>
@@ -19649,7 +19646,7 @@
         <v>77</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>77</v>
@@ -19663,7 +19660,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19686,19 +19683,19 @@
         <v>77</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="M150" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>77</v>
@@ -19747,7 +19744,7 @@
         <v>77</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>75</v>
@@ -19759,13 +19756,13 @@
         <v>77</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>77</v>
@@ -19779,7 +19776,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19805,10 +19802,10 @@
         <v>85</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -19859,7 +19856,7 @@
         <v>77</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>75</v>
@@ -19877,7 +19874,7 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>77</v>
@@ -19891,7 +19888,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19917,10 +19914,10 @@
         <v>128</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>184</v>
@@ -19973,7 +19970,7 @@
         <v>77</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>75</v>
@@ -19991,7 +19988,7 @@
         <v>77</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>77</v>
@@ -20005,11 +20002,11 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20031,10 +20028,10 @@
         <v>128</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M153" t="s" s="2">
         <v>184</v>
@@ -20089,7 +20086,7 @@
         <v>77</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>75</v>
@@ -20121,7 +20118,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20147,13 +20144,13 @@
         <v>85</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="M154" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -20203,7 +20200,7 @@
         <v>77</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>83</v>
@@ -20221,7 +20218,7 @@
         <v>77</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>77</v>
@@ -20235,7 +20232,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20261,10 +20258,10 @@
         <v>103</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -20291,14 +20288,14 @@
         <v>77</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X155" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Y155" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Y155" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="Z155" t="s" s="2">
         <v>77</v>
       </c>
@@ -20315,7 +20312,7 @@
         <v>77</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>83</v>
@@ -20333,7 +20330,7 @@
         <v>77</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>77</v>
@@ -20347,7 +20344,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20370,13 +20367,13 @@
         <v>77</v>
       </c>
       <c r="J156" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K156" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="K156" t="s" s="2">
+      <c r="L156" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -20403,40 +20400,40 @@
         <v>77</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X156" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Y156" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Y156" t="s" s="2">
+      <c r="Z156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH156" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>95</v>
@@ -20445,7 +20442,7 @@
         <v>77</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>77</v>
@@ -20459,7 +20456,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20485,13 +20482,13 @@
         <v>103</v>
       </c>
       <c r="K157" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L157" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L157" t="s" s="2">
+      <c r="M157" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -20517,40 +20514,40 @@
         <v>77</v>
       </c>
       <c r="W157" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Y157" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH157" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>95</v>
@@ -20559,7 +20556,7 @@
         <v>77</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>77</v>
@@ -20573,7 +20570,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20596,77 +20593,77 @@
         <v>77</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P158" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Q158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH158" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="Q158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>95</v>
@@ -20675,7 +20672,7 @@
         <v>77</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>77</v>
@@ -20689,7 +20686,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20712,26 +20709,26 @@
         <v>77</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M159" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="N159" t="s" s="2">
+      <c r="O159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P159" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="O159" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P159" t="s" s="2">
-        <v>565</v>
-      </c>
       <c r="Q159" t="s" s="2">
         <v>77</v>
       </c>
@@ -20775,7 +20772,7 @@
         <v>77</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>75</v>
@@ -20784,7 +20781,7 @@
         <v>83</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>95</v>
@@ -20793,7 +20790,7 @@
         <v>77</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>77</v>
@@ -20807,7 +20804,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20830,19 +20827,19 @@
         <v>77</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="M160" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>77</v>
@@ -20891,7 +20888,7 @@
         <v>77</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>75</v>
@@ -20900,7 +20897,7 @@
         <v>83</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>95</v>
@@ -20909,7 +20906,7 @@
         <v>77</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>77</v>
@@ -20923,7 +20920,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20946,16 +20943,16 @@
         <v>77</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -21005,7 +21002,7 @@
         <v>77</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>75</v>
@@ -21014,7 +21011,7 @@
         <v>83</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>95</v>
@@ -21023,7 +21020,7 @@
         <v>77</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>77</v>
@@ -21037,7 +21034,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21060,16 +21057,16 @@
         <v>77</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21119,7 +21116,7 @@
         <v>77</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>75</v>
@@ -21128,7 +21125,7 @@
         <v>83</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>95</v>
@@ -21137,7 +21134,7 @@
         <v>77</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>77</v>
@@ -21151,7 +21148,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21174,16 +21171,16 @@
         <v>77</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="M163" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -21233,7 +21230,7 @@
         <v>77</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>75</v>
@@ -21242,7 +21239,7 @@
         <v>76</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>95</v>
@@ -21251,7 +21248,7 @@
         <v>77</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>77</v>
@@ -21265,7 +21262,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21291,10 +21288,10 @@
         <v>85</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -21345,7 +21342,7 @@
         <v>77</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>75</v>
@@ -21363,7 +21360,7 @@
         <v>77</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>77</v>
@@ -21377,7 +21374,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21403,10 +21400,10 @@
         <v>128</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>184</v>
@@ -21459,7 +21456,7 @@
         <v>77</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>75</v>
@@ -21477,7 +21474,7 @@
         <v>77</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>77</v>
@@ -21491,11 +21488,11 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21517,10 +21514,10 @@
         <v>128</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M166" t="s" s="2">
         <v>184</v>
@@ -21575,7 +21572,7 @@
         <v>77</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>75</v>
@@ -21607,7 +21604,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21630,16 +21627,16 @@
         <v>77</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="M167" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
@@ -21665,14 +21662,14 @@
         <v>77</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X167" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Y167" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Y167" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="Z167" t="s" s="2">
         <v>77</v>
       </c>
@@ -21689,7 +21686,7 @@
         <v>77</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>83</v>
@@ -21707,7 +21704,7 @@
         <v>77</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>77</v>
@@ -21721,7 +21718,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21744,23 +21741,23 @@
         <v>77</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P168" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Q168" t="s" s="2">
         <v>77</v>
@@ -21805,7 +21802,7 @@
         <v>77</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>75</v>
@@ -21823,7 +21820,7 @@
         <v>77</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>77</v>
@@ -21837,7 +21834,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21860,19 +21857,19 @@
         <v>77</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="M169" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="M169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>77</v>
@@ -21921,7 +21918,7 @@
         <v>77</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>75</v>
@@ -21930,7 +21927,7 @@
         <v>76</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>95</v>
@@ -21939,7 +21936,7 @@
         <v>77</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>77</v>
@@ -21953,7 +21950,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21979,10 +21976,10 @@
         <v>85</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L170" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -22033,7 +22030,7 @@
         <v>77</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>75</v>
@@ -22051,7 +22048,7 @@
         <v>77</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>77</v>
@@ -22065,7 +22062,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22091,10 +22088,10 @@
         <v>128</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M171" t="s" s="2">
         <v>184</v>
@@ -22147,7 +22144,7 @@
         <v>77</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>75</v>
@@ -22165,7 +22162,7 @@
         <v>77</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>77</v>
@@ -22179,11 +22176,11 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22205,10 +22202,10 @@
         <v>128</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>184</v>
@@ -22263,7 +22260,7 @@
         <v>77</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>75</v>
@@ -22295,7 +22292,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22318,16 +22315,16 @@
         <v>77</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="K173" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="K173" t="s" s="2">
+      <c r="L173" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
@@ -22353,14 +22350,14 @@
         <v>77</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X173" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Y173" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Y173" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="Z173" t="s" s="2">
         <v>77</v>
       </c>
@@ -22377,7 +22374,7 @@
         <v>77</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>83</v>
@@ -22395,7 +22392,7 @@
         <v>77</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>77</v>
@@ -22409,7 +22406,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22435,16 +22432,16 @@
         <v>77</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="L174" t="s" s="2">
+      <c r="M174" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>77</v>
@@ -22493,7 +22490,7 @@
         <v>77</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>75</v>
@@ -22502,7 +22499,7 @@
         <v>76</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AI174" t="s" s="2">
         <v>95</v>
@@ -22511,7 +22508,7 @@
         <v>77</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -1471,7 +1471,7 @@
 </t>
   </si>
   <si>
-    <t>DeviceReportField</t>
+    <t>Extension : Device Report Field</t>
   </si>
   <si>
     <t>the third party report field used to obtain the value of the item</t>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t>device Type</t>
+    <t>Extension : device Type</t>
   </si>
   <si>
     <t>identifies the specific device type that is registered with a third-party provider</t>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : device Type</t>
+    <t>Extension : Device Type</t>
   </si>
   <si>
     <t>identifies the specific device type that is registered with a third-party provider</t>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="714">
   <si>
     <t>Property</t>
   </si>
@@ -518,17 +518,14 @@
     <t>If set to true, all systems that claim to support this extension and that render elements from the resource SHALL either render the content as required by the style extensions ([style], [xhtml] and [markdown]) or shall indicate to the user that the resource (or specific elements in the resource) cannot be appropriately rendered by the system.</t>
   </si>
   <si>
-    <t>deviceType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/device-type}
+    <t>device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/device}
 </t>
   </si>
   <si>
-    <t>Extension : Device Type</t>
-  </si>
-  <si>
-    <t>identifies the specific device type that is registered with a third-party provider</t>
+    <t>Device Types</t>
   </si>
   <si>
     <t>formSettings</t>
@@ -4255,7 +4252,7 @@
         <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4341,7 +4338,7 @@
         <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
@@ -4363,13 +4360,13 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4455,7 +4452,7 @@
         <v>127</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>77</v>
@@ -4477,13 +4474,13 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4569,7 +4566,7 @@
         <v>127</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>77</v>
@@ -4591,13 +4588,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4683,7 +4680,7 @@
         <v>127</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>77</v>
@@ -4705,13 +4702,13 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4794,11 +4791,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4820,16 +4817,16 @@
         <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4878,7 +4875,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4910,7 +4907,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4936,16 +4933,16 @@
         <v>97</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4994,7 +4991,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -5009,13 +5006,13 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -5026,7 +5023,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5049,19 +5046,19 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -5110,7 +5107,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -5125,16 +5122,16 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -5142,7 +5139,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5168,13 +5165,13 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -5224,7 +5221,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -5239,13 +5236,13 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -5256,7 +5253,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5282,16 +5279,16 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -5340,7 +5337,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -5349,7 +5346,7 @@
         <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>95</v>
@@ -5372,7 +5369,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5398,13 +5395,13 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5454,7 +5451,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -5469,10 +5466,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5486,7 +5483,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5512,10 +5509,10 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5566,7 +5563,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -5598,7 +5595,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5676,7 +5673,7 @@
         <v>132</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5708,10 +5705,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>77</v>
@@ -5733,16 +5730,16 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5792,7 +5789,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5824,10 +5821,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>77</v>
@@ -5849,13 +5846,13 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5906,7 +5903,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5924,7 +5921,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5938,7 +5935,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5964,10 +5961,10 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5991,34 +5988,34 @@
         <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -6050,7 +6047,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6073,17 +6070,17 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6132,7 +6129,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -6147,10 +6144,10 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6164,7 +6161,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6190,13 +6187,13 @@
         <v>103</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6222,14 +6219,14 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
       </c>
@@ -6246,7 +6243,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>83</v>
@@ -6261,13 +6258,13 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -6278,7 +6275,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6301,19 +6298,19 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -6362,7 +6359,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -6377,13 +6374,13 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -6394,7 +6391,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6420,16 +6417,16 @@
         <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6454,14 +6451,14 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
       </c>
@@ -6478,7 +6475,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -6493,10 +6490,10 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6510,11 +6507,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6533,16 +6530,16 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6592,7 +6589,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -6607,13 +6604,13 @@
         <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6624,7 +6621,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6650,16 +6647,16 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6708,7 +6705,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6723,13 +6720,13 @@
         <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6740,7 +6737,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6763,16 +6760,16 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6822,7 +6819,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6837,10 +6834,10 @@
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6854,7 +6851,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6877,16 +6874,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6936,7 +6933,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6951,10 +6948,10 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6968,7 +6965,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6991,19 +6988,19 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -7052,7 +7049,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -7067,10 +7064,10 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -7084,7 +7081,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7107,16 +7104,16 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7142,14 +7139,14 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="X40" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="X40" t="s" s="2">
+      <c r="Y40" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
       </c>
@@ -7166,7 +7163,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -7181,10 +7178,10 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7198,7 +7195,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7221,16 +7218,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7280,7 +7277,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -7295,16 +7292,16 @@
         <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AM41" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -7312,11 +7309,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7335,17 +7332,17 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -7394,7 +7391,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -7409,16 +7406,16 @@
         <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -7426,7 +7423,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7449,16 +7446,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7508,7 +7505,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -7523,16 +7520,16 @@
         <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK43" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7540,7 +7537,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7563,19 +7560,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7624,7 +7621,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -7639,16 +7636,16 @@
         <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7656,7 +7653,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7679,19 +7676,19 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7740,7 +7737,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -7755,16 +7752,16 @@
         <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7772,7 +7769,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7795,17 +7792,17 @@
         <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7830,14 +7827,14 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="X46" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="X46" t="s" s="2">
+      <c r="Y46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7854,7 +7851,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7872,7 +7869,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7886,7 +7883,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7909,16 +7906,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7968,7 +7965,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7977,16 +7974,16 @@
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AI47" t="s" s="2">
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -8000,7 +7997,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8026,10 +8023,10 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -8080,7 +8077,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -8098,7 +8095,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8112,7 +8109,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8190,7 +8187,7 @@
         <v>132</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -8222,7 +8219,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>135</v>
@@ -8256,7 +8253,7 @@
         <v>138</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8306,7 +8303,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -8338,7 +8335,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>141</v>
@@ -8422,7 +8419,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -8454,10 +8451,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>77</v>
@@ -8479,13 +8476,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8536,7 +8533,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -8568,10 +8565,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>77</v>
@@ -8593,16 +8590,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8652,7 +8649,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8684,10 +8681,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>77</v>
@@ -8709,16 +8706,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8768,7 +8765,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8800,10 +8797,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>77</v>
@@ -8825,16 +8822,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8884,7 +8881,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8916,10 +8913,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>77</v>
@@ -8941,13 +8938,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8998,7 +8995,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -9030,10 +9027,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>77</v>
@@ -9055,16 +9052,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9114,7 +9111,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -9146,10 +9143,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>77</v>
@@ -9171,16 +9168,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9230,7 +9227,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -9262,10 +9259,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>77</v>
@@ -9287,13 +9284,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9344,7 +9341,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -9362,7 +9359,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9376,10 +9373,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -9401,13 +9398,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9458,7 +9455,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -9476,7 +9473,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9490,10 +9487,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -9515,16 +9512,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9574,7 +9571,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -9606,10 +9603,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9631,16 +9628,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9690,7 +9687,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9722,10 +9719,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9747,13 +9744,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9804,7 +9801,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9836,10 +9833,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -9861,13 +9858,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9918,7 +9915,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9936,7 +9933,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9950,10 +9947,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -9975,13 +9972,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K65" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="L65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10032,7 +10029,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -10064,10 +10061,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>77</v>
@@ -10089,13 +10086,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -10146,7 +10143,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -10178,10 +10175,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>77</v>
@@ -10203,13 +10200,13 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10260,7 +10257,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -10292,10 +10289,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -10317,16 +10314,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10376,7 +10373,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -10408,10 +10405,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
@@ -10433,16 +10430,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10492,7 +10489,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -10524,10 +10521,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>77</v>
@@ -10549,16 +10546,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10608,7 +10605,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -10626,7 +10623,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10640,10 +10637,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>77</v>
@@ -10665,13 +10662,13 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10722,7 +10719,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10754,11 +10751,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10780,16 +10777,16 @@
         <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="M72" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10838,7 +10835,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -10870,7 +10867,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10896,16 +10893,16 @@
         <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10954,7 +10951,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>83</v>
@@ -10972,7 +10969,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10986,7 +10983,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11012,16 +11009,16 @@
         <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -11070,7 +11067,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -11088,7 +11085,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -11102,7 +11099,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11125,19 +11122,19 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11162,14 +11159,14 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="X75" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="X75" t="s" s="2">
+      <c r="Y75" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
       </c>
@@ -11186,7 +11183,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -11195,7 +11192,7 @@
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>95</v>
@@ -11204,7 +11201,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11218,11 +11215,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11244,16 +11241,16 @@
         <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11302,7 +11299,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -11320,7 +11317,7 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11334,7 +11331,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11360,10 +11357,10 @@
         <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11414,7 +11411,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -11446,7 +11443,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11524,7 +11521,7 @@
         <v>132</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -11556,10 +11553,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
@@ -11581,16 +11578,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11640,7 +11637,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11672,10 +11669,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11697,13 +11694,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11754,7 +11751,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -11772,7 +11769,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11786,7 +11783,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11812,10 +11809,10 @@
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11839,34 +11836,34 @@
         <v>77</v>
       </c>
       <c r="V81" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11898,7 +11895,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11924,13 +11921,13 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11980,7 +11977,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11998,7 +11995,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12012,7 +12009,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12038,10 +12035,10 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -12092,7 +12089,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -12124,7 +12121,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12202,7 +12199,7 @@
         <v>132</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -12234,10 +12231,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>77</v>
@@ -12259,16 +12256,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12318,7 +12315,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -12350,10 +12347,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>77</v>
@@ -12375,13 +12372,13 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12432,7 +12429,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -12450,7 +12447,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12464,10 +12461,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>77</v>
@@ -12489,16 +12486,16 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12548,7 +12545,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -12580,7 +12577,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12606,10 +12603,10 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12633,34 +12630,34 @@
         <v>77</v>
       </c>
       <c r="V88" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -12692,7 +12689,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12718,16 +12715,16 @@
         <v>103</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12752,14 +12749,14 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Y89" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Y89" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12776,7 +12773,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>83</v>
@@ -12794,7 +12791,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12808,7 +12805,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12831,19 +12828,19 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12892,7 +12889,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -12904,13 +12901,13 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12924,7 +12921,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12950,10 +12947,10 @@
         <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -13004,7 +13001,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -13022,7 +13019,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -13036,11 +13033,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13062,13 +13059,13 @@
         <v>128</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="M92" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -13118,7 +13115,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -13136,7 +13133,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13150,11 +13147,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13176,16 +13173,16 @@
         <v>128</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="M93" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>77</v>
@@ -13234,7 +13231,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -13266,7 +13263,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13292,13 +13289,13 @@
         <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13348,7 +13345,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
@@ -13366,7 +13363,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13380,7 +13377,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13406,10 +13403,10 @@
         <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13436,14 +13433,14 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>539</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
       </c>
@@ -13460,7 +13457,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>83</v>
@@ -13478,7 +13475,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13492,7 +13489,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13515,13 +13512,13 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="L96" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13548,40 +13545,40 @@
         <v>77</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X96" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y96" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y96" t="s" s="2">
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH96" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -13590,7 +13587,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13604,7 +13601,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13630,13 +13627,13 @@
         <v>103</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13662,40 +13659,40 @@
         <v>77</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH97" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13704,7 +13701,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13718,7 +13715,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13741,77 +13738,77 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P98" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH98" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="Q98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13820,7 +13817,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13834,7 +13831,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13857,26 +13854,26 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="Q99" t="s" s="2">
         <v>77</v>
       </c>
@@ -13920,7 +13917,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -13929,7 +13926,7 @@
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13938,7 +13935,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13952,7 +13949,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13975,19 +13972,19 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14036,7 +14033,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -14045,7 +14042,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -14054,7 +14051,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14068,7 +14065,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14091,16 +14088,16 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="L101" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14150,7 +14147,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -14159,7 +14156,7 @@
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -14168,7 +14165,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14182,7 +14179,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14205,16 +14202,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -14264,7 +14261,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -14273,7 +14270,7 @@
         <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>95</v>
@@ -14282,7 +14279,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14296,7 +14293,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14319,16 +14316,16 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14378,7 +14375,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -14387,7 +14384,7 @@
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>95</v>
@@ -14396,7 +14393,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14410,7 +14407,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14436,10 +14433,10 @@
         <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14490,7 +14487,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -14508,7 +14505,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14522,7 +14519,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14600,7 +14597,7 @@
         <v>132</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
@@ -14632,10 +14629,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>77</v>
@@ -14657,13 +14654,13 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="K106" t="s" s="2">
+      <c r="L106" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14714,7 +14711,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -14746,11 +14743,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14772,16 +14769,16 @@
         <v>128</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L107" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="M107" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14830,7 +14827,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
@@ -14862,7 +14859,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14885,16 +14882,16 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="K108" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="K108" t="s" s="2">
+      <c r="L108" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14920,29 +14917,29 @@
         <v>77</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y108" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AB108" s="2"/>
       <c r="AC108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>83</v>
@@ -14960,7 +14957,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14974,10 +14971,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>77</v>
@@ -15002,13 +14999,13 @@
         <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -15034,14 +15031,14 @@
         <v>77</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X109" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y109" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y109" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
       </c>
@@ -15058,7 +15055,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>83</v>
@@ -15076,7 +15073,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15090,7 +15087,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15116,10 +15113,10 @@
         <v>85</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15170,7 +15167,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -15202,7 +15199,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15280,7 +15277,7 @@
         <v>132</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -15312,10 +15309,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B112" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>77</v>
@@ -15337,16 +15334,16 @@
         <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K112" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K112" t="s" s="2">
+      <c r="L112" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15396,7 +15393,7 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -15428,10 +15425,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>77</v>
@@ -15453,13 +15450,13 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15510,7 +15507,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
@@ -15528,7 +15525,7 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -15542,7 +15539,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15568,10 +15565,10 @@
         <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15595,34 +15592,34 @@
         <v>77</v>
       </c>
       <c r="V114" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -15654,10 +15651,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>77</v>
@@ -15679,16 +15676,16 @@
         <v>77</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15714,14 +15711,14 @@
         <v>77</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X115" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y115" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y115" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="Z115" t="s" s="2">
         <v>77</v>
       </c>
@@ -15738,7 +15735,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>83</v>
@@ -15756,7 +15753,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15770,7 +15767,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15796,10 +15793,10 @@
         <v>85</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -15850,7 +15847,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
@@ -15868,7 +15865,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -15882,11 +15879,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15908,13 +15905,13 @@
         <v>128</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L117" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="M117" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15955,7 +15952,7 @@
         <v>131</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>77</v>
@@ -15964,7 +15961,7 @@
         <v>132</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
@@ -15982,7 +15979,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -15996,7 +15993,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16022,16 +16019,16 @@
         <v>97</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16080,7 +16077,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -16098,21 +16095,21 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>616</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16138,13 +16135,13 @@
         <v>85</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -16194,7 +16191,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
@@ -16212,21 +16209,21 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>623</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16252,14 +16249,14 @@
         <v>103</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>77</v>
@@ -16308,7 +16305,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
@@ -16326,21 +16323,21 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>630</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16366,14 +16363,14 @@
         <v>85</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>77</v>
@@ -16422,7 +16419,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -16440,21 +16437,21 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN121" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>637</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16480,10 +16477,10 @@
         <v>85</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16534,7 +16531,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
@@ -16566,7 +16563,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16644,7 +16641,7 @@
         <v>132</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>75</v>
@@ -16676,10 +16673,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B124" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>77</v>
@@ -16701,16 +16698,16 @@
         <v>77</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K124" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K124" t="s" s="2">
+      <c r="L124" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16760,7 +16757,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>75</v>
@@ -16792,10 +16789,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>77</v>
@@ -16817,13 +16814,13 @@
         <v>77</v>
       </c>
       <c r="J125" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K125" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K125" t="s" s="2">
+      <c r="L125" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16874,7 +16871,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
@@ -16892,7 +16889,7 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
@@ -16906,7 +16903,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16932,10 +16929,10 @@
         <v>85</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16959,34 +16956,34 @@
         <v>77</v>
       </c>
       <c r="V126" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE126" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -17018,7 +17015,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17041,19 +17038,19 @@
         <v>84</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>77</v>
@@ -17102,7 +17099,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
@@ -17120,21 +17117,21 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN127" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>650</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17157,23 +17154,23 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>77</v>
@@ -17218,7 +17215,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
@@ -17236,7 +17233,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>
@@ -17250,7 +17247,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17273,19 +17270,19 @@
         <v>77</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>77</v>
@@ -17334,7 +17331,7 @@
         <v>77</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -17343,7 +17340,7 @@
         <v>76</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>95</v>
@@ -17352,7 +17349,7 @@
         <v>77</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>77</v>
@@ -17366,7 +17363,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17392,10 +17389,10 @@
         <v>85</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -17446,7 +17443,7 @@
         <v>77</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>75</v>
@@ -17464,7 +17461,7 @@
         <v>77</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>77</v>
@@ -17478,11 +17475,11 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17504,13 +17501,13 @@
         <v>128</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L131" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="M131" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17560,7 +17557,7 @@
         <v>77</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>75</v>
@@ -17578,7 +17575,7 @@
         <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>77</v>
@@ -17592,11 +17589,11 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17618,16 +17615,16 @@
         <v>128</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L132" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="M132" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>77</v>
@@ -17676,7 +17673,7 @@
         <v>77</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>75</v>
@@ -17708,7 +17705,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17731,16 +17728,16 @@
         <v>77</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17766,14 +17763,14 @@
         <v>77</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X133" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y133" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y133" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="Z133" t="s" s="2">
         <v>77</v>
       </c>
@@ -17790,7 +17787,7 @@
         <v>77</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>83</v>
@@ -17808,7 +17805,7 @@
         <v>77</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>77</v>
@@ -17822,7 +17819,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17845,19 +17842,19 @@
         <v>77</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>77</v>
@@ -17906,7 +17903,7 @@
         <v>77</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>75</v>
@@ -17915,7 +17912,7 @@
         <v>76</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>95</v>
@@ -17924,7 +17921,7 @@
         <v>77</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>77</v>
@@ -17938,7 +17935,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17964,10 +17961,10 @@
         <v>85</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -18018,7 +18015,7 @@
         <v>77</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>75</v>
@@ -18036,7 +18033,7 @@
         <v>77</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>77</v>
@@ -18050,7 +18047,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18128,7 +18125,7 @@
         <v>132</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>75</v>
@@ -18160,10 +18157,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>77</v>
@@ -18185,13 +18182,13 @@
         <v>77</v>
       </c>
       <c r="J137" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K137" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K137" t="s" s="2">
+      <c r="L137" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -18242,7 +18239,7 @@
         <v>77</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>75</v>
@@ -18274,10 +18271,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>77</v>
@@ -18299,13 +18296,13 @@
         <v>77</v>
       </c>
       <c r="J138" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K138" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K138" t="s" s="2">
+      <c r="L138" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -18356,7 +18353,7 @@
         <v>77</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>75</v>
@@ -18388,10 +18385,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>77</v>
@@ -18413,16 +18410,16 @@
         <v>77</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="K139" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="K139" t="s" s="2">
+      <c r="L139" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18472,7 +18469,7 @@
         <v>77</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>75</v>
@@ -18504,10 +18501,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>77</v>
@@ -18529,16 +18526,16 @@
         <v>77</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K140" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K140" t="s" s="2">
+      <c r="L140" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="M140" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
@@ -18588,7 +18585,7 @@
         <v>77</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>75</v>
@@ -18620,10 +18617,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>77</v>
@@ -18645,16 +18642,16 @@
         <v>77</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K141" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K141" t="s" s="2">
+      <c r="L141" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="M141" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -18704,7 +18701,7 @@
         <v>77</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>75</v>
@@ -18722,7 +18719,7 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>77</v>
@@ -18736,10 +18733,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>77</v>
@@ -18761,13 +18758,13 @@
         <v>77</v>
       </c>
       <c r="J142" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K142" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="K142" t="s" s="2">
+      <c r="L142" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -18818,7 +18815,7 @@
         <v>77</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>75</v>
@@ -18850,11 +18847,11 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18876,16 +18873,16 @@
         <v>128</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L143" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="M143" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>77</v>
@@ -18934,7 +18931,7 @@
         <v>77</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>75</v>
@@ -18966,7 +18963,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18992,16 +18989,16 @@
         <v>85</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>77</v>
@@ -19050,7 +19047,7 @@
         <v>77</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>83</v>
@@ -19068,7 +19065,7 @@
         <v>77</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>77</v>
@@ -19082,7 +19079,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19108,16 +19105,16 @@
         <v>97</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>77</v>
@@ -19166,7 +19163,7 @@
         <v>77</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>75</v>
@@ -19184,7 +19181,7 @@
         <v>77</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>77</v>
@@ -19198,7 +19195,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19221,19 +19218,19 @@
         <v>77</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>77</v>
@@ -19258,14 +19255,14 @@
         <v>77</v>
       </c>
       <c r="W146" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="X146" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="X146" t="s" s="2">
+      <c r="Y146" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Y146" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="Z146" t="s" s="2">
         <v>77</v>
       </c>
@@ -19282,7 +19279,7 @@
         <v>77</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>75</v>
@@ -19291,7 +19288,7 @@
         <v>76</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>95</v>
@@ -19300,7 +19297,7 @@
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>77</v>
@@ -19314,11 +19311,11 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19340,16 +19337,16 @@
         <v>85</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>77</v>
@@ -19398,7 +19395,7 @@
         <v>77</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>75</v>
@@ -19416,7 +19413,7 @@
         <v>77</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>77</v>
@@ -19430,7 +19427,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19456,13 +19453,13 @@
         <v>85</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -19512,7 +19509,7 @@
         <v>77</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>75</v>
@@ -19530,7 +19527,7 @@
         <v>77</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>77</v>
@@ -19544,7 +19541,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19570,16 +19567,16 @@
         <v>103</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L149" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="M149" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>77</v>
@@ -19604,14 +19601,14 @@
         <v>77</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Y149" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="Z149" t="s" s="2">
         <v>77</v>
       </c>
@@ -19628,7 +19625,7 @@
         <v>77</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>83</v>
@@ -19646,7 +19643,7 @@
         <v>77</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>77</v>
@@ -19660,7 +19657,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19683,19 +19680,19 @@
         <v>77</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="M150" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>77</v>
@@ -19744,7 +19741,7 @@
         <v>77</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>75</v>
@@ -19756,13 +19753,13 @@
         <v>77</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>77</v>
@@ -19776,7 +19773,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19802,10 +19799,10 @@
         <v>85</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -19856,7 +19853,7 @@
         <v>77</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>75</v>
@@ -19874,7 +19871,7 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>77</v>
@@ -19888,11 +19885,11 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19914,13 +19911,13 @@
         <v>128</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L152" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="M152" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
@@ -19970,7 +19967,7 @@
         <v>77</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>75</v>
@@ -19988,7 +19985,7 @@
         <v>77</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>77</v>
@@ -20002,11 +19999,11 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20028,16 +20025,16 @@
         <v>128</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L153" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="M153" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>77</v>
@@ -20086,7 +20083,7 @@
         <v>77</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>75</v>
@@ -20118,7 +20115,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20144,13 +20141,13 @@
         <v>85</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="M154" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -20200,7 +20197,7 @@
         <v>77</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>83</v>
@@ -20218,7 +20215,7 @@
         <v>77</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>77</v>
@@ -20232,7 +20229,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20258,10 +20255,10 @@
         <v>103</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -20288,14 +20285,14 @@
         <v>77</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X155" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Y155" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="Y155" t="s" s="2">
-        <v>539</v>
-      </c>
       <c r="Z155" t="s" s="2">
         <v>77</v>
       </c>
@@ -20312,7 +20309,7 @@
         <v>77</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>83</v>
@@ -20330,7 +20327,7 @@
         <v>77</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>77</v>
@@ -20344,7 +20341,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20367,13 +20364,13 @@
         <v>77</v>
       </c>
       <c r="J156" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="K156" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="K156" t="s" s="2">
+      <c r="L156" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -20400,40 +20397,40 @@
         <v>77</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X156" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y156" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y156" t="s" s="2">
+      <c r="Z156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH156" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>95</v>
@@ -20442,7 +20439,7 @@
         <v>77</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>77</v>
@@ -20456,7 +20453,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20482,13 +20479,13 @@
         <v>103</v>
       </c>
       <c r="K157" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L157" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L157" t="s" s="2">
+      <c r="M157" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -20514,40 +20511,40 @@
         <v>77</v>
       </c>
       <c r="W157" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Y157" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH157" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>95</v>
@@ -20556,7 +20553,7 @@
         <v>77</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>77</v>
@@ -20570,7 +20567,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20593,77 +20590,77 @@
         <v>77</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P158" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Q158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH158" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="Q158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>95</v>
@@ -20672,7 +20669,7 @@
         <v>77</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>77</v>
@@ -20686,7 +20683,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20709,26 +20706,26 @@
         <v>77</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M159" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="N159" t="s" s="2">
+      <c r="O159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P159" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="O159" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P159" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="Q159" t="s" s="2">
         <v>77</v>
       </c>
@@ -20772,7 +20769,7 @@
         <v>77</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>75</v>
@@ -20781,7 +20778,7 @@
         <v>83</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>95</v>
@@ -20790,7 +20787,7 @@
         <v>77</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>77</v>
@@ -20804,7 +20801,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20827,19 +20824,19 @@
         <v>77</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="M160" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>77</v>
@@ -20888,7 +20885,7 @@
         <v>77</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>75</v>
@@ -20897,7 +20894,7 @@
         <v>83</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>95</v>
@@ -20906,7 +20903,7 @@
         <v>77</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>77</v>
@@ -20920,7 +20917,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20943,16 +20940,16 @@
         <v>77</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -21002,7 +20999,7 @@
         <v>77</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>75</v>
@@ -21011,7 +21008,7 @@
         <v>83</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>95</v>
@@ -21020,7 +21017,7 @@
         <v>77</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>77</v>
@@ -21034,7 +21031,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21057,16 +21054,16 @@
         <v>77</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21116,7 +21113,7 @@
         <v>77</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>75</v>
@@ -21125,7 +21122,7 @@
         <v>83</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>95</v>
@@ -21134,7 +21131,7 @@
         <v>77</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>77</v>
@@ -21148,7 +21145,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21171,16 +21168,16 @@
         <v>77</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="M163" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -21230,7 +21227,7 @@
         <v>77</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>75</v>
@@ -21239,7 +21236,7 @@
         <v>76</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>95</v>
@@ -21248,7 +21245,7 @@
         <v>77</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>77</v>
@@ -21262,7 +21259,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21288,10 +21285,10 @@
         <v>85</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -21342,7 +21339,7 @@
         <v>77</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>75</v>
@@ -21360,7 +21357,7 @@
         <v>77</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>77</v>
@@ -21374,11 +21371,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21400,13 +21397,13 @@
         <v>128</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L165" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="M165" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
@@ -21456,7 +21453,7 @@
         <v>77</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>75</v>
@@ -21474,7 +21471,7 @@
         <v>77</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>77</v>
@@ -21488,11 +21485,11 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21514,16 +21511,16 @@
         <v>128</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L166" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="M166" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N166" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>77</v>
@@ -21572,7 +21569,7 @@
         <v>77</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>75</v>
@@ -21604,7 +21601,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21627,16 +21624,16 @@
         <v>77</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="M167" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
@@ -21662,14 +21659,14 @@
         <v>77</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X167" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y167" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y167" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="Z167" t="s" s="2">
         <v>77</v>
       </c>
@@ -21686,7 +21683,7 @@
         <v>77</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>83</v>
@@ -21704,7 +21701,7 @@
         <v>77</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>77</v>
@@ -21718,7 +21715,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21741,23 +21738,23 @@
         <v>77</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P168" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q168" t="s" s="2">
         <v>77</v>
@@ -21802,7 +21799,7 @@
         <v>77</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>75</v>
@@ -21820,7 +21817,7 @@
         <v>77</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>77</v>
@@ -21834,7 +21831,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21857,19 +21854,19 @@
         <v>77</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="M169" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>77</v>
@@ -21918,7 +21915,7 @@
         <v>77</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>75</v>
@@ -21927,7 +21924,7 @@
         <v>76</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>95</v>
@@ -21936,7 +21933,7 @@
         <v>77</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>77</v>
@@ -21950,7 +21947,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21976,10 +21973,10 @@
         <v>85</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L170" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -22030,7 +22027,7 @@
         <v>77</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>75</v>
@@ -22048,7 +22045,7 @@
         <v>77</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>77</v>
@@ -22062,11 +22059,11 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22088,13 +22085,13 @@
         <v>128</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L171" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="M171" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -22144,7 +22141,7 @@
         <v>77</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>75</v>
@@ -22162,7 +22159,7 @@
         <v>77</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>77</v>
@@ -22176,11 +22173,11 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22202,16 +22199,16 @@
         <v>128</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L172" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="M172" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N172" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>77</v>
@@ -22260,7 +22257,7 @@
         <v>77</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>75</v>
@@ -22292,7 +22289,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22315,16 +22312,16 @@
         <v>77</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="K173" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="K173" t="s" s="2">
+      <c r="L173" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
@@ -22350,14 +22347,14 @@
         <v>77</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X173" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y173" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y173" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="Z173" t="s" s="2">
         <v>77</v>
       </c>
@@ -22374,7 +22371,7 @@
         <v>77</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>83</v>
@@ -22392,7 +22389,7 @@
         <v>77</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>77</v>
@@ -22406,7 +22403,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22432,16 +22429,16 @@
         <v>77</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L174" t="s" s="2">
+      <c r="M174" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>77</v>
@@ -22490,7 +22487,7 @@
         <v>77</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>75</v>
@@ -22499,7 +22496,7 @@
         <v>76</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AI174" t="s" s="2">
         <v>95</v>
@@ -22508,7 +22505,7 @@
         <v>77</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="712">
   <si>
     <t>Property</t>
   </si>
@@ -528,6 +528,9 @@
     <t>Device Types</t>
   </si>
   <si>
+    <t>device types</t>
+  </si>
+  <si>
     <t>formSettings</t>
   </si>
   <si>
@@ -1462,16 +1465,6 @@
   </si>
   <si>
     <t>deviceReportField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/device-report-field}
-</t>
-  </si>
-  <si>
-    <t>Extension : Device Report Field</t>
-  </si>
-  <si>
-    <t>the third party report field used to obtain the value of the item</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -4252,7 +4245,7 @@
         <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4338,7 +4331,7 @@
         <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
@@ -4360,13 +4353,13 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4452,7 +4445,7 @@
         <v>127</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>77</v>
@@ -4474,13 +4467,13 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4566,7 +4559,7 @@
         <v>127</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>77</v>
@@ -4588,13 +4581,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4680,7 +4673,7 @@
         <v>127</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>77</v>
@@ -4702,13 +4695,13 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4791,11 +4784,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4817,16 +4810,16 @@
         <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4875,7 +4868,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4907,7 +4900,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4933,16 +4926,16 @@
         <v>97</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4991,7 +4984,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -5006,13 +4999,13 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -5023,7 +5016,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5046,19 +5039,19 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -5107,7 +5100,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -5122,16 +5115,16 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -5139,7 +5132,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5165,13 +5158,13 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -5221,7 +5214,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -5236,13 +5229,13 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -5253,7 +5246,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5279,16 +5272,16 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -5337,7 +5330,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -5346,7 +5339,7 @@
         <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>95</v>
@@ -5369,7 +5362,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5395,13 +5388,13 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5451,7 +5444,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -5466,10 +5459,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5483,7 +5476,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5509,10 +5502,10 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5563,7 +5556,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -5595,7 +5588,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5673,7 +5666,7 @@
         <v>132</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5705,10 +5698,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>77</v>
@@ -5730,16 +5723,16 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5789,7 +5782,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5821,10 +5814,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>77</v>
@@ -5846,13 +5839,13 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5903,7 +5896,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5921,7 +5914,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5935,7 +5928,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5961,10 +5954,10 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5988,7 +5981,7 @@
         <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W30" t="s" s="2">
         <v>77</v>
@@ -6015,7 +6008,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -6047,7 +6040,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6070,17 +6063,17 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6129,7 +6122,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -6144,10 +6137,10 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6161,7 +6154,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6187,13 +6180,13 @@
         <v>103</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6219,13 +6212,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -6243,7 +6236,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>83</v>
@@ -6258,13 +6251,13 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -6275,7 +6268,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6298,19 +6291,19 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -6359,7 +6352,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -6374,13 +6367,13 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -6391,7 +6384,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6417,16 +6410,16 @@
         <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6451,13 +6444,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -6475,7 +6468,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -6490,10 +6483,10 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6507,11 +6500,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6530,16 +6523,16 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6589,7 +6582,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -6604,13 +6597,13 @@
         <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6621,7 +6614,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6647,16 +6640,16 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6705,7 +6698,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6720,13 +6713,13 @@
         <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6737,7 +6730,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6760,16 +6753,16 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6819,7 +6812,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6834,10 +6827,10 @@
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6851,7 +6844,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6874,16 +6867,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6933,7 +6926,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6948,10 +6941,10 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6965,7 +6958,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6988,19 +6981,19 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -7049,7 +7042,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -7064,10 +7057,10 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -7081,7 +7074,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7104,16 +7097,16 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7139,13 +7132,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7163,7 +7156,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -7178,10 +7171,10 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7195,7 +7188,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7218,16 +7211,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7277,7 +7270,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -7292,16 +7285,16 @@
         <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -7309,11 +7302,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7332,17 +7325,17 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -7391,7 +7384,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -7406,16 +7399,16 @@
         <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -7423,7 +7416,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7446,16 +7439,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7505,7 +7498,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -7520,16 +7513,16 @@
         <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7537,7 +7530,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7560,19 +7553,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7621,7 +7614,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -7636,16 +7629,16 @@
         <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7653,7 +7646,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7676,19 +7669,19 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7737,7 +7730,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -7752,16 +7745,16 @@
         <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7769,7 +7762,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7792,17 +7785,17 @@
         <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7827,13 +7820,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7851,7 +7844,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7869,7 +7862,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7883,7 +7876,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7906,16 +7899,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7965,7 +7958,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7974,16 +7967,16 @@
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7997,7 +7990,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8023,10 +8016,10 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -8077,7 +8070,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -8095,7 +8088,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8109,7 +8102,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8187,7 +8180,7 @@
         <v>132</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -8219,7 +8212,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>135</v>
@@ -8253,7 +8246,7 @@
         <v>138</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8303,7 +8296,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -8335,7 +8328,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>141</v>
@@ -8419,7 +8412,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -8451,10 +8444,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>77</v>
@@ -8476,13 +8469,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8533,7 +8526,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -8565,10 +8558,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>77</v>
@@ -8590,16 +8583,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8649,7 +8642,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8681,10 +8674,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>77</v>
@@ -8706,16 +8699,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8765,7 +8758,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8797,10 +8790,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>77</v>
@@ -8822,16 +8815,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8881,7 +8874,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8913,10 +8906,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>77</v>
@@ -8938,13 +8931,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8995,7 +8988,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -9027,10 +9020,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>77</v>
@@ -9052,16 +9045,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9111,7 +9104,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -9143,10 +9136,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>77</v>
@@ -9168,16 +9161,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9227,7 +9220,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -9259,10 +9252,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>77</v>
@@ -9284,13 +9277,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9341,7 +9334,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -9359,7 +9352,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9373,10 +9366,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -9398,13 +9391,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9455,7 +9448,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -9473,7 +9466,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9487,10 +9480,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>77</v>
@@ -9512,16 +9505,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9571,7 +9564,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -9603,10 +9596,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9628,16 +9621,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9687,7 +9680,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9719,10 +9712,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9744,13 +9737,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9801,7 +9794,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9833,10 +9826,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -9858,13 +9851,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9915,7 +9908,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9933,7 +9926,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9947,10 +9940,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -9972,13 +9965,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10029,7 +10022,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -10061,10 +10054,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>77</v>
@@ -10086,13 +10079,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -10143,7 +10136,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -10175,10 +10168,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>77</v>
@@ -10200,13 +10193,13 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10257,7 +10250,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -10289,10 +10282,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
@@ -10314,16 +10307,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10373,7 +10366,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -10405,10 +10398,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>77</v>
@@ -10430,16 +10423,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10489,7 +10482,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -10521,10 +10514,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>77</v>
@@ -10546,16 +10539,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10605,7 +10598,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -10623,7 +10616,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10637,10 +10630,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>77</v>
@@ -10662,13 +10655,13 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>461</v>
+        <v>161</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>462</v>
+        <v>162</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>463</v>
+        <v>163</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10719,7 +10712,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10751,11 +10744,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10777,16 +10770,16 @@
         <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10835,7 +10828,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -10867,7 +10860,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10893,16 +10886,16 @@
         <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10951,7 +10944,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>83</v>
@@ -10969,7 +10962,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10983,7 +10976,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11009,16 +11002,16 @@
         <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -11067,7 +11060,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -11085,7 +11078,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -11099,7 +11092,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11122,19 +11115,19 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11159,13 +11152,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -11183,7 +11176,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -11192,7 +11185,7 @@
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>95</v>
@@ -11201,7 +11194,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11215,11 +11208,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11241,16 +11234,16 @@
         <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11299,7 +11292,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -11317,7 +11310,7 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11331,7 +11324,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11357,10 +11350,10 @@
         <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11411,7 +11404,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -11443,7 +11436,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11521,7 +11514,7 @@
         <v>132</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -11553,10 +11546,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
@@ -11578,16 +11571,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11637,7 +11630,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11669,10 +11662,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11694,13 +11687,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11751,7 +11744,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -11769,7 +11762,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11783,7 +11776,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11809,10 +11802,10 @@
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11836,7 +11829,7 @@
         <v>77</v>
       </c>
       <c r="V81" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W81" t="s" s="2">
         <v>77</v>
@@ -11863,7 +11856,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11895,7 +11888,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11921,13 +11914,13 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11977,7 +11970,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11995,7 +11988,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12009,7 +12002,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12035,10 +12028,10 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -12089,7 +12082,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -12121,7 +12114,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12199,7 +12192,7 @@
         <v>132</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -12231,10 +12224,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>77</v>
@@ -12256,16 +12249,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12315,7 +12308,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -12347,10 +12340,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B86" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>77</v>
@@ -12372,13 +12365,13 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12429,7 +12422,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -12447,7 +12440,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12461,10 +12454,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>77</v>
@@ -12486,16 +12479,16 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12545,7 +12538,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -12577,7 +12570,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12603,10 +12596,10 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12630,7 +12623,7 @@
         <v>77</v>
       </c>
       <c r="V88" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W88" t="s" s="2">
         <v>77</v>
@@ -12657,7 +12650,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -12689,7 +12682,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12715,16 +12708,16 @@
         <v>103</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12749,13 +12742,13 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12773,7 +12766,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>83</v>
@@ -12791,7 +12784,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12805,7 +12798,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12828,19 +12821,19 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12889,7 +12882,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -12901,13 +12894,13 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12921,7 +12914,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12947,10 +12940,10 @@
         <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -13001,7 +12994,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -13019,7 +13012,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -13033,11 +13026,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13059,13 +13052,13 @@
         <v>128</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -13115,7 +13108,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -13133,7 +13126,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13147,11 +13140,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13173,16 +13166,16 @@
         <v>128</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>77</v>
@@ -13231,7 +13224,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -13263,7 +13256,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13289,13 +13282,13 @@
         <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13345,7 +13338,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
@@ -13363,7 +13356,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13377,7 +13370,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13403,10 +13396,10 @@
         <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13433,13 +13426,13 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
@@ -13457,7 +13450,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>83</v>
@@ -13475,7 +13468,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13489,7 +13482,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13512,13 +13505,13 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13545,40 +13538,40 @@
         <v>77</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X96" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH96" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -13587,7 +13580,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13601,7 +13594,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13627,13 +13620,13 @@
         <v>103</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13659,14 +13652,14 @@
         <v>77</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13683,7 +13676,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -13692,7 +13685,7 @@
         <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13701,7 +13694,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13715,7 +13708,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13738,23 +13731,23 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P98" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Q98" t="s" s="2">
         <v>77</v>
@@ -13799,7 +13792,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -13808,7 +13801,7 @@
         <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13817,7 +13810,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13831,7 +13824,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13854,26 +13847,26 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="N99" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>563</v>
-      </c>
       <c r="Q99" t="s" s="2">
         <v>77</v>
       </c>
@@ -13917,7 +13910,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -13926,7 +13919,7 @@
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13935,7 +13928,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13949,7 +13942,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13972,19 +13965,19 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14033,7 +14026,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -14042,7 +14035,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -14051,7 +14044,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14065,7 +14058,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14088,16 +14081,16 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14147,7 +14140,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -14156,7 +14149,7 @@
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -14165,7 +14158,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14179,7 +14172,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14202,16 +14195,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -14261,7 +14254,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -14270,7 +14263,7 @@
         <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>95</v>
@@ -14279,7 +14272,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14293,7 +14286,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14316,16 +14309,16 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14375,7 +14368,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -14384,7 +14377,7 @@
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>95</v>
@@ -14393,7 +14386,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14407,7 +14400,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14433,10 +14426,10 @@
         <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14487,7 +14480,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -14505,7 +14498,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14519,7 +14512,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14597,7 +14590,7 @@
         <v>132</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
@@ -14629,10 +14622,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>77</v>
@@ -14654,13 +14647,13 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14711,7 +14704,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -14743,11 +14736,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14769,16 +14762,16 @@
         <v>128</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14827,7 +14820,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
@@ -14859,7 +14852,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14882,16 +14875,16 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="K108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14917,29 +14910,29 @@
         <v>77</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AB108" s="2"/>
       <c r="AC108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>83</v>
@@ -14957,7 +14950,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14971,10 +14964,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>77</v>
@@ -14999,13 +14992,13 @@
         <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -15031,13 +15024,13 @@
         <v>77</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15055,7 +15048,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>83</v>
@@ -15073,7 +15066,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15087,7 +15080,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15113,10 +15106,10 @@
         <v>85</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15167,7 +15160,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -15199,7 +15192,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15277,7 +15270,7 @@
         <v>132</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -15309,10 +15302,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>77</v>
@@ -15334,16 +15327,16 @@
         <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15393,7 +15386,7 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -15425,10 +15418,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>77</v>
@@ -15450,13 +15443,13 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15507,7 +15500,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
@@ -15525,7 +15518,7 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -15539,7 +15532,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15565,10 +15558,10 @@
         <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15592,7 +15585,7 @@
         <v>77</v>
       </c>
       <c r="V114" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W114" t="s" s="2">
         <v>77</v>
@@ -15619,7 +15612,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -15651,10 +15644,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>77</v>
@@ -15676,16 +15669,16 @@
         <v>77</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15711,13 +15704,13 @@
         <v>77</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>77</v>
@@ -15735,7 +15728,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>83</v>
@@ -15753,7 +15746,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15767,7 +15760,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15793,10 +15786,10 @@
         <v>85</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -15847,7 +15840,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
@@ -15865,7 +15858,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -15879,11 +15872,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15905,13 +15898,13 @@
         <v>128</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15952,7 +15945,7 @@
         <v>131</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>77</v>
@@ -15961,7 +15954,7 @@
         <v>132</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
@@ -15979,7 +15972,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -15993,7 +15986,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16019,16 +16012,16 @@
         <v>97</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16077,7 +16070,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -16095,7 +16088,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16104,12 +16097,12 @@
         <v>77</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16135,13 +16128,13 @@
         <v>85</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -16191,7 +16184,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
@@ -16209,7 +16202,7 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
@@ -16218,12 +16211,12 @@
         <v>77</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16249,14 +16242,14 @@
         <v>103</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>77</v>
@@ -16305,7 +16298,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
@@ -16323,7 +16316,7 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -16332,12 +16325,12 @@
         <v>77</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16363,14 +16356,14 @@
         <v>85</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>77</v>
@@ -16419,7 +16412,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -16437,7 +16430,7 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -16446,12 +16439,12 @@
         <v>77</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16477,10 +16470,10 @@
         <v>85</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16531,7 +16524,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
@@ -16563,7 +16556,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16641,7 +16634,7 @@
         <v>132</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>75</v>
@@ -16673,10 +16666,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>77</v>
@@ -16698,16 +16691,16 @@
         <v>77</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16757,7 +16750,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>75</v>
@@ -16789,10 +16782,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B125" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>77</v>
@@ -16814,13 +16807,13 @@
         <v>77</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16871,7 +16864,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
@@ -16889,7 +16882,7 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
@@ -16903,7 +16896,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16929,10 +16922,10 @@
         <v>85</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16956,7 +16949,7 @@
         <v>77</v>
       </c>
       <c r="V126" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W126" t="s" s="2">
         <v>77</v>
@@ -16983,7 +16976,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -17015,7 +17008,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17038,19 +17031,19 @@
         <v>84</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>77</v>
@@ -17099,7 +17092,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
@@ -17117,7 +17110,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17126,12 +17119,12 @@
         <v>77</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17154,23 +17147,23 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>77</v>
@@ -17215,7 +17208,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
@@ -17233,7 +17226,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>
@@ -17247,7 +17240,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17270,19 +17263,19 @@
         <v>77</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>77</v>
@@ -17331,7 +17324,7 @@
         <v>77</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -17340,7 +17333,7 @@
         <v>76</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>95</v>
@@ -17349,7 +17342,7 @@
         <v>77</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>77</v>
@@ -17363,7 +17356,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17389,10 +17382,10 @@
         <v>85</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -17443,7 +17436,7 @@
         <v>77</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>75</v>
@@ -17461,7 +17454,7 @@
         <v>77</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>77</v>
@@ -17475,11 +17468,11 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17501,13 +17494,13 @@
         <v>128</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17557,7 +17550,7 @@
         <v>77</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>75</v>
@@ -17575,7 +17568,7 @@
         <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>77</v>
@@ -17589,11 +17582,11 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17615,16 +17608,16 @@
         <v>128</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>77</v>
@@ -17673,7 +17666,7 @@
         <v>77</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>75</v>
@@ -17705,7 +17698,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17728,16 +17721,16 @@
         <v>77</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17763,13 +17756,13 @@
         <v>77</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>77</v>
@@ -17787,7 +17780,7 @@
         <v>77</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>83</v>
@@ -17805,7 +17798,7 @@
         <v>77</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>77</v>
@@ -17819,7 +17812,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17842,19 +17835,19 @@
         <v>77</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>77</v>
@@ -17903,7 +17896,7 @@
         <v>77</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>75</v>
@@ -17912,7 +17905,7 @@
         <v>76</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>95</v>
@@ -17921,7 +17914,7 @@
         <v>77</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>77</v>
@@ -17935,7 +17928,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17961,10 +17954,10 @@
         <v>85</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -18015,7 +18008,7 @@
         <v>77</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>75</v>
@@ -18033,7 +18026,7 @@
         <v>77</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>77</v>
@@ -18047,7 +18040,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18125,7 +18118,7 @@
         <v>132</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>75</v>
@@ -18157,10 +18150,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>77</v>
@@ -18182,13 +18175,13 @@
         <v>77</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -18239,7 +18232,7 @@
         <v>77</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>75</v>
@@ -18271,10 +18264,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>77</v>
@@ -18296,13 +18289,13 @@
         <v>77</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -18353,7 +18346,7 @@
         <v>77</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>75</v>
@@ -18385,10 +18378,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>77</v>
@@ -18410,16 +18403,16 @@
         <v>77</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18469,7 +18462,7 @@
         <v>77</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>75</v>
@@ -18501,10 +18494,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>77</v>
@@ -18526,16 +18519,16 @@
         <v>77</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
@@ -18585,7 +18578,7 @@
         <v>77</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>75</v>
@@ -18617,10 +18610,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>77</v>
@@ -18642,16 +18635,16 @@
         <v>77</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -18701,7 +18694,7 @@
         <v>77</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>75</v>
@@ -18719,7 +18712,7 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>77</v>
@@ -18733,10 +18726,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>77</v>
@@ -18758,13 +18751,13 @@
         <v>77</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>461</v>
+        <v>161</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>462</v>
+        <v>162</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>463</v>
+        <v>163</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -18815,7 +18808,7 @@
         <v>77</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>75</v>
@@ -18847,11 +18840,11 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18873,16 +18866,16 @@
         <v>128</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>77</v>
@@ -18931,7 +18924,7 @@
         <v>77</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>75</v>
@@ -18963,7 +18956,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18989,16 +18982,16 @@
         <v>85</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>77</v>
@@ -19047,7 +19040,7 @@
         <v>77</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>83</v>
@@ -19065,7 +19058,7 @@
         <v>77</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>77</v>
@@ -19079,7 +19072,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19105,16 +19098,16 @@
         <v>97</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>77</v>
@@ -19163,7 +19156,7 @@
         <v>77</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>75</v>
@@ -19181,7 +19174,7 @@
         <v>77</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>77</v>
@@ -19195,7 +19188,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19218,19 +19211,19 @@
         <v>77</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>77</v>
@@ -19255,13 +19248,13 @@
         <v>77</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>77</v>
@@ -19279,7 +19272,7 @@
         <v>77</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>75</v>
@@ -19288,7 +19281,7 @@
         <v>76</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>95</v>
@@ -19297,7 +19290,7 @@
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>77</v>
@@ -19311,11 +19304,11 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19337,16 +19330,16 @@
         <v>85</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M147" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>77</v>
@@ -19395,7 +19388,7 @@
         <v>77</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>75</v>
@@ -19413,7 +19406,7 @@
         <v>77</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>77</v>
@@ -19427,7 +19420,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19453,13 +19446,13 @@
         <v>85</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -19509,7 +19502,7 @@
         <v>77</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>75</v>
@@ -19527,7 +19520,7 @@
         <v>77</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>77</v>
@@ -19541,7 +19534,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19567,16 +19560,16 @@
         <v>103</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>77</v>
@@ -19601,13 +19594,13 @@
         <v>77</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>77</v>
@@ -19625,7 +19618,7 @@
         <v>77</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>83</v>
@@ -19643,7 +19636,7 @@
         <v>77</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>77</v>
@@ -19657,7 +19650,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19680,19 +19673,19 @@
         <v>77</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>77</v>
@@ -19741,7 +19734,7 @@
         <v>77</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>75</v>
@@ -19753,13 +19746,13 @@
         <v>77</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>77</v>
@@ -19773,7 +19766,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19799,10 +19792,10 @@
         <v>85</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -19853,7 +19846,7 @@
         <v>77</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>75</v>
@@ -19871,7 +19864,7 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>77</v>
@@ -19885,11 +19878,11 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19911,13 +19904,13 @@
         <v>128</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
@@ -19967,7 +19960,7 @@
         <v>77</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>75</v>
@@ -19985,7 +19978,7 @@
         <v>77</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>77</v>
@@ -19999,11 +19992,11 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20025,16 +20018,16 @@
         <v>128</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>77</v>
@@ -20083,7 +20076,7 @@
         <v>77</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>75</v>
@@ -20115,7 +20108,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20141,13 +20134,13 @@
         <v>85</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -20197,7 +20190,7 @@
         <v>77</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>83</v>
@@ -20215,7 +20208,7 @@
         <v>77</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>77</v>
@@ -20229,7 +20222,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20255,10 +20248,10 @@
         <v>103</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -20285,13 +20278,13 @@
         <v>77</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>77</v>
@@ -20309,7 +20302,7 @@
         <v>77</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>83</v>
@@ -20327,7 +20320,7 @@
         <v>77</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>77</v>
@@ -20341,7 +20334,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20364,13 +20357,13 @@
         <v>77</v>
       </c>
       <c r="J156" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L156" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -20397,40 +20390,40 @@
         <v>77</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X156" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH156" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>95</v>
@@ -20439,7 +20432,7 @@
         <v>77</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>77</v>
@@ -20453,7 +20446,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20479,13 +20472,13 @@
         <v>103</v>
       </c>
       <c r="K157" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -20511,14 +20504,14 @@
         <v>77</v>
       </c>
       <c r="W157" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X157" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Y157" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="Y157" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="Z157" t="s" s="2">
         <v>77</v>
       </c>
@@ -20535,7 +20528,7 @@
         <v>77</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>75</v>
@@ -20544,7 +20537,7 @@
         <v>83</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>95</v>
@@ -20553,7 +20546,7 @@
         <v>77</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>77</v>
@@ -20567,7 +20560,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20590,23 +20583,23 @@
         <v>77</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P158" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Q158" t="s" s="2">
         <v>77</v>
@@ -20651,7 +20644,7 @@
         <v>77</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>75</v>
@@ -20660,7 +20653,7 @@
         <v>83</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>95</v>
@@ -20669,7 +20662,7 @@
         <v>77</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>77</v>
@@ -20683,7 +20676,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20706,26 +20699,26 @@
         <v>77</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L159" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M159" t="s" s="2">
+      <c r="N159" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P159" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="N159" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P159" t="s" s="2">
-        <v>563</v>
-      </c>
       <c r="Q159" t="s" s="2">
         <v>77</v>
       </c>
@@ -20769,7 +20762,7 @@
         <v>77</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>75</v>
@@ -20778,7 +20771,7 @@
         <v>83</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>95</v>
@@ -20787,7 +20780,7 @@
         <v>77</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>77</v>
@@ -20801,7 +20794,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20824,19 +20817,19 @@
         <v>77</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>77</v>
@@ -20885,7 +20878,7 @@
         <v>77</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>75</v>
@@ -20894,7 +20887,7 @@
         <v>83</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>95</v>
@@ -20903,7 +20896,7 @@
         <v>77</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>77</v>
@@ -20917,7 +20910,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20940,16 +20933,16 @@
         <v>77</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L161" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -20999,7 +20992,7 @@
         <v>77</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>75</v>
@@ -21008,7 +21001,7 @@
         <v>83</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>95</v>
@@ -21017,7 +21010,7 @@
         <v>77</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>77</v>
@@ -21031,7 +21024,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21054,16 +21047,16 @@
         <v>77</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21113,7 +21106,7 @@
         <v>77</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>75</v>
@@ -21122,7 +21115,7 @@
         <v>83</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>95</v>
@@ -21131,7 +21124,7 @@
         <v>77</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>77</v>
@@ -21145,7 +21138,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21168,16 +21161,16 @@
         <v>77</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -21227,7 +21220,7 @@
         <v>77</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>75</v>
@@ -21236,7 +21229,7 @@
         <v>76</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>95</v>
@@ -21245,7 +21238,7 @@
         <v>77</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>77</v>
@@ -21259,7 +21252,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21285,10 +21278,10 @@
         <v>85</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -21339,7 +21332,7 @@
         <v>77</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>75</v>
@@ -21357,7 +21350,7 @@
         <v>77</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>77</v>
@@ -21371,11 +21364,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21397,13 +21390,13 @@
         <v>128</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
@@ -21453,7 +21446,7 @@
         <v>77</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>75</v>
@@ -21471,7 +21464,7 @@
         <v>77</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>77</v>
@@ -21485,11 +21478,11 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21511,16 +21504,16 @@
         <v>128</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>77</v>
@@ -21569,7 +21562,7 @@
         <v>77</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>75</v>
@@ -21601,7 +21594,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21624,16 +21617,16 @@
         <v>77</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
@@ -21659,13 +21652,13 @@
         <v>77</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>77</v>
@@ -21683,7 +21676,7 @@
         <v>77</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>83</v>
@@ -21701,7 +21694,7 @@
         <v>77</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>77</v>
@@ -21715,7 +21708,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21738,23 +21731,23 @@
         <v>77</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P168" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="Q168" t="s" s="2">
         <v>77</v>
@@ -21799,7 +21792,7 @@
         <v>77</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>75</v>
@@ -21817,7 +21810,7 @@
         <v>77</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>77</v>
@@ -21831,7 +21824,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21854,19 +21847,19 @@
         <v>77</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M169" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>77</v>
@@ -21915,7 +21908,7 @@
         <v>77</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>75</v>
@@ -21924,7 +21917,7 @@
         <v>76</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>95</v>
@@ -21933,7 +21926,7 @@
         <v>77</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>77</v>
@@ -21947,7 +21940,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21973,10 +21966,10 @@
         <v>85</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -22027,7 +22020,7 @@
         <v>77</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>75</v>
@@ -22045,7 +22038,7 @@
         <v>77</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>77</v>
@@ -22059,11 +22052,11 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22085,13 +22078,13 @@
         <v>128</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -22141,7 +22134,7 @@
         <v>77</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>75</v>
@@ -22159,7 +22152,7 @@
         <v>77</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>77</v>
@@ -22173,11 +22166,11 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22199,16 +22192,16 @@
         <v>128</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>77</v>
@@ -22257,7 +22250,7 @@
         <v>77</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>75</v>
@@ -22289,7 +22282,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22312,16 +22305,16 @@
         <v>77</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="K173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
@@ -22347,13 +22340,13 @@
         <v>77</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>77</v>
@@ -22371,7 +22364,7 @@
         <v>77</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>83</v>
@@ -22389,7 +22382,7 @@
         <v>77</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>77</v>
@@ -22403,7 +22396,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22429,16 +22422,16 @@
         <v>77</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>77</v>
@@ -22487,7 +22480,7 @@
         <v>77</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>75</v>
@@ -22496,7 +22489,7 @@
         <v>76</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AI174" t="s" s="2">
         <v>95</v>
@@ -22505,7 +22498,7 @@
         <v>77</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -525,10 +525,10 @@
 </t>
   </si>
   <si>
-    <t>Device Types</t>
-  </si>
-  <si>
-    <t>device types</t>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>The intent of device is to be reused between both Questionniare and Questionnaire.item. &lt;br&gt;A device has details that consist of: &lt;br&gt;type : The device type (string)&lt;br&gt;reportField: field used for mapping data from the device report.&lt;br&gt;Questionnaire utilizes the &lt;i&gt;type&lt;/i&gt; field to idenfity the type of device used within the Questionniare.&lt;br&gt;Questionniare.item utilizes &lt;i&gt;reportField&lt;/i&gt; unless Questionnaire contains more then one device then Questionniare.item.device.detail must contain the device type</t>
   </si>
   <si>
     <t>formSettings</t>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t>Device</t>
+    <t>Extension : Device</t>
   </si>
   <si>
     <t>The intent of device is to be reused between both Questionniare and Questionnaire.item. &lt;br&gt;A device has details that consist of: &lt;br&gt;type : The device type (string)&lt;br&gt;reportField: field used for mapping data from the device report.&lt;br&gt;Questionnaire utilizes the &lt;i&gt;type&lt;/i&gt; field to idenfity the type of device used within the Questionniare.&lt;br&gt;Questionniare.item utilizes &lt;i&gt;reportField&lt;/i&gt; unless Questionnaire contains more then one device then Questionniare.item.device.detail must contain the device type</t>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$172</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6260" uniqueCount="711">
   <si>
     <t>Property</t>
   </si>
@@ -1462,9 +1462,6 @@
   </si>
   <si>
     <t>Data type specified must be the same as the data type for the data element.</t>
-  </si>
-  <si>
-    <t>deviceReportField</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -2557,7 +2554,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN174"/>
+  <dimension ref="A1:AN172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4227,7 +4224,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -10630,41 +10627,43 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B71" t="s" s="2">
         <v>461</v>
       </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>162</v>
+        <v>463</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10712,7 +10711,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>228</v>
+        <v>465</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10730,7 +10729,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10742,44 +10741,44 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>184</v>
+        <v>469</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>185</v>
+        <v>470</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10831,22 +10830,22 @@
         <v>466</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>126</v>
+        <v>471</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10858,9 +10857,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10868,13 +10867,13 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10883,19 +10882,19 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10944,10 +10943,10 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>83</v>
@@ -10962,7 +10961,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10976,7 +10975,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10987,7 +10986,7 @@
         <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10999,19 +10998,19 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>97</v>
+        <v>359</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -11036,13 +11035,13 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -11060,16 +11059,16 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>95</v>
@@ -11078,7 +11077,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>478</v>
+        <v>366</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -11090,23 +11089,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -11115,19 +11114,19 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>359</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11152,13 +11151,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -11176,16 +11175,16 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>95</v>
@@ -11194,7 +11193,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>366</v>
+        <v>489</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11206,13 +11205,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11222,7 +11221,7 @@
         <v>83</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -11234,17 +11233,13 @@
         <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>486</v>
+        <v>224</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
@@ -11292,7 +11287,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>484</v>
+        <v>226</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -11304,13 +11299,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>490</v>
+        <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11335,7 +11330,7 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -11347,13 +11342,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11392,31 +11387,29 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
@@ -11436,9 +11429,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11447,7 +11442,7 @@
         <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -11459,15 +11454,17 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -11504,14 +11501,16 @@
         <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB78" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
         <v>228</v>
@@ -11523,7 +11522,7 @@
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>134</v>
@@ -11532,7 +11531,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11546,7 +11545,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>493</v>
@@ -11571,17 +11570,15 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11648,7 +11645,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11662,11 +11659,9 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B80" t="s" s="2">
         <v>494</v>
       </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11687,13 +11682,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11717,7 +11712,7 @@
         <v>77</v>
       </c>
       <c r="V80" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="W80" t="s" s="2">
         <v>77</v>
@@ -11744,25 +11739,25 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11774,7 +11769,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>495</v>
       </c>
@@ -11790,7 +11785,7 @@
         <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11802,12 +11797,14 @@
         <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>240</v>
+        <v>496</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -11829,7 +11826,7 @@
         <v>77</v>
       </c>
       <c r="V81" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="W81" t="s" s="2">
         <v>77</v>
@@ -11856,7 +11853,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>243</v>
+        <v>495</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11868,13 +11865,13 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11886,9 +11883,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11902,7 +11899,7 @@
         <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -11914,14 +11911,12 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>497</v>
+        <v>224</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -11970,7 +11965,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>496</v>
+        <v>226</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11982,13 +11977,13 @@
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12013,7 +12008,7 @@
         <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>77</v>
@@ -12025,13 +12020,13 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -12070,31 +12065,29 @@
         <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
@@ -12114,9 +12107,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
         <v>77</v>
       </c>
@@ -12125,7 +12120,7 @@
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -12137,15 +12132,17 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -12182,14 +12179,16 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB84" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>228</v>
@@ -12201,7 +12200,7 @@
         <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>134</v>
@@ -12210,7 +12209,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12224,7 +12223,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>502</v>
@@ -12249,17 +12248,15 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -12326,7 +12323,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12338,9 +12335,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>503</v>
@@ -12356,7 +12353,7 @@
         <v>83</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -12365,15 +12362,17 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>235</v>
+        <v>504</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>236</v>
+        <v>505</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -12440,7 +12439,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12452,13 +12451,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12470,7 +12467,7 @@
         <v>83</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -12479,17 +12476,15 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>505</v>
+        <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>506</v>
+        <v>240</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -12511,7 +12506,7 @@
         <v>77</v>
       </c>
       <c r="V87" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="W87" t="s" s="2">
         <v>77</v>
@@ -12538,19 +12533,19 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
@@ -12568,7 +12563,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>509</v>
       </c>
@@ -12578,13 +12573,13 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -12593,16 +12588,20 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>240</v>
+        <v>510</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12623,16 +12622,16 @@
         <v>77</v>
       </c>
       <c r="V88" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -12650,10 +12649,10 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>243</v>
+        <v>509</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
@@ -12662,13 +12661,13 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12680,9 +12679,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12690,34 +12689,34 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H89" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>103</v>
+        <v>368</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12742,43 +12741,43 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>515</v>
+        <v>77</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AF89" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>95</v>
+        <v>521</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>77</v>
@@ -12798,7 +12797,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12809,32 +12808,28 @@
         <v>75</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>518</v>
+        <v>376</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12882,25 +12877,25 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>517</v>
+        <v>226</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>522</v>
+        <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12918,14 +12913,14 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>77</v>
@@ -12937,15 +12932,17 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>376</v>
+        <v>524</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -12994,19 +12991,19 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
@@ -13026,11 +13023,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>181</v>
+        <v>462</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13043,24 +13040,26 @@
         <v>77</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
       </c>
@@ -13108,7 +13107,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>228</v>
+        <v>465</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -13126,7 +13125,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13144,39 +13143,37 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>77</v>
       </c>
@@ -13224,25 +13221,25 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>126</v>
+        <v>418</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13256,7 +13253,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13279,17 +13276,15 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>77</v>
@@ -13314,13 +13309,13 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>77</v>
+        <v>534</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>77</v>
+        <v>535</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13338,7 +13333,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
@@ -13370,7 +13365,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13393,13 +13388,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>103</v>
+        <v>537</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13426,32 +13421,32 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>255</v>
+        <v>363</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AF95" t="s" s="2">
         <v>83</v>
       </c>
@@ -13459,7 +13454,7 @@
         <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>95</v>
@@ -13482,7 +13477,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13490,7 +13485,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>83</v>
@@ -13505,15 +13500,17 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>538</v>
+        <v>103</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>77</v>
@@ -13538,13 +13535,13 @@
         <v>77</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>363</v>
+        <v>255</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>77</v>
@@ -13562,16 +13559,16 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -13592,9 +13589,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13608,7 +13605,7 @@
         <v>83</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>77</v>
@@ -13617,22 +13614,24 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="Q97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13652,13 +13651,13 @@
         <v>77</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>546</v>
+        <v>77</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>548</v>
+        <v>77</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>77</v>
@@ -13676,7 +13675,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -13685,7 +13684,7 @@
         <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13708,7 +13707,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13734,74 +13733,76 @@
         <v>262</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P98" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH98" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="Q98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13824,7 +13825,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13850,68 +13851,66 @@
         <v>262</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P99" t="s" s="2">
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="Q99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>556</v>
-      </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
       </c>
@@ -13919,7 +13918,7 @@
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13942,7 +13941,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13965,20 +13964,18 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>262</v>
+        <v>568</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>77</v>
       </c>
@@ -14026,7 +14023,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -14035,7 +14032,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -14053,12 +14050,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14081,16 +14078,16 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14140,7 +14137,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -14149,7 +14146,7 @@
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -14167,12 +14164,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14183,7 +14180,7 @@
         <v>75</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>84</v>
@@ -14195,16 +14192,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>575</v>
+        <v>368</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -14254,16 +14251,16 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>95</v>
@@ -14284,9 +14281,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14297,10 +14294,10 @@
         <v>75</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>77</v>
@@ -14309,17 +14306,15 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>581</v>
+        <v>376</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14368,25 +14363,25 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>580</v>
+        <v>226</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>579</v>
+        <v>77</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14411,7 +14406,7 @@
         <v>75</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>77</v>
@@ -14423,13 +14418,13 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>376</v>
+        <v>129</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>377</v>
+        <v>130</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14468,37 +14463,35 @@
         <v>77</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB104" s="2"/>
       <c r="AC104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14512,9 +14505,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B105" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
         <v>77</v>
       </c>
@@ -14523,7 +14518,7 @@
         <v>75</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>77</v>
@@ -14535,13 +14530,13 @@
         <v>77</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>128</v>
+        <v>586</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>129</v>
+        <v>587</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>130</v>
+        <v>588</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -14580,14 +14575,16 @@
         <v>77</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB105" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
         <v>228</v>
@@ -14599,7 +14596,7 @@
         <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>134</v>
@@ -14622,41 +14619,43 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>587</v>
+        <v>128</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>588</v>
+        <v>463</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>77</v>
       </c>
@@ -14704,7 +14703,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>228</v>
+        <v>465</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -14713,7 +14712,7 @@
         <v>76</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>134</v>
@@ -14722,7 +14721,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14740,39 +14739,37 @@
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>128</v>
+        <v>591</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>464</v>
+        <v>592</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>465</v>
+        <v>593</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14796,49 +14793,47 @@
         <v>77</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="AB107" s="2"/>
       <c r="AC107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>77</v>
+        <v>596</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>466</v>
+        <v>590</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>126</v>
+        <v>418</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14852,15 +14847,17 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B108" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="C108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>83</v>
@@ -14875,16 +14872,16 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K108" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="K108" t="s" s="2">
+      <c r="L108" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14913,26 +14910,28 @@
         <v>363</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Y108" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AB108" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>597</v>
+        <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>83</v>
@@ -14964,11 +14963,9 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B109" t="s" s="2">
         <v>598</v>
       </c>
+      <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
         <v>77</v>
       </c>
@@ -14992,14 +14989,12 @@
         <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>593</v>
+        <v>224</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15024,13 +15019,13 @@
         <v>77</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15048,10 +15043,10 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>591</v>
+        <v>226</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>83</v>
@@ -15060,13 +15055,13 @@
         <v>77</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15091,7 +15086,7 @@
         <v>75</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>77</v>
@@ -15103,13 +15098,13 @@
         <v>77</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15148,31 +15143,29 @@
         <v>77</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB110" s="2"/>
       <c r="AC110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>77</v>
@@ -15192,9 +15185,11 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B111" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
         <v>77</v>
       </c>
@@ -15203,7 +15198,7 @@
         <v>75</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>77</v>
@@ -15215,15 +15210,17 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M111" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>77</v>
@@ -15260,14 +15257,16 @@
         <v>77</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB111" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
         <v>228</v>
@@ -15279,7 +15278,7 @@
         <v>76</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>134</v>
@@ -15288,7 +15287,7 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15302,7 +15301,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>601</v>
@@ -15327,17 +15326,15 @@
         <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>77</v>
@@ -15404,7 +15401,7 @@
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -15418,11 +15415,9 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="B113" t="s" s="2">
         <v>602</v>
       </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>77</v>
       </c>
@@ -15443,13 +15438,13 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15473,7 +15468,7 @@
         <v>77</v>
       </c>
       <c r="V113" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="W113" t="s" s="2">
         <v>77</v>
@@ -15500,25 +15495,25 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -15532,9 +15527,11 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
         <v>77</v>
       </c>
@@ -15555,15 +15552,17 @@
         <v>77</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>85</v>
+        <v>359</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>240</v>
+        <v>592</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15585,16 +15584,16 @@
         <v>77</v>
       </c>
       <c r="V114" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>77</v>
@@ -15612,10 +15611,10 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>243</v>
+        <v>590</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>83</v>
@@ -15624,13 +15623,13 @@
         <v>77</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15644,11 +15643,9 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
         <v>77</v>
       </c>
@@ -15669,17 +15666,15 @@
         <v>77</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>359</v>
+        <v>85</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>593</v>
+        <v>376</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15704,13 +15699,13 @@
         <v>77</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>77</v>
@@ -15728,10 +15723,10 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>591</v>
+        <v>226</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>83</v>
@@ -15740,13 +15735,13 @@
         <v>77</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15764,14 +15759,14 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>77</v>
@@ -15783,15 +15778,17 @@
         <v>77</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>376</v>
+        <v>524</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M116" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15828,31 +15825,31 @@
         <v>77</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>77</v>
+        <v>604</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>77</v>
@@ -15872,18 +15869,18 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>77</v>
@@ -15892,21 +15889,23 @@
         <v>77</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>525</v>
+        <v>606</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>526</v>
+        <v>607</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
       </c>
@@ -15942,37 +15941,37 @@
         <v>77</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>605</v>
+        <v>77</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>228</v>
+        <v>610</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>378</v>
+        <v>611</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -15981,12 +15980,12 @@
         <v>77</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>77</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16009,20 +16008,18 @@
         <v>84</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>610</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>77</v>
       </c>
@@ -16070,7 +16067,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -16088,7 +16085,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16097,12 +16094,12 @@
         <v>77</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16125,18 +16122,18 @@
         <v>84</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>77</v>
       </c>
@@ -16184,7 +16181,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
@@ -16202,7 +16199,7 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
@@ -16211,12 +16208,12 @@
         <v>77</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16239,17 +16236,17 @@
         <v>84</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>77</v>
@@ -16298,7 +16295,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
@@ -16316,7 +16313,7 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -16325,12 +16322,12 @@
         <v>77</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16350,21 +16347,19 @@
         <v>77</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J121" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>629</v>
+        <v>224</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>630</v>
+        <v>225</v>
       </c>
       <c r="M121" s="2"/>
-      <c r="N121" t="s" s="2">
-        <v>631</v>
-      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>77</v>
       </c>
@@ -16412,7 +16407,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>632</v>
+        <v>226</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -16424,13 +16419,13 @@
         <v>77</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>633</v>
+        <v>77</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -16439,7 +16434,7 @@
         <v>77</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>634</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" hidden="true">
@@ -16455,7 +16450,7 @@
         <v>75</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>77</v>
@@ -16467,13 +16462,13 @@
         <v>77</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16512,31 +16507,29 @@
         <v>77</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB122" s="2"/>
       <c r="AC122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>77</v>
@@ -16556,9 +16549,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B123" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
         <v>77</v>
       </c>
@@ -16567,7 +16562,7 @@
         <v>75</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>77</v>
@@ -16579,15 +16574,17 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M123" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>77</v>
@@ -16624,14 +16621,16 @@
         <v>77</v>
       </c>
       <c r="AA123" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB123" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD123" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
         <v>228</v>
@@ -16643,7 +16642,7 @@
         <v>76</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>134</v>
@@ -16652,7 +16651,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16666,7 +16665,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>637</v>
@@ -16691,17 +16690,15 @@
         <v>77</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>77</v>
@@ -16768,7 +16765,7 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
@@ -16782,11 +16779,9 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="B125" t="s" s="2">
         <v>638</v>
       </c>
+      <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
         <v>77</v>
       </c>
@@ -16807,13 +16802,13 @@
         <v>77</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16837,7 +16832,7 @@
         <v>77</v>
       </c>
       <c r="V125" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="W125" t="s" s="2">
         <v>77</v>
@@ -16864,25 +16859,25 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
@@ -16916,19 +16911,23 @@
         <v>77</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>240</v>
+        <v>640</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>77</v>
       </c>
@@ -16949,7 +16948,7 @@
         <v>77</v>
       </c>
       <c r="V126" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="W126" t="s" s="2">
         <v>77</v>
@@ -16976,7 +16975,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>243</v>
+        <v>644</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -16988,13 +16987,13 @@
         <v>77</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>77</v>
+        <v>645</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
@@ -17003,12 +17002,12 @@
         <v>77</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>77</v>
+        <v>646</v>
       </c>
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17028,27 +17027,27 @@
         <v>77</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
         <v>262</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>644</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>651</v>
+      </c>
       <c r="Q127" t="s" s="2">
         <v>77</v>
       </c>
@@ -17092,7 +17091,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
@@ -17110,7 +17109,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>646</v>
+        <v>418</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17119,12 +17118,12 @@
         <v>77</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>647</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17135,10 +17134,10 @@
         <v>75</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>77</v>
@@ -17147,77 +17146,77 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>262</v>
+        <v>368</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N128" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="O128" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P128" t="s" s="2">
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE128" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="Q128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>648</v>
-      </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>77</v>
+        <v>657</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>95</v>
@@ -17238,9 +17237,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17251,10 +17250,10 @@
         <v>75</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>77</v>
@@ -17263,20 +17262,16 @@
         <v>77</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>654</v>
+        <v>376</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>657</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>77</v>
       </c>
@@ -17324,25 +17319,25 @@
         <v>77</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>653</v>
+        <v>226</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>658</v>
+        <v>77</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>77</v>
@@ -17360,14 +17355,14 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>77</v>
@@ -17379,15 +17374,17 @@
         <v>77</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>376</v>
+        <v>524</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>77</v>
@@ -17436,19 +17433,19 @@
         <v>77</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>77</v>
@@ -17472,7 +17469,7 @@
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>181</v>
+        <v>462</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17485,24 +17482,26 @@
         <v>77</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>77</v>
       </c>
@@ -17550,7 +17549,7 @@
         <v>77</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>228</v>
+        <v>465</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>75</v>
@@ -17568,7 +17567,7 @@
         <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>77</v>
@@ -17580,45 +17579,43 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>661</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>128</v>
+        <v>662</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>464</v>
+        <v>663</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>465</v>
+        <v>664</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>77</v>
       </c>
@@ -17642,13 +17639,13 @@
         <v>77</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>77</v>
@@ -17666,25 +17663,25 @@
         <v>77</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>466</v>
+        <v>661</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>126</v>
+        <v>418</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>77</v>
@@ -17698,7 +17695,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17706,10 +17703,10 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>84</v>
@@ -17721,18 +17718,20 @@
         <v>77</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>663</v>
+        <v>368</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>669</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>670</v>
+      </c>
       <c r="O133" t="s" s="2">
         <v>77</v>
       </c>
@@ -17756,13 +17755,13 @@
         <v>77</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>77</v>
@@ -17780,16 +17779,16 @@
         <v>77</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>77</v>
+        <v>671</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>95</v>
@@ -17798,7 +17797,7 @@
         <v>77</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>418</v>
+        <v>672</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>77</v>
@@ -17810,9 +17809,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17823,10 +17822,10 @@
         <v>75</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>77</v>
@@ -17835,20 +17834,16 @@
         <v>77</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>668</v>
+        <v>376</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>77</v>
       </c>
@@ -17896,25 +17891,25 @@
         <v>77</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>667</v>
+        <v>226</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>672</v>
+        <v>77</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>673</v>
+        <v>378</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>77</v>
@@ -17939,7 +17934,7 @@
         <v>75</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>77</v>
@@ -17951,13 +17946,13 @@
         <v>77</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>376</v>
+        <v>129</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>377</v>
+        <v>130</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -17996,37 +17991,35 @@
         <v>77</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB135" s="2"/>
       <c r="AC135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD135" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>77</v>
@@ -18040,9 +18033,11 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="B136" s="2"/>
+        <v>674</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="C136" t="s" s="2">
         <v>77</v>
       </c>
@@ -18051,7 +18046,7 @@
         <v>75</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>77</v>
@@ -18063,13 +18058,13 @@
         <v>77</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -18108,14 +18103,16 @@
         <v>77</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB136" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC136" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>228</v>
@@ -18127,7 +18124,7 @@
         <v>76</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>134</v>
@@ -18150,10 +18147,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>77</v>
@@ -18175,13 +18172,13 @@
         <v>77</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>165</v>
+        <v>447</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>166</v>
+        <v>448</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>167</v>
+        <v>449</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -18264,10 +18261,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>77</v>
@@ -18289,15 +18286,17 @@
         <v>77</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M138" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>77</v>
@@ -18378,10 +18377,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>77</v>
@@ -18403,16 +18402,16 @@
         <v>77</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18494,10 +18493,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>77</v>
@@ -18519,16 +18518,16 @@
         <v>77</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
@@ -18596,7 +18595,7 @@
         <v>77</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>77</v>
@@ -18605,48 +18604,48 @@
         <v>77</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="B141" t="s" s="2">
-        <v>456</v>
-      </c>
+      <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>457</v>
+        <v>128</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N141" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O141" t="s" s="2">
         <v>77</v>
       </c>
@@ -18694,7 +18693,7 @@
         <v>77</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>228</v>
+        <v>465</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>75</v>
@@ -18703,7 +18702,7 @@
         <v>76</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>134</v>
@@ -18712,7 +18711,7 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>423</v>
+        <v>126</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>77</v>
@@ -18721,22 +18720,20 @@
         <v>77</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F142" t="s" s="2">
         <v>83</v>
@@ -18751,16 +18748,20 @@
         <v>77</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>162</v>
+        <v>467</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>77</v>
       </c>
@@ -18808,25 +18809,25 @@
         <v>77</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>228</v>
+        <v>466</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>77</v>
@@ -18840,42 +18841,42 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>184</v>
+        <v>475</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>185</v>
+        <v>476</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>77</v>
@@ -18924,25 +18925,25 @@
         <v>77</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>126</v>
+        <v>477</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>77</v>
@@ -18956,7 +18957,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18964,10 +18965,10 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>77</v>
@@ -18979,19 +18980,19 @@
         <v>77</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>85</v>
+        <v>359</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>77</v>
@@ -19016,13 +19017,13 @@
         <v>77</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>77</v>
@@ -19040,16 +19041,16 @@
         <v>77</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>95</v>
@@ -19058,7 +19059,7 @@
         <v>77</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>472</v>
+        <v>366</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>77</v>
@@ -19072,11 +19073,11 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19095,19 +19096,19 @@
         <v>77</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>77</v>
@@ -19156,7 +19157,7 @@
         <v>77</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>75</v>
@@ -19174,7 +19175,7 @@
         <v>77</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>77</v>
@@ -19188,7 +19189,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19199,7 +19200,7 @@
         <v>75</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>77</v>
@@ -19211,20 +19212,18 @@
         <v>77</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>359</v>
+        <v>85</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>77</v>
       </c>
@@ -19248,13 +19247,13 @@
         <v>77</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>77</v>
@@ -19272,16 +19271,16 @@
         <v>77</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>95</v>
@@ -19290,7 +19289,7 @@
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>77</v>
@@ -19304,15 +19303,15 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F147" t="s" s="2">
         <v>83</v>
@@ -19327,19 +19326,19 @@
         <v>77</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>488</v>
+        <v>682</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>77</v>
@@ -19364,13 +19363,13 @@
         <v>77</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>77</v>
@@ -19388,10 +19387,10 @@
         <v>77</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>83</v>
@@ -19406,7 +19405,7 @@
         <v>77</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>490</v>
+        <v>418</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>77</v>
@@ -19420,7 +19419,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19431,30 +19430,32 @@
         <v>75</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>85</v>
+        <v>368</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N148" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="O148" t="s" s="2">
         <v>77</v>
       </c>
@@ -19502,25 +19503,25 @@
         <v>77</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>95</v>
+        <v>521</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>307</v>
+        <v>418</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>77</v>
@@ -19534,7 +19535,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19542,7 +19543,7 @@
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F149" t="s" s="2">
         <v>83</v>
@@ -19557,20 +19558,16 @@
         <v>77</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>511</v>
+        <v>376</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>77</v>
       </c>
@@ -19594,13 +19591,13 @@
         <v>77</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>515</v>
+        <v>77</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>516</v>
+        <v>77</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>77</v>
@@ -19618,10 +19615,10 @@
         <v>77</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>510</v>
+        <v>226</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>83</v>
@@ -19630,13 +19627,13 @@
         <v>77</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>77</v>
@@ -19650,11 +19647,11 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19667,26 +19664,24 @@
         <v>77</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>368</v>
+        <v>128</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>77</v>
       </c>
@@ -19734,7 +19729,7 @@
         <v>77</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>517</v>
+        <v>228</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>75</v>
@@ -19746,13 +19741,13 @@
         <v>77</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>522</v>
+        <v>134</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>77</v>
@@ -19766,39 +19761,43 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>376</v>
+        <v>463</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O151" t="s" s="2">
         <v>77</v>
       </c>
@@ -19846,25 +19845,25 @@
         <v>77</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>226</v>
+        <v>465</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>77</v>
@@ -19878,18 +19877,18 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>77</v>
@@ -19901,16 +19900,16 @@
         <v>77</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>184</v>
+        <v>530</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
@@ -19960,25 +19959,25 @@
         <v>77</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>228</v>
+        <v>527</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>77</v>
@@ -19992,43 +19991,39 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>77</v>
       </c>
@@ -20052,13 +20047,13 @@
         <v>77</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>77</v>
+        <v>534</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>77</v>
+        <v>535</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>77</v>
@@ -20076,25 +20071,25 @@
         <v>77</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>126</v>
+        <v>418</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>77</v>
@@ -20108,7 +20103,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20131,17 +20126,15 @@
         <v>77</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>85</v>
+        <v>537</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>77</v>
@@ -20166,13 +20159,13 @@
         <v>77</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>77</v>
@@ -20190,7 +20183,7 @@
         <v>77</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>83</v>
@@ -20199,7 +20192,7 @@
         <v>83</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>95</v>
@@ -20222,7 +20215,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20230,7 +20223,7 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F155" t="s" s="2">
         <v>83</v>
@@ -20248,12 +20241,14 @@
         <v>103</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M155" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>77</v>
@@ -20281,10 +20276,10 @@
         <v>255</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>77</v>
@@ -20302,16 +20297,16 @@
         <v>77</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>77</v>
+        <v>548</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>95</v>
@@ -20334,7 +20329,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20342,7 +20337,7 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F156" t="s" s="2">
         <v>83</v>
@@ -20357,20 +20352,24 @@
         <v>77</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>538</v>
+        <v>262</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M156" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P156" s="2"/>
+      <c r="P156" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="Q156" t="s" s="2">
         <v>77</v>
       </c>
@@ -20390,13 +20389,13 @@
         <v>77</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>77</v>
@@ -20414,16 +20413,16 @@
         <v>77</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>95</v>
@@ -20446,7 +20445,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20469,22 +20468,26 @@
         <v>77</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>546</v>
+        <v>693</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N157" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="O157" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P157" s="2"/>
+      <c r="P157" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="Q157" t="s" s="2">
         <v>77</v>
       </c>
@@ -20504,13 +20507,13 @@
         <v>77</v>
       </c>
       <c r="W157" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>546</v>
+        <v>77</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>548</v>
+        <v>77</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>77</v>
@@ -20528,7 +20531,7 @@
         <v>77</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>75</v>
@@ -20537,7 +20540,7 @@
         <v>83</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>95</v>
@@ -20560,7 +20563,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20586,21 +20589,21 @@
         <v>262</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N158" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O158" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P158" t="s" s="2">
-        <v>554</v>
-      </c>
+      <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
         <v>77</v>
       </c>
@@ -20644,7 +20647,7 @@
         <v>77</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>75</v>
@@ -20653,7 +20656,7 @@
         <v>83</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>95</v>
@@ -20676,7 +20679,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20699,26 +20702,22 @@
         <v>77</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>262</v>
+        <v>568</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>694</v>
+        <v>570</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P159" t="s" s="2">
-        <v>561</v>
-      </c>
+      <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
         <v>77</v>
       </c>
@@ -20762,7 +20761,7 @@
         <v>77</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>75</v>
@@ -20771,7 +20770,7 @@
         <v>83</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>95</v>
@@ -20789,12 +20788,12 @@
         <v>77</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20817,20 +20816,18 @@
         <v>77</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>262</v>
+        <v>697</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
         <v>77</v>
       </c>
@@ -20878,7 +20875,7 @@
         <v>77</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>75</v>
@@ -20887,7 +20884,7 @@
         <v>83</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>95</v>
@@ -20910,7 +20907,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20921,7 +20918,7 @@
         <v>75</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>77</v>
@@ -20933,16 +20930,16 @@
         <v>77</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>569</v>
+        <v>368</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -20992,16 +20989,16 @@
         <v>77</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>95</v>
@@ -21019,12 +21016,12 @@
         <v>77</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21047,17 +21044,15 @@
         <v>77</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>698</v>
+        <v>85</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>576</v>
+        <v>376</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>77</v>
@@ -21106,7 +21101,7 @@
         <v>77</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>574</v>
+        <v>226</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>75</v>
@@ -21115,16 +21110,16 @@
         <v>83</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>579</v>
+        <v>77</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>77</v>
@@ -21138,11 +21133,11 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21161,16 +21156,16 @@
         <v>77</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>368</v>
+        <v>128</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>583</v>
+        <v>184</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -21220,7 +21215,7 @@
         <v>77</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>580</v>
+        <v>228</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>75</v>
@@ -21229,16 +21224,16 @@
         <v>76</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>579</v>
+        <v>77</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>77</v>
@@ -21252,39 +21247,43 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>376</v>
+        <v>463</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O164" t="s" s="2">
         <v>77</v>
       </c>
@@ -21332,25 +21331,25 @@
         <v>77</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>226</v>
+        <v>465</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>77</v>
@@ -21364,18 +21363,18 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>77</v>
@@ -21387,16 +21386,16 @@
         <v>77</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>128</v>
+        <v>703</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>184</v>
+        <v>594</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
@@ -21422,13 +21421,13 @@
         <v>77</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>77</v>
@@ -21446,25 +21445,25 @@
         <v>77</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>228</v>
+        <v>590</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>77</v>
@@ -21478,47 +21477,47 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>464</v>
+        <v>648</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>465</v>
+        <v>649</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P166" s="2"/>
+      <c r="P166" t="s" s="2">
+        <v>651</v>
+      </c>
       <c r="Q166" t="s" s="2">
         <v>77</v>
       </c>
@@ -21562,25 +21561,25 @@
         <v>77</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>466</v>
+        <v>647</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>126</v>
+        <v>418</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>77</v>
@@ -21594,7 +21593,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21602,10 +21601,10 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>77</v>
@@ -21617,18 +21616,20 @@
         <v>77</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>704</v>
+        <v>368</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>593</v>
+        <v>653</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>594</v>
+        <v>654</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N167" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="O167" t="s" s="2">
         <v>77</v>
       </c>
@@ -21652,13 +21653,13 @@
         <v>77</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>77</v>
@@ -21676,16 +21677,16 @@
         <v>77</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>591</v>
+        <v>652</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>77</v>
+        <v>657</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>95</v>
@@ -21708,7 +21709,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21731,24 +21732,20 @@
         <v>77</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>262</v>
+        <v>85</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>649</v>
+        <v>376</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M168" s="2"/>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P168" t="s" s="2">
-        <v>652</v>
-      </c>
+      <c r="P168" s="2"/>
       <c r="Q168" t="s" s="2">
         <v>77</v>
       </c>
@@ -21792,7 +21789,7 @@
         <v>77</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>648</v>
+        <v>226</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>75</v>
@@ -21804,13 +21801,13 @@
         <v>77</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>77</v>
@@ -21824,11 +21821,11 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21847,20 +21844,18 @@
         <v>77</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>368</v>
+        <v>128</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>654</v>
+        <v>524</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>655</v>
+        <v>525</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>657</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
         <v>77</v>
       </c>
@@ -21908,7 +21903,7 @@
         <v>77</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>653</v>
+        <v>228</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>75</v>
@@ -21917,16 +21912,16 @@
         <v>76</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>658</v>
+        <v>77</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>77</v>
@@ -21940,39 +21935,43 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>376</v>
+        <v>463</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O170" t="s" s="2">
         <v>77</v>
       </c>
@@ -22020,25 +22019,25 @@
         <v>77</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>226</v>
+        <v>465</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>77</v>
@@ -22052,18 +22051,18 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>77</v>
@@ -22075,16 +22074,16 @@
         <v>77</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>128</v>
+        <v>662</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>525</v>
+        <v>663</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>526</v>
+        <v>664</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>184</v>
+        <v>665</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -22110,13 +22109,13 @@
         <v>77</v>
       </c>
       <c r="W171" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>77</v>
@@ -22134,25 +22133,25 @@
         <v>77</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>228</v>
+        <v>661</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>77</v>
@@ -22166,11 +22165,11 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22183,25 +22182,25 @@
         <v>77</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>464</v>
+        <v>667</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>465</v>
+        <v>668</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>184</v>
+        <v>669</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>185</v>
+        <v>670</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>77</v>
@@ -22250,7 +22249,7 @@
         <v>77</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>466</v>
+        <v>666</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>75</v>
@@ -22259,16 +22258,16 @@
         <v>76</v>
       </c>
       <c r="AH172" t="s" s="2">
-        <v>77</v>
+        <v>671</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>126</v>
+        <v>672</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>77</v>
@@ -22277,241 +22276,11 @@
         <v>77</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="173" hidden="true">
-      <c r="A173" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="B173" s="2"/>
-      <c r="C173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F173" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N173" s="2"/>
-      <c r="O173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P173" s="2"/>
-      <c r="Q173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK173" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AL173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM173" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN173" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="174" hidden="true">
-      <c r="A174" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="B174" s="2"/>
-      <c r="C174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F174" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P174" s="2"/>
-      <c r="Q174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN174" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN174">
+  <autoFilter ref="A1:AN172">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -22521,7 +22290,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI173">
+  <conditionalFormatting sqref="A2:AI171">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Device</t>
+    <t>Questionnaire - Extension : Device</t>
   </si>
   <si>
     <t>The intent of device is to be reused between both Questionniare and Questionnaire.item. &lt;br&gt;A device has details that consist of: &lt;br&gt;type : The device type (string)&lt;br&gt;reportField: field used for mapping data from the device report.&lt;br&gt;Questionnaire utilizes the &lt;i&gt;type&lt;/i&gt; field to idenfity the type of device used within the Questionniare.&lt;br&gt;Questionniare.item utilizes &lt;i&gt;reportField&lt;/i&gt; unless Questionnaire contains more then one device then Questionniare.item.device.detail must contain the device type</t>
@@ -538,7 +538,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Object Rendering Settings</t>
+    <t>Questionnaire|Questionnaire.item - Extension : Object Rendering Settings</t>
   </si>
   <si>
     <t>Extension : Object Rendering Settings. The data structure the complex data structure depicted here can be used to depict Science 37 specific rendering configurations at the questionnaire level or the questionnaire item level.</t>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Questionniare SubStatus</t>
+    <t>Questionnaire - Extension : Questionniare SubStatus</t>
   </si>
   <si>
     <t>used to capture other statuses when questionnaire status is set to unknown</t>
@@ -564,7 +564,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : ResourceCreateUpdateAtDateTime</t>
+    <t>Extension : ActivityDefinition|PlanDefinition|Questionnaire - ResourceCreateUpdateAtDateTime</t>
   </si>
   <si>
     <t>Captures the created at an updated at attributes of date timestamps for a questionnaire</t>
@@ -577,7 +577,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Supported Languages</t>
+    <t>Questionnaire - Extension : Supported Languages</t>
   </si>
   <si>
     <t>Supported Languages : Contains a list of languages that is supported by the questionnaire</t>
@@ -1423,7 +1423,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Item Version</t>
+    <t>Questionnaire.item - Extension : Item Version</t>
   </si>
   <si>
     <t>Item Version</t>

--- a/StructureDefinition-questionnaire-s37-sdc.xlsx
+++ b/StructureDefinition-questionnaire-s37-sdc.xlsx
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t>Questionnaire - Extension : Device</t>
+    <t>Extension : Questionnaire - Device</t>
   </si>
   <si>
     <t>The intent of device is to be reused between both Questionniare and Questionnaire.item. &lt;br&gt;A device has details that consist of: &lt;br&gt;type : The device type (string)&lt;br&gt;reportField: field used for mapping data from the device report.&lt;br&gt;Questionnaire utilizes the &lt;i&gt;type&lt;/i&gt; field to idenfity the type of device used within the Questionniare.&lt;br&gt;Questionniare.item utilizes &lt;i&gt;reportField&lt;/i&gt; unless Questionnaire contains more then one device then Questionniare.item.device.detail must contain the device type</t>
@@ -538,7 +538,7 @@
 </t>
   </si>
   <si>
-    <t>Questionnaire|Questionnaire.item - Extension : Object Rendering Settings</t>
+    <t>Extension : Questionnaire|Questionnaire.item - Object Rendering Settings</t>
   </si>
   <si>
     <t>Extension : Object Rendering Settings. The data structure the complex data structure depicted here can be used to depict Science 37 specific rendering configurations at the questionnaire level or the questionnaire item level.</t>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t>Questionnaire - Extension : Questionniare SubStatus</t>
+    <t>Extension : Questionnaire - Questionniare SubStatus</t>
   </si>
   <si>
     <t>used to capture other statuses when questionnaire status is set to unknown</t>
@@ -577,7 +577,7 @@
 </t>
   </si>
   <si>
-    <t>Questionnaire - Extension : Supported Languages</t>
+    <t>Extension : Questionnaire - Supported Languages</t>
   </si>
   <si>
     <t>Supported Languages : Contains a list of languages that is supported by the questionnaire</t>
@@ -1423,7 +1423,7 @@
 </t>
   </si>
   <si>
-    <t>Questionnaire.item - Extension : Item Version</t>
+    <t>Extension : Questionnaire.item -  Item Version</t>
   </si>
   <si>
     <t>Item Version</t>
